--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 23130-2025</t>
+          <t>A 67603-2021</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45791.38667824074</v>
+        <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -712,124 +712,124 @@
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Backsippa
+Plattad jordtunga
+Svart jordtunga</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 67603-2021 artfynd.xlsx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 67603-2021 karta.png", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 67603-2021 FSC-klagomål.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 67603-2021 FSC-klagomål mail.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 67603-2021 tillsynsbegäran.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 67603-2021 tillsynsbegäran mail.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 23130-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45791.38667824074</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Backsippa
 Axveronika
 Flentimotej</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 23130-2025 artfynd.xlsx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 23130-2025 karta.png", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 23130-2025 FSC-klagomål.docx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 23130-2025 FSC-klagomål mail.docx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 23130-2025 tillsynsbegäran.docx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 23130-2025 tillsynsbegäran mail.docx", "A 23130-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 67603-2021</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44524</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Backsippa
-Plattad jordtunga
-Svart jordtunga</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 67603-2021 artfynd.xlsx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 67603-2021 karta.png", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 67603-2021 FSC-klagomål.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 67603-2021 FSC-klagomål mail.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 67603-2021 tillsynsbegäran.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 67603-2021 tillsynsbegäran mail.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45705.59221064814</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,14 +1095,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 50403-2022</t>
+          <t>A 41274-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44866</v>
+        <v>45898.62613425926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,23 +1114,18 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1144,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1154,813 +1149,818 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 28988-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45821.36956018519</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 22327-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45446.58446759259</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 46123-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45924.58663194445</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 46522-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45926.32910879629</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 60983-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 54409-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45965.45900462963</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Nattviol</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 50403-2022</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44866</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Springkorn</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 41274-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45898.62613425926</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 26261-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45468.65774305556</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 46123-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45924.58663194445</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 46522-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45926.32910879629</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Tibast</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 54409-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45965.45900462963</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Nattviol</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 22327-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45446.58446759259</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 26261-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45468.65774305556</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Åkerväddsantennmal</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 60983-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45261</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H15" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 2230-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45673.4736574074</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 2230-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45673.4736574074</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Fläcknycklar</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 28988-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45821.36956018519</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44319.48951388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44242</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2772,14 +2772,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37802-2022</t>
+          <t>A 19352-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44810</v>
+        <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2829,14 +2829,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7561-2025</t>
+          <t>A 26581-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45705.58834490741</v>
+        <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2886,14 +2886,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19352-2022</t>
+          <t>A 10950-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44692.66456018519</v>
+        <v>44627</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2943,14 +2943,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 60977-2023</t>
+          <t>A 50901-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45261.4765625</v>
+        <v>45602.68665509259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3000,14 +3000,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26581-2021</t>
+          <t>A 3877-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44348</v>
+        <v>44951.86751157408</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>9.300000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3057,14 +3057,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 10950-2022</t>
+          <t>A 36401-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44627</v>
+        <v>45152.54942129629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3076,8 +3076,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>6.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3114,14 +3119,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38756-2025</t>
+          <t>A 14210-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45887.39501157407</v>
+        <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3134,7 +3139,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3171,14 +3176,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 38735-2025</t>
+          <t>A 50886-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45887</v>
+        <v>45602.66590277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3191,7 +3196,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3228,14 +3233,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 11923-2025</t>
+          <t>A 13567-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45728.50200231482</v>
+        <v>45736</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3247,13 +3252,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>30.5</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 13870-2025</t>
+          <t>A 60917-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45737.58509259259</v>
+        <v>44908</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38760-2025</t>
+          <t>A 20290-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45887.39769675926</v>
+        <v>45774.7228125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 34431-2022</t>
+          <t>A 38300-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44792.57164351852</v>
+        <v>45161</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3423,13 +3423,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3466,14 +3461,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38199-2025</t>
+          <t>A 43012-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45882.67461805556</v>
+        <v>45567.3878125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3486,7 +3481,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3523,14 +3518,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60969-2023</t>
+          <t>A 16304-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45261.47166666666</v>
+        <v>45407.42699074074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3543,7 +3538,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3580,14 +3575,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 51475-2023</t>
+          <t>A 12168-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45221</v>
+        <v>44266</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3600,7 +3595,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3637,14 +3632,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 37806-2025</t>
+          <t>A 72563-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45881</v>
+        <v>44546.44777777778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3657,7 +3652,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3694,14 +3689,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12253-2024</t>
+          <t>A 11923-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45378</v>
+        <v>45728.50200231482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3713,8 +3708,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>30.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3751,14 +3751,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12254-2024</t>
+          <t>A 8024-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45378.43430555556</v>
+        <v>44243</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3770,8 +3770,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3808,14 +3813,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39226-2025</t>
+          <t>A 22328-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45889.2216550926</v>
+        <v>45446.58618055555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3828,7 +3833,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3865,14 +3870,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38299-2023</t>
+          <t>A 64930-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45161.64956018519</v>
+        <v>45282</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3885,7 +3890,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3922,14 +3927,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 39230-2025</t>
+          <t>A 38760-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45889.26685185185</v>
+        <v>45887.39769675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3942,7 +3947,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3979,14 +3984,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58800-2022</t>
+          <t>A 24499-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44903</v>
+        <v>45798.39575231481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3999,7 +4004,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4036,14 +4041,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 39227-2025</t>
+          <t>A 38299-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45889.22287037037</v>
+        <v>45161.64956018519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4056,7 +4061,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4093,14 +4098,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6785-2024</t>
+          <t>A 24519-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45342</v>
+        <v>45798.41673611111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4112,13 +4117,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4155,14 +4155,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 26695-2021</t>
+          <t>A 38735-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44348</v>
+        <v>45887</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4212,14 +4212,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39225-2025</t>
+          <t>A 40667-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45889.22056712963</v>
+        <v>45170.58804398148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4269,14 +4269,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 11944-2024</t>
+          <t>A 18740-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45376.68662037037</v>
+        <v>45763.71474537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4326,14 +4326,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 39965-2025</t>
+          <t>A 9125-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45892.57770833333</v>
+        <v>44980.33065972223</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4345,8 +4345,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4383,14 +4388,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17707-2023</t>
+          <t>A 38756-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45037.37438657408</v>
+        <v>45887.39501157407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4408,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4440,14 +4445,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49566-2021</t>
+          <t>A 54444-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44455</v>
+        <v>44473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4465,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4497,14 +4502,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59411-2022</t>
+          <t>A 39227-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44907</v>
+        <v>45889.22287037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4516,13 +4521,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4559,14 +4559,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53518-2022</t>
+          <t>A 39230-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44879.59599537037</v>
+        <v>45889.26685185185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4616,14 +4616,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 41105-2025</t>
+          <t>A 39225-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45898.45606481482</v>
+        <v>45889.22056712963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4673,14 +4673,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57125-2025</t>
+          <t>A 39226-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45979.47040509259</v>
+        <v>45889.2216550926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4730,14 +4730,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 57181-2025</t>
+          <t>A 11924-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45979.56186342592</v>
+        <v>45728.50487268518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4749,8 +4749,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4787,14 +4792,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 57194-2025</t>
+          <t>A 27259-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45979.57789351852</v>
+        <v>45812.47438657407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4812,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4844,14 +4849,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57694-2025</t>
+          <t>A 53518-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45981.45193287037</v>
+        <v>44879.59599537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4864,7 +4869,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4901,14 +4906,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57942-2025</t>
+          <t>A 27232-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45982.31621527778</v>
+        <v>45812.44145833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4921,7 +4926,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4958,14 +4963,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 58320-2025</t>
+          <t>A 27251-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45985.47396990741</v>
+        <v>45812.47131944444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4978,7 +4983,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5015,14 +5020,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 58321-2025</t>
+          <t>A 27255-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45985.47479166667</v>
+        <v>45812.47243055556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5035,7 +5040,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5072,14 +5077,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58318-2025</t>
+          <t>A 27248-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45985.47318287037</v>
+        <v>45812.46631944444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5092,7 +5097,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5129,14 +5134,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58756-2025</t>
+          <t>A 39965-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45986.65002314815</v>
+        <v>45892.57770833333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5149,7 +5154,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5186,14 +5191,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58316-2025</t>
+          <t>A 15783-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45985.47137731482</v>
+        <v>44663.6975</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5206,7 +5211,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5243,14 +5248,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58761-2025</t>
+          <t>A 50179-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45986.65516203704</v>
+        <v>45208</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5263,7 +5268,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5300,14 +5305,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58310-2025</t>
+          <t>A 51475-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45985.4681712963</v>
+        <v>45221</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5320,7 +5325,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5357,14 +5362,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43032-2025</t>
+          <t>A 28321-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45909.53945601852</v>
+        <v>45818.64015046296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5377,7 +5382,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5414,14 +5419,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 54442-2021</t>
+          <t>A 28663-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44473.45114583334</v>
+        <v>45819.6608912037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5471,14 +5476,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43026-2025</t>
+          <t>A 28341-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45909.53418981482</v>
+        <v>45818.67709490741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5491,7 +5496,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5528,14 +5533,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 58412-2023</t>
+          <t>A 28422-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45250.71864583333</v>
+        <v>45819.36372685185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5547,8 +5552,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5585,14 +5595,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 59105-2025</t>
+          <t>A 7337-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45988</v>
+        <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5605,7 +5615,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5642,14 +5652,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 72563-2021</t>
+          <t>A 28417-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44546.44777777778</v>
+        <v>45819.35731481481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5661,8 +5671,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5699,14 +5714,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46240-2021</t>
+          <t>A 28419-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44442</v>
+        <v>45819.3609375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5718,8 +5733,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5756,14 +5776,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 44752-2025</t>
+          <t>A 41105-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45917.68621527778</v>
+        <v>45898.45606481482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5776,7 +5796,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5813,14 +5833,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 44753-2025</t>
+          <t>A 28695-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45917.69141203703</v>
+        <v>45819.9034837963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5833,7 +5853,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5870,14 +5890,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44756-2025</t>
+          <t>A 28697-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45917.69450231481</v>
+        <v>45819.92020833334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5890,7 +5910,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5927,14 +5947,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 44757-2025</t>
+          <t>A 43026-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45917.70016203704</v>
+        <v>45909.53418981482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5947,7 +5967,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5984,14 +6004,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 59410-2022</t>
+          <t>A 29580-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44907</v>
+        <v>45825.37965277778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6003,13 +6023,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6046,14 +6061,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 72558-2021</t>
+          <t>A 43032-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44546.43049768519</v>
+        <v>45909.53945601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6066,7 +6081,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6103,14 +6118,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2073-2026</t>
+          <t>A 58412-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46036.3408449074</v>
+        <v>45250.71864583333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6123,7 +6138,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6160,14 +6175,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46164-2025</t>
+          <t>A 63449-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45924.63813657407</v>
+        <v>45273</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6180,7 +6195,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6217,14 +6232,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46175-2025</t>
+          <t>A 44757-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45924.64946759259</v>
+        <v>45917.70016203704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6237,7 +6252,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6274,14 +6289,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46144-2025</t>
+          <t>A 44752-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45924.60741898148</v>
+        <v>45917.68621527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6294,7 +6309,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6331,14 +6346,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46156-2025</t>
+          <t>A 44753-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45924.6319212963</v>
+        <v>45917.69141203703</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6351,7 +6366,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6388,14 +6403,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46159-2025</t>
+          <t>A 44756-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45924.6366550926</v>
+        <v>45917.69450231481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6408,7 +6423,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6445,14 +6460,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46166-2025</t>
+          <t>A 30468-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45924.63995370371</v>
+        <v>45827.84690972222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6465,7 +6480,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6502,14 +6517,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46521-2025</t>
+          <t>A 23781-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45926.32668981481</v>
+        <v>45793</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,13 +6536,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6564,14 +6574,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46467-2025</t>
+          <t>A 3678-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45925.67975694445</v>
+        <v>45681.44512731482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6584,7 +6594,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6621,14 +6631,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 66977-2021</t>
+          <t>A 46166-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44522</v>
+        <v>45924.63995370371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6641,7 +6651,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6678,14 +6688,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45918-2024</t>
+          <t>A 46164-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45580.4637037037</v>
+        <v>45924.63813657407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6698,7 +6708,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6735,14 +6745,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 65921-2021</t>
+          <t>A 46175-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44517</v>
+        <v>45924.64946759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6755,7 +6765,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6792,14 +6802,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50179-2023</t>
+          <t>A 46159-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45208</v>
+        <v>45924.6366550926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6812,7 +6822,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6849,14 +6859,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50570-2023</t>
+          <t>A 46156-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45217</v>
+        <v>45924.6319212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6879,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6906,14 +6916,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 4852-2026</t>
+          <t>A 46467-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46048.63101851852</v>
+        <v>45925.67975694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6926,7 +6936,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6963,14 +6973,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 39950-2024</t>
+          <t>A 46144-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45553</v>
+        <v>45924.60741898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6982,13 +6992,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7025,14 +7030,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4837-2026</t>
+          <t>A 2418-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46048.61173611111</v>
+        <v>45674.3837037037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7045,7 +7050,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7082,14 +7087,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 62129-2025</t>
+          <t>A 31624-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46006.44893518519</v>
+        <v>45834</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7102,7 +7107,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7139,14 +7144,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62123-2025</t>
+          <t>A 31623-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46006.44307870371</v>
+        <v>45834.02827546297</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7159,7 +7164,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7196,14 +7201,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 62570-2023</t>
+          <t>A 65921-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45269</v>
+        <v>44517</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7216,7 +7221,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7253,14 +7258,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4821-2023</t>
+          <t>A 46521-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44957.64600694444</v>
+        <v>45926.32668981481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7272,8 +7277,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7310,14 +7320,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 10980-2024</t>
+          <t>A 54442-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45370.5349074074</v>
+        <v>44473.45114583334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7330,7 +7340,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7367,14 +7377,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 43012-2024</t>
+          <t>A 32581-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45567.3878125</v>
+        <v>45838.59538194445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7387,7 +7397,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7424,14 +7434,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60964-2023</t>
+          <t>A 50181-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45261</v>
+        <v>45208</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7444,7 +7454,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7481,14 +7491,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 15276-2022</t>
+          <t>A 26696-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44659</v>
+        <v>44348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7500,13 +7510,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7543,14 +7548,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62447-2025</t>
+          <t>A 1293-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46007.48613425926</v>
+        <v>44936.47675925926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7562,13 +7567,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7605,14 +7605,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 62391-2025</t>
+          <t>A 50581-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46007.3897337963</v>
+        <v>45601.61167824074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7624,13 +7624,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>8.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7667,14 +7662,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 62852-2025</t>
+          <t>A 50339-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46008.70960648148</v>
+        <v>45216</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7686,13 +7681,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7729,14 +7719,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 51335-2025</t>
+          <t>A 51326-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45950.42493055556</v>
+        <v>45950.40321759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7749,7 +7739,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7786,14 +7776,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1293-2023</t>
+          <t>A 37806-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44936.47675925926</v>
+        <v>44810</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7806,7 +7796,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7843,14 +7833,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 51326-2025</t>
+          <t>A 51325-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45950.40321759259</v>
+        <v>45950.39878472222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7863,7 +7853,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7900,14 +7890,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 51325-2025</t>
+          <t>A 41337-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45950.39878472222</v>
+        <v>45174.69423611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7920,7 +7910,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7957,14 +7947,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64934-2023</t>
+          <t>A 10984-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45282.79449074074</v>
+        <v>45370.54677083333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7967,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8014,14 +8004,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 59234-2022</t>
+          <t>A 51335-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44904</v>
+        <v>45950.42493055556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8033,13 +8023,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8076,14 +8061,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55730-2022</t>
+          <t>A 10980-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44888</v>
+        <v>45370.5349074074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8081,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8133,14 +8118,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 63445-2025</t>
+          <t>A 37802-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46013.39946759259</v>
+        <v>44810</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8138,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8190,14 +8175,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 15491-2024</t>
+          <t>A 11944-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45401.51510416667</v>
+        <v>45376.68662037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,13 +8194,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8252,14 +8232,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44770-2025</t>
+          <t>A 3681-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45917.74980324074</v>
+        <v>45681.44800925926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8272,7 +8252,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8309,14 +8289,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 44769-2025</t>
+          <t>A 59234-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45917.74508101852</v>
+        <v>44904</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,8 +8308,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8366,14 +8351,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 64930-2023</t>
+          <t>A 37806-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45282</v>
+        <v>45881</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8371,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8423,14 +8408,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 24866-2023</t>
+          <t>A 17797-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45085.39561342593</v>
+        <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8428,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8480,14 +8465,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 12412-2025</t>
+          <t>A 44769-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45730.43697916667</v>
+        <v>45917.74508101852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8485,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8537,14 +8522,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 3087-2023</t>
+          <t>A 58658-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44946.43795138889</v>
+        <v>45635.60386574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8556,8 +8541,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8594,14 +8584,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 58415-2021</t>
+          <t>A 2715-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44488.52820601852</v>
+        <v>44580</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8604,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8651,14 +8641,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 6147-2025</t>
+          <t>A 961-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45698.40091435185</v>
+        <v>45301</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8661,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8708,14 +8698,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 35447-2023</t>
+          <t>A 44770-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45146</v>
+        <v>45917.74980324074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8718,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8765,14 +8755,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58658-2024</t>
+          <t>A 1011-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45635.60386574074</v>
+        <v>45666.48438657408</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8782,11 +8772,6 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -8827,14 +8812,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 51630-2021</t>
+          <t>A 1013-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44462.48349537037</v>
+        <v>45666.48954861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8847,7 +8832,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8884,14 +8869,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 55939-2025</t>
+          <t>A 34662-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45973.44811342593</v>
+        <v>45526.49626157407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8904,7 +8889,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8941,14 +8926,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 14210-2023</t>
+          <t>A 62570-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45009</v>
+        <v>45269</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8961,7 +8946,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8998,14 +8983,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 63449-2023</t>
+          <t>A 55939-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45273</v>
+        <v>45973.44811342593</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,14 +9040,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3678-2025</t>
+          <t>A 38199-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45681.44512731482</v>
+        <v>45882.67461805556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9075,7 +9060,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9112,14 +9097,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 36401-2023</t>
+          <t>A 50883-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45152.54942129629</v>
+        <v>45602.65869212963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,13 +9116,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9174,14 +9154,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 35404-2023</t>
+          <t>A 50896-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45146.60049768518</v>
+        <v>45602.68004629629</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9194,7 +9174,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9231,14 +9211,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 26696-2021</t>
+          <t>A 6147-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44348</v>
+        <v>45698.40091435185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9251,7 +9231,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>15.5</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9288,14 +9268,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 68095-2021</t>
+          <t>A 57181-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44526.3550462963</v>
+        <v>45979.56186342592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9308,7 +9288,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9345,14 +9325,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 12980-2025</t>
+          <t>A 57194-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45734.46005787037</v>
+        <v>45979.57789351852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,13 +9344,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>12.4</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9407,14 +9382,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 20288-2025</t>
+          <t>A 57125-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45774.71646990741</v>
+        <v>45979.47040509259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9427,7 +9402,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9464,14 +9439,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 49915-2024</t>
+          <t>A 3087-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45597.56597222222</v>
+        <v>44946.43795138889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9484,7 +9459,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9521,14 +9496,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 7337-2023</t>
+          <t>A 57694-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44971</v>
+        <v>45981.45193287037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9541,7 +9516,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9578,14 +9553,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 9176-2025</t>
+          <t>A 58316-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45714.41366898148</v>
+        <v>45985.47137731482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9598,7 +9573,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9635,14 +9610,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 9030-2022</t>
+          <t>A 57942-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44615</v>
+        <v>45982.31621527778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9655,7 +9630,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9692,14 +9667,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 37631-2023</t>
+          <t>A 7561-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45159</v>
+        <v>45705.58834490741</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9712,7 +9687,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9749,14 +9724,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 11270-2022</t>
+          <t>A 58310-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44629.74461805556</v>
+        <v>45985.4681712963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9769,7 +9744,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9806,14 +9781,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 41337-2023</t>
+          <t>A 58318-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45174.69423611111</v>
+        <v>45985.47318287037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9863,14 +9838,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 2800-2025</t>
+          <t>A 58320-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45677.58048611111</v>
+        <v>45985.47396990741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9883,7 +9858,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9920,14 +9895,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 44468-2021</t>
+          <t>A 58321-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44435</v>
+        <v>45985.47479166667</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,13 +9914,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9982,14 +9952,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 8658-2022</t>
+          <t>A 58756-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44613.66163194444</v>
+        <v>45986.65002314815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +9972,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10039,14 +10009,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 2418-2025</t>
+          <t>A 4314-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45674.3837037037</v>
+        <v>45324</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10058,8 +10028,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10096,14 +10071,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2231-2025</t>
+          <t>A 12769-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45673.47716435185</v>
+        <v>45384.58284722222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10116,7 +10091,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10153,14 +10128,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45164-2023</t>
+          <t>A 58761-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45191.49636574074</v>
+        <v>45986.65516203704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10173,7 +10148,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10210,14 +10185,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 11478-2024</t>
+          <t>A 59105-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45372</v>
+        <v>45988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10205,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10267,14 +10242,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 13563-2025</t>
+          <t>A 49915-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45736</v>
+        <v>45597.56597222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10287,7 +10262,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10324,14 +10299,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34662-2024</t>
+          <t>A 9030-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45526.49626157407</v>
+        <v>44615</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10344,7 +10319,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10381,14 +10356,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 12168-2021</t>
+          <t>A 12412-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44266</v>
+        <v>45730.43697916667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10401,7 +10376,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10438,14 +10413,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50181-2023</t>
+          <t>A 12980-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45208</v>
+        <v>45734.46005787037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10457,8 +10432,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.3</v>
+        <v>12.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10495,14 +10475,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 11924-2025</t>
+          <t>A 41819-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45728.50487268518</v>
+        <v>45176.56298611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10514,13 +10494,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10557,14 +10532,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 53520-2022</t>
+          <t>A 58415-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44879</v>
+        <v>44488.52820601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10577,7 +10552,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10614,14 +10589,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 52655-2023</t>
+          <t>A 22307-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45225</v>
+        <v>45446.56908564815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10634,7 +10609,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10671,14 +10646,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 22307-2024</t>
+          <t>A 46240-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45446.56908564815</v>
+        <v>44442</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10691,7 +10666,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10728,14 +10703,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 3877-2023</t>
+          <t>A 2073-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44951.86751157408</v>
+        <v>46036.3408449074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10723,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10785,14 +10760,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 61012-2023</t>
+          <t>A 34431-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45259</v>
+        <v>44792.57164351852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10804,8 +10779,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10842,14 +10822,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 15783-2022</t>
+          <t>A 33532-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44663.6975</v>
+        <v>45519.6759837963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10862,7 +10842,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10899,14 +10879,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 34521-2024</t>
+          <t>A 9176-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45525.68068287037</v>
+        <v>45714.41366898148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10919,7 +10899,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10956,14 +10936,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 17797-2021</t>
+          <t>A 60969-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44300</v>
+        <v>45261.47166666666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10976,7 +10956,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11013,14 +10993,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 1011-2025</t>
+          <t>A 60964-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45666.48438657408</v>
+        <v>45261</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11033,7 +11013,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11070,14 +11050,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1013-2025</t>
+          <t>A 62129-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45666.48954861111</v>
+        <v>46006.44893518519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11090,7 +11070,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11127,14 +11107,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 8024-2021</t>
+          <t>A 4837-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44243</v>
+        <v>46048.61173611111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,13 +11126,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11189,14 +11164,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 45292-2024</t>
+          <t>A 4852-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45576.39782407408</v>
+        <v>46048.63101851852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11209,7 +11184,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11246,14 +11221,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 2715-2022</t>
+          <t>A 62447-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44580</v>
+        <v>46007.48613425926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,8 +11240,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11303,14 +11283,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 20290-2025</t>
+          <t>A 62123-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45774.7228125</v>
+        <v>46006.44307870371</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11323,7 +11303,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11360,14 +11340,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 60917-2022</t>
+          <t>A 62391-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44908</v>
+        <v>46007.3897337963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,8 +11359,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>2.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11417,14 +11402,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 13567-2025</t>
+          <t>A 62852-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45736</v>
+        <v>46008.70960648148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,8 +11421,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11474,14 +11464,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 4314-2024</t>
+          <t>A 45164-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45324</v>
+        <v>45191.49636574074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,13 +11483,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11536,14 +11521,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3681-2025</t>
+          <t>A 42042-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45681.44800925926</v>
+        <v>45177.52741898148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11556,7 +11541,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11593,14 +11578,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 41819-2023</t>
+          <t>A 63445-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45176.56298611111</v>
+        <v>46013.39946759259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11613,7 +11598,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11650,14 +11635,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 50883-2024</t>
+          <t>A 64934-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45602.65869212963</v>
+        <v>45282.79449074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11670,7 +11655,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11707,14 +11692,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 50896-2024</t>
+          <t>A 37631-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45602.68004629629</v>
+        <v>45159</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11727,7 +11712,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11764,14 +11749,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 10984-2024</t>
+          <t>A 2231-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45370.54677083333</v>
+        <v>45673.47716435185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11784,7 +11769,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11821,14 +11806,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 15467-2023</t>
+          <t>A 59410-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45020.43767361111</v>
+        <v>44907</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11840,8 +11825,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11878,14 +11868,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 40667-2023</t>
+          <t>A 59411-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45170.58804398148</v>
+        <v>44907</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11897,8 +11887,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11935,14 +11930,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 42042-2023</t>
+          <t>A 2800-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45177.52741898148</v>
+        <v>45677.58048611111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11955,7 +11950,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11992,14 +11987,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50886-2024</t>
+          <t>A 34521-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45602.66590277778</v>
+        <v>45525.68068287037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12012,7 +12007,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12049,14 +12044,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50901-2024</t>
+          <t>A 8658-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45602.68665509259</v>
+        <v>44613.66163194444</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12069,7 +12064,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12106,14 +12101,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 33532-2024</t>
+          <t>A 50570-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45519.6759837963</v>
+        <v>45217</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12126,7 +12121,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12163,14 +12158,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 12769-2024</t>
+          <t>A 45292-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45384.58284722222</v>
+        <v>45576.39782407408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12183,7 +12178,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12220,14 +12215,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 50906-2024</t>
+          <t>A 60977-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45602.69741898148</v>
+        <v>45261.4765625</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12240,7 +12235,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12277,14 +12272,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 9125-2023</t>
+          <t>A 12253-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44980.33065972223</v>
+        <v>45378</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12296,13 +12291,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12339,14 +12329,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 40328-2024</t>
+          <t>A 12254-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45555.29670138889</v>
+        <v>45378.43430555556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12359,7 +12349,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12396,14 +12386,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 16304-2024</t>
+          <t>A 44468-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45407.42699074074</v>
+        <v>44435</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,8 +12405,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12453,14 +12448,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 51642-2021</t>
+          <t>A 52655-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44462</v>
+        <v>45225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12473,7 +12468,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12510,14 +12505,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 22328-2024</t>
+          <t>A 24866-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45446.58618055555</v>
+        <v>45085.39561342593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12530,7 +12525,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12567,14 +12562,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 6480-2025</t>
+          <t>A 39950-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45699.61184027778</v>
+        <v>45553</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12586,8 +12581,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12624,14 +12624,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 79-2024</t>
+          <t>A 11270-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45293</v>
+        <v>44629.74461805556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12681,14 +12681,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 961-2024</t>
+          <t>A 68095-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45301</v>
+        <v>44526.3550462963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12738,14 +12738,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 38300-2023</t>
+          <t>A 26695-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45161</v>
+        <v>44348</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12795,14 +12795,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 46248-2024</t>
+          <t>A 58800-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45581.59293981481</v>
+        <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12852,14 +12852,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 21307-2025</t>
+          <t>A 4821-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45781.41212962963</v>
+        <v>44957.64600694444</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12909,14 +12909,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 53521-2023</t>
+          <t>A 11478-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45230</v>
+        <v>45372</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12966,14 +12966,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 61575-2023</t>
+          <t>A 51630-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45261</v>
+        <v>44462.48349537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13023,14 +13023,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 49971-2023</t>
+          <t>A 15491-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45215.39953703704</v>
+        <v>45401.51510416667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13042,8 +13042,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13080,14 +13085,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 38278-2024</t>
+          <t>A 45918-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45545</v>
+        <v>45580.4637037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13100,7 +13105,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13137,14 +13142,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 12675-2024</t>
+          <t>A 50906-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45384.39924768519</v>
+        <v>45602.69741898148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13157,7 +13162,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13194,14 +13199,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 37083-2024</t>
+          <t>A 6785-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45539.48737268519</v>
+        <v>45342</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13213,8 +13218,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13251,14 +13261,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 22401-2025</t>
+          <t>A 55730-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45786.53190972222</v>
+        <v>44888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13308,14 +13318,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 13560-2025</t>
+          <t>A 53520-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45736</v>
+        <v>44879</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13328,7 +13338,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13365,14 +13375,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 34664-2024</t>
+          <t>A 35404-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45526.49925925926</v>
+        <v>45146.60049768518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13385,7 +13395,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13422,14 +13432,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 23114-2025</t>
+          <t>A 13563-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45791.36858796296</v>
+        <v>45736</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13442,7 +13452,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13479,14 +13489,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 2749-2024</t>
+          <t>A 13870-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45314.580625</v>
+        <v>45737.58509259259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13499,7 +13509,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13536,14 +13546,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 57284-2024</t>
+          <t>A 61012-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45629.58258101852</v>
+        <v>45259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13556,7 +13566,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13593,14 +13603,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 24519-2025</t>
+          <t>A 15467-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45798.41673611111</v>
+        <v>45020.43767361111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13613,7 +13623,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13650,14 +13660,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 24499-2025</t>
+          <t>A 20288-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45798.39575231481</v>
+        <v>45774.71646990741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13707,14 +13717,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 18740-2025</t>
+          <t>A 72558-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45763.71474537037</v>
+        <v>44546.43049768519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13727,7 +13737,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13764,14 +13774,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 54444-2021</t>
+          <t>A 6480-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44473</v>
+        <v>45699.61184027778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13784,7 +13794,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13821,14 +13831,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 27255-2025</t>
+          <t>A 35447-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45812.47243055556</v>
+        <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13841,7 +13851,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13878,14 +13888,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 27259-2025</t>
+          <t>A 79-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45812.47438657407</v>
+        <v>45293</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13898,7 +13908,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13935,14 +13945,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 27232-2025</t>
+          <t>A 40328-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45812.44145833333</v>
+        <v>45555.29670138889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13955,7 +13965,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13992,14 +14002,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 27251-2025</t>
+          <t>A 66977-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45812.47131944444</v>
+        <v>44522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14012,7 +14022,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14049,14 +14059,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 27248-2025</t>
+          <t>A 49566-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45812.46631944444</v>
+        <v>44455</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14069,7 +14079,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14106,14 +14116,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 28341-2025</t>
+          <t>A 15276-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45818.67709490741</v>
+        <v>44659</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14125,8 +14135,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14163,14 +14178,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 28321-2025</t>
+          <t>A 51642-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45818.64015046296</v>
+        <v>44462</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14183,7 +14198,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14220,14 +14235,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 28422-2025</t>
+          <t>A 17707-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45819.36372685185</v>
+        <v>45037.37438657408</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14239,13 +14254,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14282,14 +14292,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 28663-2025</t>
+          <t>A 46248-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45819.6608912037</v>
+        <v>45581.59293981481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14302,7 +14312,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14339,14 +14349,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 28695-2025</t>
+          <t>A 61575-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45819.9034837963</v>
+        <v>45261</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14359,7 +14369,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14396,14 +14406,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 28697-2025</t>
+          <t>A 21307-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45819.92020833334</v>
+        <v>45781.41212962963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14453,14 +14463,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 28417-2025</t>
+          <t>A 34664-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45819.35731481481</v>
+        <v>45526.49925925926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14470,11 +14480,6 @@
       <c r="E235" t="inlineStr">
         <is>
           <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G235" t="n">
@@ -14515,14 +14520,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 28419-2025</t>
+          <t>A 53521-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45819.3609375</v>
+        <v>45230</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14534,13 +14539,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14577,14 +14577,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 29580-2025</t>
+          <t>A 22401-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45825.37965277778</v>
+        <v>45786.53190972222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14634,14 +14634,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 30468-2025</t>
+          <t>A 37083-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45827.84690972222</v>
+        <v>45539.48737268519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14691,14 +14691,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 23781-2025</t>
+          <t>A 12675-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45793</v>
+        <v>45384.39924768519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14748,14 +14748,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 31623-2025</t>
+          <t>A 49971-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45834.02827546297</v>
+        <v>45215.39953703704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14805,14 +14805,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 31624-2025</t>
+          <t>A 13560-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45834</v>
+        <v>45736</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14862,14 +14862,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 32581-2025</t>
+          <t>A 38278-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45838.59538194445</v>
+        <v>45545</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14919,14 +14919,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 50581-2024</t>
+          <t>A 23114-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45601.61167824074</v>
+        <v>45791.36858796296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14976,14 +14976,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 50339-2023</t>
+          <t>A 57284-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45216</v>
+        <v>45629.58258101852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15033,14 +15033,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 37806-2022</t>
+          <t>A 2749-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44810</v>
+        <v>45314.580625</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45791.38667824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45705.59221064814</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45898.62613425926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45821.36956018519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45446.58446759259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>45924.58663194445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45926.32910879629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45261</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>45965.45900462963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>44866</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45468.65774305556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45673.4736574074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44319.48951388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44242</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44627</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>45602.68665509259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44951.86751157408</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>45152.54942129629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45602.66590277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>45736</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44908</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>45774.7228125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>45161</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>45567.3878125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45407.42699074074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44266</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44546.44777777778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45728.50200231482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44243</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>45446.58618055555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>45282</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>45887.39769675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>45798.39575231481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>45161.64956018519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>45798.41673611111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45887</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45170.58804398148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45763.71474537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44980.33065972223</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>45887.39501157407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>45889.22287037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>45889.26685185185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>45889.22056712963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>45889.2216550926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>45728.50487268518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>45812.47438657407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44879.59599537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>45812.44145833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>45812.47131944444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>45812.47243055556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>45812.46631944444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>45892.57770833333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44663.6975</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>45208</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>45221</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>45818.64015046296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45819.6608912037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45818.67709490741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45819.36372685185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45819.35731481481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45819.3609375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45898.45606481482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45819.9034837963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>45819.92020833334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>45909.53418981482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>45825.37965277778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>45909.53945601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>45250.71864583333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>45273</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>45917.70016203704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>45917.68621527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>45917.69141203703</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>45917.69450231481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45827.84690972222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45793</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>45681.44512731482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>45924.63995370371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>45924.63813657407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45924.64946759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>45924.6366550926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45924.6319212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45925.67975694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45924.60741898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45674.3837037037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45834</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45834.02827546297</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44517</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>45926.32668981481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>44473.45114583334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>45838.59538194445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>45208</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>44348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44936.47675925926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>45601.61167824074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>45216</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>45950.40321759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44810</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45950.39878472222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>45174.69423611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45370.54677083333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>45950.42493055556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45370.5349074074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>44810</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>45376.68662037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>45681.44800925926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>44904</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45881</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45917.74508101852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45635.60386574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>44580</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>45301</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45917.74980324074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>45666.48438657408</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>45666.48954861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45526.49626157407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45269</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45973.44811342593</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>45882.67461805556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>45602.65869212963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45602.68004629629</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>45698.40091435185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45979.56186342592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>45979.57789351852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>45979.47040509259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44946.43795138889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45981.45193287037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45985.47137731482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45982.31621527778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>45705.58834490741</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>45985.4681712963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>45985.47318287037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45985.47396990741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45985.47479166667</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>45986.65002314815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>45324</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>45384.58284722222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>45986.65516203704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>45988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>45597.56597222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44615</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>45730.43697916667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>45734.46005787037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>45176.56298611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44488.52820601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>45446.56908564815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44442</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>46036.3408449074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44792.57164351852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45519.6759837963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45714.41366898148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45261.47166666666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45261</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>46006.44893518519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>46048.61173611111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>46048.63101851852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>46007.48613425926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>46006.44307870371</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>46007.3897337963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>46008.70960648148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>45191.49636574074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>45177.52741898148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>46013.39946759259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45282.79449074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45159</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>45673.47716435185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>44907</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44907</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>45677.58048611111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>45525.68068287037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44613.66163194444</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>45217</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45576.39782407408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45261.4765625</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45378</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45378.43430555556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44435</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45085.39561342593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45553</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44629.74461805556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44526.3550462963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44348</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44957.64600694444</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45372</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44462.48349537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>45401.51510416667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45580.4637037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>45602.69741898148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45342</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44879</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>45146.60049768518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>45736</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>45737.58509259259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>45259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>45020.43767361111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>45774.71646990741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44546.43049768519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>45699.61184027778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>45293</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>45555.29670138889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44455</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44659</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44462</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>45037.37438657408</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45581.59293981481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>45261</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>45781.41212962963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>45526.49925925926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>45230</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>45786.53190972222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>45539.48737268519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>45384.39924768519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>45215.39953703704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>45736</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>45545</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>45791.36858796296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45629.58258101852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>45314.580625</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45791.38667824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45705.59221064814</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45898.62613425926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45821.36956018519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45446.58446759259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>45924.58663194445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45926.32910879629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45261</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>45965.45900462963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>44866</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45468.65774305556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45673.4736574074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44319.48951388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44242</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44627</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>45602.68665509259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44951.86751157408</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>45152.54942129629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45602.66590277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>45736</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44908</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>45774.7228125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>45161</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>45567.3878125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45407.42699074074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44266</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44546.44777777778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45728.50200231482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44243</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>45446.58618055555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>45282</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>45887.39769675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>45798.39575231481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>45161.64956018519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>45798.41673611111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45887</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45170.58804398148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45763.71474537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44980.33065972223</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>45887.39501157407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>45889.22287037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>45889.26685185185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>45889.22056712963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>45889.2216550926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>45728.50487268518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>45812.47438657407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44879.59599537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>45812.44145833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>45812.47131944444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>45812.47243055556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>45812.46631944444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>45892.57770833333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44663.6975</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>45208</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>45221</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>45818.64015046296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45819.6608912037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45818.67709490741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45819.36372685185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45819.35731481481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45819.3609375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45898.45606481482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45819.9034837963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>45819.92020833334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>45909.53418981482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>45825.37965277778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>45909.53945601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>45250.71864583333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>45273</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>45917.70016203704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>45917.68621527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>45917.69141203703</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>45917.69450231481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45827.84690972222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45793</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>45681.44512731482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>45924.63995370371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>45924.63813657407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45924.64946759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>45924.6366550926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45924.6319212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45925.67975694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45924.60741898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45674.3837037037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45834</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45834.02827546297</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44517</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>45926.32668981481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>44473.45114583334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>45838.59538194445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>45208</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>44348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44936.47675925926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>45601.61167824074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>45216</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>45950.40321759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44810</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45950.39878472222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>45174.69423611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45370.54677083333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>45950.42493055556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45370.5349074074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>44810</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>45376.68662037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>45681.44800925926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>44904</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45881</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45917.74508101852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45635.60386574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>44580</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>45301</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45917.74980324074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>45666.48438657408</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>45666.48954861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45526.49626157407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45269</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45973.44811342593</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>45882.67461805556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>45602.65869212963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45602.68004629629</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>45698.40091435185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45979.56186342592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>45979.57789351852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>45979.47040509259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44946.43795138889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45981.45193287037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45985.47137731482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45982.31621527778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>45705.58834490741</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>45985.4681712963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>45985.47318287037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45985.47396990741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45985.47479166667</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>45986.65002314815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>45324</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>45384.58284722222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>45986.65516203704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>45988</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>45597.56597222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44615</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>45730.43697916667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>45734.46005787037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>45176.56298611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44488.52820601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>45446.56908564815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44442</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>46036.3408449074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44792.57164351852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45519.6759837963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45714.41366898148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45261.47166666666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45261</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>46006.44893518519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>46048.61173611111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>46048.63101851852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>46007.48613425926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>46006.44307870371</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>46007.3897337963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>46008.70960648148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>45191.49636574074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>45177.52741898148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>46013.39946759259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45282.79449074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45159</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>45673.47716435185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>44907</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44907</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>45677.58048611111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>45525.68068287037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44613.66163194444</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>45217</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45576.39782407408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45261.4765625</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45378</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45378.43430555556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44435</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45085.39561342593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45553</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44629.74461805556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44526.3550462963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44348</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44957.64600694444</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45372</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44462.48349537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>45401.51510416667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45580.4637037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>45602.69741898148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45342</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44879</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>45146.60049768518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>45736</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>45737.58509259259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>45259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>45020.43767361111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>45774.71646990741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44546.43049768519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>45699.61184027778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>45293</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>45555.29670138889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44455</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44659</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44462</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>45037.37438657408</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45581.59293981481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>45261</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>45781.41212962963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>45526.49925925926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>45230</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>45786.53190972222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>45539.48737268519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>45384.39924768519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>45215.39953703704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>45736</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>45545</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>45791.36858796296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45629.58258101852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>45314.580625</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45791.38667824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,14 +1010,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 7564-2025</t>
+          <t>A 28988-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45705.59221064814</v>
+        <v>45821.36956018519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,17 +1029,22 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1054,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1064,220 +1069,215 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 7564-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45705.59221064814</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Solvända</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 7564-2025 artfynd.xlsx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 7564-2025 karta.png", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 7564-2025 FSC-klagomål.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 7564-2025 FSC-klagomål mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 7564-2025 tillsynsbegäran.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 7564-2025 tillsynsbegäran mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 41274-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45898.62613425926</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 28988-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45821.36956018519</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 22327-2024</t>
+          <t>A 46123-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45446.58446759259</v>
+        <v>45924.58663194445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1317,565 +1317,565 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 46522-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45926.32910879629</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 50403-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44866</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Springkorn</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 54409-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45965.45900462963</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Nattviol</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 22327-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45446.58446759259</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 46123-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45924.58663194445</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H11" t="n">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 26261-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45468.65774305556</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Åkerväddsantennmal</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 60983-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 46522-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45926.32910879629</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Tibast</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 60983-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45261</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 54409-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45965.45900462963</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Nattviol</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 50403-2022</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Springkorn</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 26261-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45468.65774305556</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Åkerväddsantennmal</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45673.4736574074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44319.48951388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44242</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44627</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2943,14 +2943,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50901-2024</t>
+          <t>A 34431-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45602.68665509259</v>
+        <v>44792.57164351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2962,8 +2962,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3000,14 +3005,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3877-2023</t>
+          <t>A 12253-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44951.86751157408</v>
+        <v>45378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3020,7 +3025,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3057,14 +3062,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 36401-2023</t>
+          <t>A 12254-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45152.54942129629</v>
+        <v>45378.43430555556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3076,13 +3081,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14210-2023</t>
+          <t>A 53518-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45009</v>
+        <v>44879.59599537037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 50886-2024</t>
+          <t>A 17707-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45602.66590277778</v>
+        <v>45037.37438657408</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13567-2025</t>
+          <t>A 49566-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45736</v>
+        <v>44455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 60917-2022</t>
+          <t>A 51475-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44908</v>
+        <v>45221</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 20290-2025</t>
+          <t>A 54442-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45774.7228125</v>
+        <v>44473.45114583334</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38300-2023</t>
+          <t>A 72563-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45161</v>
+        <v>44546.44777777778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3461,14 +3461,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43012-2024</t>
+          <t>A 46240-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45567.3878125</v>
+        <v>44442</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 16304-2024</t>
+          <t>A 72558-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45407.42699074074</v>
+        <v>44546.43049768519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12168-2021</t>
+          <t>A 66977-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44266</v>
+        <v>44522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 72563-2021</t>
+          <t>A 65921-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44546.44777777778</v>
+        <v>44517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11923-2025</t>
+          <t>A 50179-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45728.50200231482</v>
+        <v>45208</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3708,13 +3708,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>30.5</v>
+        <v>5.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3751,14 +3746,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8024-2021</t>
+          <t>A 50570-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44243</v>
+        <v>45217</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3770,13 +3765,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3813,14 +3803,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22328-2024</t>
+          <t>A 39950-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45446.58618055555</v>
+        <v>45553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3832,8 +3822,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3870,14 +3865,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 64930-2023</t>
+          <t>A 28422-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45282</v>
+        <v>45819.36372685185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,8 +3884,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3927,14 +3927,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38760-2025</t>
+          <t>A 28663-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45887.39769675926</v>
+        <v>45819.6608912037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3984,14 +3984,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24499-2025</t>
+          <t>A 28695-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45798.39575231481</v>
+        <v>45819.9034837963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4041,14 +4041,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38299-2023</t>
+          <t>A 28697-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45161.64956018519</v>
+        <v>45819.92020833334</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4098,14 +4098,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 24519-2025</t>
+          <t>A 28417-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45798.41673611111</v>
+        <v>45819.35731481481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4117,8 +4117,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4155,14 +4160,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38735-2025</t>
+          <t>A 4821-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45887</v>
+        <v>44957.64600694444</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4180,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4212,14 +4217,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 40667-2023</t>
+          <t>A 28419-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45170.58804398148</v>
+        <v>45819.3609375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4231,8 +4236,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4269,14 +4279,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 18740-2025</t>
+          <t>A 10980-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45763.71474537037</v>
+        <v>45370.5349074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4299,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4326,14 +4336,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9125-2023</t>
+          <t>A 43012-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44980.33065972223</v>
+        <v>45567.3878125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4345,13 +4355,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4388,14 +4393,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38756-2025</t>
+          <t>A 60964-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45887.39501157407</v>
+        <v>45261</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4408,7 +4413,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4445,14 +4450,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 54444-2021</t>
+          <t>A 15276-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44473</v>
+        <v>44659</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4464,8 +4469,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>7.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4502,14 +4512,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39227-2025</t>
+          <t>A 29580-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45889.22287037037</v>
+        <v>45825.37965277778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4522,7 +4532,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4559,14 +4569,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39230-2025</t>
+          <t>A 1293-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45889.26685185185</v>
+        <v>44936.47675925926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4579,7 +4589,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4616,14 +4626,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39225-2025</t>
+          <t>A 30468-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45889.22056712963</v>
+        <v>45827.84690972222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4636,7 +4646,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4673,14 +4683,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39226-2025</t>
+          <t>A 64934-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45889.2216550926</v>
+        <v>45282.79449074074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4693,7 +4703,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4730,14 +4740,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11924-2025</t>
+          <t>A 59234-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45728.50487268518</v>
+        <v>44904</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4751,11 +4761,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4792,14 +4802,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 27259-2025</t>
+          <t>A 23781-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45812.47438657407</v>
+        <v>45793</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4812,7 +4822,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4849,14 +4859,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 53518-2022</t>
+          <t>A 31623-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44879.59599537037</v>
+        <v>45834.02827546297</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4879,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4906,14 +4916,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 27232-2025</t>
+          <t>A 38756-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45812.44145833333</v>
+        <v>45887.39501157407</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4936,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4963,14 +4973,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27251-2025</t>
+          <t>A 38735-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45812.47131944444</v>
+        <v>45887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4983,7 +4993,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5020,14 +5030,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27255-2025</t>
+          <t>A 55730-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45812.47243055556</v>
+        <v>44888</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5040,7 +5050,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5077,14 +5087,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27248-2025</t>
+          <t>A 38760-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45812.46631944444</v>
+        <v>45887.39769675926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5097,7 +5107,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5134,14 +5144,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39965-2025</t>
+          <t>A 31624-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45892.57770833333</v>
+        <v>45834</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5154,7 +5164,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5191,14 +5201,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15783-2022</t>
+          <t>A 32581-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44663.6975</v>
+        <v>45838.59538194445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5211,7 +5221,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5248,14 +5258,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50179-2023</t>
+          <t>A 39226-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45208</v>
+        <v>45889.2216550926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5268,7 +5278,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5305,14 +5315,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51475-2023</t>
+          <t>A 39230-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45221</v>
+        <v>45889.26685185185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5325,7 +5335,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5362,14 +5372,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28321-2025</t>
+          <t>A 15491-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45818.64015046296</v>
+        <v>45401.51510416667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5381,8 +5391,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5419,14 +5434,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28663-2025</t>
+          <t>A 39227-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45819.6608912037</v>
+        <v>45889.22287037037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5439,7 +5454,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5476,14 +5491,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28341-2025</t>
+          <t>A 39225-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45818.67709490741</v>
+        <v>45889.22056712963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5496,7 +5511,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5533,14 +5548,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28422-2025</t>
+          <t>A 39965-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45819.36372685185</v>
+        <v>45892.57770833333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5552,13 +5567,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5595,14 +5605,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 7337-2023</t>
+          <t>A 64930-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44971</v>
+        <v>45282</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5625,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5652,14 +5662,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28417-2025</t>
+          <t>A 24866-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45819.35731481481</v>
+        <v>45085.39561342593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5671,13 +5681,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5714,14 +5719,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28419-2025</t>
+          <t>A 12412-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45819.3609375</v>
+        <v>45730.43697916667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,13 +5738,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         <v>45898.45606481482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5833,14 +5833,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28695-2025</t>
+          <t>A 50581-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45819.9034837963</v>
+        <v>45601.61167824074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5890,14 +5890,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28697-2025</t>
+          <t>A 50339-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45819.92020833334</v>
+        <v>45216</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5947,14 +5947,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43026-2025</t>
+          <t>A 3087-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45909.53418981482</v>
+        <v>44946.43795138889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6004,14 +6004,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29580-2025</t>
+          <t>A 37806-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45825.37965277778</v>
+        <v>44810</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6061,14 +6061,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43032-2025</t>
+          <t>A 58415-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45909.53945601852</v>
+        <v>44488.52820601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6118,14 +6118,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58412-2023</t>
+          <t>A 35447-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45250.71864583333</v>
+        <v>45146</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6175,14 +6175,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 63449-2023</t>
+          <t>A 51630-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45273</v>
+        <v>44462.48349537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6232,14 +6232,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44757-2025</t>
+          <t>A 37802-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45917.70016203704</v>
+        <v>44810</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6289,14 +6289,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44752-2025</t>
+          <t>A 43032-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45917.68621527778</v>
+        <v>45909.53945601852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6346,14 +6346,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44753-2025</t>
+          <t>A 43026-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45917.69141203703</v>
+        <v>45909.53418981482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6403,14 +6403,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44756-2025</t>
+          <t>A 63449-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45917.69450231481</v>
+        <v>45273</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6460,14 +6460,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30468-2025</t>
+          <t>A 3678-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45827.84690972222</v>
+        <v>45681.44512731482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6517,14 +6517,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 23781-2025</t>
+          <t>A 36401-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45793</v>
+        <v>45152.54942129629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,8 +6536,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6574,14 +6579,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 3678-2025</t>
+          <t>A 44752-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45681.44512731482</v>
+        <v>45917.68621527778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6594,7 +6599,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6631,14 +6636,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46166-2025</t>
+          <t>A 44753-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45924.63995370371</v>
+        <v>45917.69141203703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6651,7 +6656,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6688,14 +6693,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46164-2025</t>
+          <t>A 44756-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45924.63813657407</v>
+        <v>45917.69450231481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6708,7 +6713,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6745,14 +6750,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46175-2025</t>
+          <t>A 44757-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45924.64946759259</v>
+        <v>45917.70016203704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6765,7 +6770,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6802,14 +6807,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46159-2025</t>
+          <t>A 38199-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45924.6366550926</v>
+        <v>45882.67461805556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6822,7 +6827,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6859,14 +6864,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 46156-2025</t>
+          <t>A 26696-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45924.6319212963</v>
+        <v>44348</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6879,7 +6884,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.7</v>
+        <v>15.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6916,14 +6921,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46467-2025</t>
+          <t>A 37806-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45925.67975694445</v>
+        <v>45881</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6936,7 +6941,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6973,14 +6978,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46144-2025</t>
+          <t>A 46164-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45924.60741898148</v>
+        <v>45924.63813657407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6998,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7030,14 +7035,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 2418-2025</t>
+          <t>A 46175-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45674.3837037037</v>
+        <v>45924.64946759259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7055,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7087,14 +7092,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 31624-2025</t>
+          <t>A 46144-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45834</v>
+        <v>45924.60741898148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7107,7 +7112,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7144,14 +7149,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 31623-2025</t>
+          <t>A 46156-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45834.02827546297</v>
+        <v>45924.6319212963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7164,7 +7169,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7201,14 +7206,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 65921-2021</t>
+          <t>A 46159-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44517</v>
+        <v>45924.6366550926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7226,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7258,14 +7263,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46521-2025</t>
+          <t>A 7337-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45926.32668981481</v>
+        <v>44971</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7277,13 +7282,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7320,14 +7320,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 54442-2021</t>
+          <t>A 46166-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44473.45114583334</v>
+        <v>45924.63995370371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7377,14 +7377,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32581-2025</t>
+          <t>A 9176-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45838.59538194445</v>
+        <v>45714.41366898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7434,14 +7434,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 50181-2023</t>
+          <t>A 46521-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45208</v>
+        <v>45926.32668981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7453,8 +7453,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7491,14 +7496,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26696-2021</t>
+          <t>A 46467-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44348</v>
+        <v>45925.67975694445</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7516,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>15.5</v>
+        <v>4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7548,14 +7553,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 1293-2023</t>
+          <t>A 44468-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44936.47675925926</v>
+        <v>44435</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7567,8 +7572,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7605,14 +7615,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 50581-2024</t>
+          <t>A 7561-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45601.61167824074</v>
+        <v>45705.58834490741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7625,7 +7635,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7662,14 +7672,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 50339-2023</t>
+          <t>A 60977-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45216</v>
+        <v>45261.4765625</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7682,7 +7692,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7719,14 +7729,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 51326-2025</t>
+          <t>A 11923-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45950.40321759259</v>
+        <v>45728.50200231482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7738,8 +7748,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>30.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7776,14 +7791,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 37806-2022</t>
+          <t>A 13870-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44810</v>
+        <v>45737.58509259259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7796,7 +7811,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7833,14 +7848,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 51325-2025</t>
+          <t>A 60969-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45950.39878472222</v>
+        <v>45261.47166666666</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7868,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7890,14 +7905,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 41337-2023</t>
+          <t>A 38299-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45174.69423611111</v>
+        <v>45161.64956018519</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7910,7 +7925,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7947,14 +7962,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 10984-2024</t>
+          <t>A 51335-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45370.54677083333</v>
+        <v>45950.42493055556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7967,7 +7982,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8004,14 +8019,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51335-2025</t>
+          <t>A 51326-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45950.42493055556</v>
+        <v>45950.40321759259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8024,7 +8039,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8061,14 +8076,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 10980-2024</t>
+          <t>A 51325-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45370.5349074074</v>
+        <v>45950.39878472222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8081,7 +8096,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8118,14 +8133,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 37802-2022</t>
+          <t>A 58800-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44810</v>
+        <v>44903</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8138,7 +8153,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8175,14 +8190,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 11944-2024</t>
+          <t>A 6785-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45376.68662037037</v>
+        <v>45342</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8194,8 +8209,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8232,14 +8252,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3681-2025</t>
+          <t>A 26695-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45681.44800925926</v>
+        <v>44348</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8252,7 +8272,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8289,14 +8309,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 59234-2022</t>
+          <t>A 11944-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44904</v>
+        <v>45376.68662037037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8308,13 +8328,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8351,14 +8366,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 37806-2025</t>
+          <t>A 59411-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45881</v>
+        <v>44907</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8368,6 +8383,11 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -8408,14 +8428,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17797-2021</t>
+          <t>A 58412-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44300</v>
+        <v>45250.71864583333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8428,7 +8448,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8465,14 +8485,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44769-2025</t>
+          <t>A 59410-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45917.74508101852</v>
+        <v>44907</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8484,8 +8504,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8522,14 +8547,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 58658-2024</t>
+          <t>A 44770-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45635.60386574074</v>
+        <v>45917.74980324074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8539,11 +8564,6 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -8584,14 +8604,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 2715-2022</t>
+          <t>A 44769-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44580</v>
+        <v>45917.74508101852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8604,7 +8624,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8641,14 +8661,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 961-2024</t>
+          <t>A 45918-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45301</v>
+        <v>45580.4637037037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8661,7 +8681,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8698,14 +8718,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44770-2025</t>
+          <t>A 62570-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45917.74980324074</v>
+        <v>45269</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8718,7 +8738,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8755,14 +8775,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 1011-2025</t>
+          <t>A 55939-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45666.48438657408</v>
+        <v>45973.44811342593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8812,14 +8832,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 1013-2025</t>
+          <t>A 6147-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45666.48954861111</v>
+        <v>45698.40091435185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8832,7 +8852,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8869,14 +8889,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 34662-2024</t>
+          <t>A 58658-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45526.49626157407</v>
+        <v>45635.60386574074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,8 +8908,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8926,14 +8951,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 62570-2023</t>
+          <t>A 14210-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45269</v>
+        <v>45009</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8946,7 +8971,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8983,14 +9008,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55939-2025</t>
+          <t>A 57125-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45973.44811342593</v>
+        <v>45979.47040509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9003,7 +9028,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9040,14 +9065,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 38199-2025</t>
+          <t>A 57181-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45882.67461805556</v>
+        <v>45979.56186342592</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9060,7 +9085,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9097,14 +9122,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 50883-2024</t>
+          <t>A 57194-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45602.65869212963</v>
+        <v>45979.57789351852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9117,7 +9142,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9154,14 +9179,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 50896-2024</t>
+          <t>A 57694-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45602.68004629629</v>
+        <v>45981.45193287037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9174,7 +9199,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9211,14 +9236,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 6147-2025</t>
+          <t>A 35404-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45698.40091435185</v>
+        <v>45146.60049768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9231,7 +9256,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9268,14 +9293,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 57181-2025</t>
+          <t>A 57942-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45979.56186342592</v>
+        <v>45982.31621527778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9288,7 +9313,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9325,14 +9350,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 57194-2025</t>
+          <t>A 58320-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45979.57789351852</v>
+        <v>45985.47396990741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9345,7 +9370,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9382,14 +9407,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 57125-2025</t>
+          <t>A 58321-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45979.47040509259</v>
+        <v>45985.47479166667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9402,7 +9427,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9439,14 +9464,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 3087-2023</t>
+          <t>A 58318-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44946.43795138889</v>
+        <v>45985.47318287037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9459,7 +9484,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9496,14 +9521,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 57694-2025</t>
+          <t>A 58756-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45981.45193287037</v>
+        <v>45986.65002314815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9516,7 +9541,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9553,14 +9578,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 58316-2025</t>
+          <t>A 68095-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45985.47137731482</v>
+        <v>44526.3550462963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9573,7 +9598,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9610,14 +9635,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 57942-2025</t>
+          <t>A 58316-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45982.31621527778</v>
+        <v>45985.47137731482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9630,7 +9655,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9667,14 +9692,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 7561-2025</t>
+          <t>A 58761-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45705.58834490741</v>
+        <v>45986.65516203704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9756,7 @@
         <v>45985.4681712963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9781,14 +9806,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 58318-2025</t>
+          <t>A 12980-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45985.47318287037</v>
+        <v>45734.46005787037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9800,8 +9825,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.2</v>
+        <v>12.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9838,14 +9868,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58320-2025</t>
+          <t>A 20288-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45985.47396990741</v>
+        <v>45774.71646990741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9858,7 +9888,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9895,14 +9925,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 58321-2025</t>
+          <t>A 59105-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45985.47479166667</v>
+        <v>45988</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9915,7 +9945,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9952,14 +9982,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 58756-2025</t>
+          <t>A 49915-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45986.65002314815</v>
+        <v>45597.56597222222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9972,7 +10002,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10009,14 +10039,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 4314-2024</t>
+          <t>A 9030-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45324</v>
+        <v>44615</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10028,13 +10058,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10071,14 +10096,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 12769-2024</t>
+          <t>A 37631-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45384.58284722222</v>
+        <v>45159</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10116,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10128,14 +10153,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 58761-2025</t>
+          <t>A 11270-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45986.65516203704</v>
+        <v>44629.74461805556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10148,7 +10173,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10185,14 +10210,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 59105-2025</t>
+          <t>A 41337-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45988</v>
+        <v>45174.69423611111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10205,7 +10230,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10242,14 +10267,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 49915-2024</t>
+          <t>A 2800-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45597.56597222222</v>
+        <v>45677.58048611111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10262,7 +10287,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10299,14 +10324,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 9030-2022</t>
+          <t>A 2073-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44615</v>
+        <v>46036.3408449074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10319,7 +10344,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10356,14 +10381,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 12412-2025</t>
+          <t>A 8658-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45730.43697916667</v>
+        <v>44613.66163194444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10376,7 +10401,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10413,14 +10438,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 12980-2025</t>
+          <t>A 2418-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45734.46005787037</v>
+        <v>45674.3837037037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10432,13 +10457,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>12.4</v>
+        <v>1.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10475,14 +10495,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 41819-2023</t>
+          <t>A 2231-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45176.56298611111</v>
+        <v>45673.47716435185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10495,7 +10515,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10532,14 +10552,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58415-2021</t>
+          <t>A 4852-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44488.52820601852</v>
+        <v>46048.63101851852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10552,7 +10572,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10589,14 +10609,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 22307-2024</t>
+          <t>A 45164-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45446.56908564815</v>
+        <v>45191.49636574074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10609,7 +10629,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10646,14 +10666,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 46240-2021</t>
+          <t>A 4837-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44442</v>
+        <v>46048.61173611111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10666,7 +10686,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10703,14 +10723,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 2073-2026</t>
+          <t>A 62129-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46036.3408449074</v>
+        <v>46006.44893518519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10723,7 +10743,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10760,14 +10780,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 34431-2022</t>
+          <t>A 62123-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44792.57164351852</v>
+        <v>46006.44307870371</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,13 +10799,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10822,14 +10837,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 33532-2024</t>
+          <t>A 62447-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45519.6759837963</v>
+        <v>46007.48613425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10841,8 +10856,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10879,14 +10899,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 9176-2025</t>
+          <t>A 62391-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45714.41366898148</v>
+        <v>46007.3897337963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10898,8 +10918,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10936,14 +10961,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60969-2023</t>
+          <t>A 62852-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45261.47166666666</v>
+        <v>46008.70960648148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10955,8 +10980,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10993,14 +11023,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 60964-2023</t>
+          <t>A 63445-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45261</v>
+        <v>46013.39946759259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11013,7 +11043,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11050,14 +11080,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62129-2025</t>
+          <t>A 11478-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46006.44893518519</v>
+        <v>45372</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11070,7 +11100,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11107,14 +11137,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 4837-2026</t>
+          <t>A 13563-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46048.61173611111</v>
+        <v>45736</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11127,7 +11157,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11164,14 +11194,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 4852-2026</t>
+          <t>A 34662-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46048.63101851852</v>
+        <v>45526.49626157407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11184,7 +11214,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.9</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11221,14 +11251,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 62447-2025</t>
+          <t>A 12168-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46007.48613425926</v>
+        <v>44266</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11240,13 +11270,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11283,14 +11308,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 62123-2025</t>
+          <t>A 50181-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46006.44307870371</v>
+        <v>45208</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11303,7 +11328,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11340,14 +11365,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 62391-2025</t>
+          <t>A 11924-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46007.3897337963</v>
+        <v>45728.50487268518</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11361,11 +11386,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>8.300000000000001</v>
+        <v>3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11402,14 +11427,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 62852-2025</t>
+          <t>A 53520-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46008.70960648148</v>
+        <v>44879</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11421,13 +11446,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11464,14 +11484,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 45164-2023</t>
+          <t>A 52655-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45191.49636574074</v>
+        <v>45225</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11484,7 +11504,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11521,14 +11541,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 42042-2023</t>
+          <t>A 22307-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45177.52741898148</v>
+        <v>45446.56908564815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11541,7 +11561,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11578,14 +11598,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 63445-2025</t>
+          <t>A 3877-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46013.39946759259</v>
+        <v>44951.86751157408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11598,7 +11618,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11635,14 +11655,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 64934-2023</t>
+          <t>A 61012-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45282.79449074074</v>
+        <v>45259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11655,7 +11675,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11692,14 +11712,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 37631-2023</t>
+          <t>A 15783-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45159</v>
+        <v>44663.6975</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11712,7 +11732,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11749,14 +11769,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 2231-2025</t>
+          <t>A 34521-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45673.47716435185</v>
+        <v>45525.68068287037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11769,7 +11789,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11806,14 +11826,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 59410-2022</t>
+          <t>A 17797-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44907</v>
+        <v>44300</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11825,13 +11845,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11868,14 +11883,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 59411-2022</t>
+          <t>A 1011-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44907</v>
+        <v>45666.48438657408</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11887,13 +11902,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11930,14 +11940,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2800-2025</t>
+          <t>A 1013-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45677.58048611111</v>
+        <v>45666.48954861111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11950,7 +11960,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11987,14 +11997,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 34521-2024</t>
+          <t>A 8024-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45525.68068287037</v>
+        <v>44243</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,8 +12016,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12044,14 +12059,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 8658-2022</t>
+          <t>A 45292-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44613.66163194444</v>
+        <v>45576.39782407408</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12064,7 +12079,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12101,14 +12116,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 50570-2023</t>
+          <t>A 2715-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45217</v>
+        <v>44580</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12121,7 +12136,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12158,14 +12173,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 45292-2024</t>
+          <t>A 20290-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45576.39782407408</v>
+        <v>45774.7228125</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12178,7 +12193,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12215,14 +12230,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 60977-2023</t>
+          <t>A 60917-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45261.4765625</v>
+        <v>44908</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12235,7 +12250,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12272,14 +12287,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 12253-2024</t>
+          <t>A 13567-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45378</v>
+        <v>45736</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12292,7 +12307,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12329,14 +12344,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 12254-2024</t>
+          <t>A 4314-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45378.43430555556</v>
+        <v>45324</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12348,8 +12363,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12386,14 +12406,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 44468-2021</t>
+          <t>A 3681-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44435</v>
+        <v>45681.44800925926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12405,13 +12425,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12448,14 +12463,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 52655-2023</t>
+          <t>A 41819-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45225</v>
+        <v>45176.56298611111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12468,7 +12483,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12505,14 +12520,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 24866-2023</t>
+          <t>A 50883-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45085.39561342593</v>
+        <v>45602.65869212963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12525,7 +12540,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12562,14 +12577,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 39950-2024</t>
+          <t>A 50896-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45553</v>
+        <v>45602.68004629629</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12581,13 +12596,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12624,14 +12634,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 11270-2022</t>
+          <t>A 10984-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44629.74461805556</v>
+        <v>45370.54677083333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12644,7 +12654,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12681,14 +12691,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 68095-2021</t>
+          <t>A 15467-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44526.3550462963</v>
+        <v>45020.43767361111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12701,7 +12711,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12738,14 +12748,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 26695-2021</t>
+          <t>A 40667-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44348</v>
+        <v>45170.58804398148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12758,7 +12768,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12795,14 +12805,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 58800-2022</t>
+          <t>A 42042-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44903</v>
+        <v>45177.52741898148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12815,7 +12825,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12852,14 +12862,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 4821-2023</t>
+          <t>A 50886-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44957.64600694444</v>
+        <v>45602.66590277778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12882,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12909,14 +12919,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 11478-2024</t>
+          <t>A 50901-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45372</v>
+        <v>45602.68665509259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12929,7 +12939,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12966,14 +12976,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 51630-2021</t>
+          <t>A 33532-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44462.48349537037</v>
+        <v>45519.6759837963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12986,7 +12996,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13023,14 +13033,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 15491-2024</t>
+          <t>A 12769-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45401.51510416667</v>
+        <v>45384.58284722222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13042,13 +13052,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13085,14 +13090,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 45918-2024</t>
+          <t>A 50906-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45580.4637037037</v>
+        <v>45602.69741898148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13105,7 +13110,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13142,14 +13147,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 50906-2024</t>
+          <t>A 9125-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45602.69741898148</v>
+        <v>44980.33065972223</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13161,8 +13166,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13199,14 +13209,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 6785-2024</t>
+          <t>A 40328-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45342</v>
+        <v>45555.29670138889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13218,13 +13228,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13261,14 +13266,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 55730-2022</t>
+          <t>A 16304-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44888</v>
+        <v>45407.42699074074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13281,7 +13286,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13318,14 +13323,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 53520-2022</t>
+          <t>A 51642-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44879</v>
+        <v>44462</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13338,7 +13343,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13375,14 +13380,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 35404-2023</t>
+          <t>A 22328-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45146.60049768518</v>
+        <v>45446.58618055555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13395,7 +13400,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13432,14 +13437,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 13563-2025</t>
+          <t>A 6480-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45736</v>
+        <v>45699.61184027778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13452,7 +13457,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13489,14 +13494,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 13870-2025</t>
+          <t>A 79-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45737.58509259259</v>
+        <v>45293</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13509,7 +13514,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13546,14 +13551,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61012-2023</t>
+          <t>A 961-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45259</v>
+        <v>45301</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13566,7 +13571,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13603,14 +13608,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 15467-2023</t>
+          <t>A 38300-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45020.43767361111</v>
+        <v>45161</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13623,7 +13628,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13660,14 +13665,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 20288-2025</t>
+          <t>A 46248-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45774.71646990741</v>
+        <v>45581.59293981481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13680,7 +13685,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13717,14 +13722,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 72558-2021</t>
+          <t>A 21307-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44546.43049768519</v>
+        <v>45781.41212962963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13737,7 +13742,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13774,14 +13779,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 6480-2025</t>
+          <t>A 53521-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45699.61184027778</v>
+        <v>45230</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13794,7 +13799,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13831,14 +13836,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 35447-2023</t>
+          <t>A 61575-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45146</v>
+        <v>45261</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13851,7 +13856,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13888,14 +13893,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 79-2024</t>
+          <t>A 49971-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45293</v>
+        <v>45215.39953703704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13908,7 +13913,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13945,14 +13950,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 40328-2024</t>
+          <t>A 38278-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45555.29670138889</v>
+        <v>45545</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13965,7 +13970,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14002,14 +14007,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 66977-2021</t>
+          <t>A 12675-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44522</v>
+        <v>45384.39924768519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14022,7 +14027,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14059,14 +14064,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 49566-2021</t>
+          <t>A 37083-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44455</v>
+        <v>45539.48737268519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14079,7 +14084,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14116,14 +14121,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 15276-2022</t>
+          <t>A 22401-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44659</v>
+        <v>45786.53190972222</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14135,13 +14140,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14178,14 +14178,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 51642-2021</t>
+          <t>A 13560-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44462</v>
+        <v>45736</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14235,14 +14235,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 17707-2023</t>
+          <t>A 34664-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45037.37438657408</v>
+        <v>45526.49925925926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14292,14 +14292,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 46248-2024</t>
+          <t>A 23114-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45581.59293981481</v>
+        <v>45791.36858796296</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14349,14 +14349,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 61575-2023</t>
+          <t>A 2749-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45261</v>
+        <v>45314.580625</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14406,14 +14406,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 21307-2025</t>
+          <t>A 57284-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45781.41212962963</v>
+        <v>45629.58258101852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14463,14 +14463,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 34664-2024</t>
+          <t>A 24519-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45526.49925925926</v>
+        <v>45798.41673611111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14520,14 +14520,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 53521-2023</t>
+          <t>A 24499-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45230</v>
+        <v>45798.39575231481</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14577,14 +14577,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 22401-2025</t>
+          <t>A 18740-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45786.53190972222</v>
+        <v>45763.71474537037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14634,14 +14634,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 37083-2024</t>
+          <t>A 54444-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45539.48737268519</v>
+        <v>44473</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14691,14 +14691,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 12675-2024</t>
+          <t>A 27255-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45384.39924768519</v>
+        <v>45812.47243055556</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14748,14 +14748,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 49971-2023</t>
+          <t>A 27259-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45215.39953703704</v>
+        <v>45812.47438657407</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14805,14 +14805,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 13560-2025</t>
+          <t>A 27232-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45736</v>
+        <v>45812.44145833333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14862,14 +14862,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 38278-2024</t>
+          <t>A 27251-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45545</v>
+        <v>45812.47131944444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14919,14 +14919,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 23114-2025</t>
+          <t>A 27248-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45791.36858796296</v>
+        <v>45812.46631944444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14976,14 +14976,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 57284-2024</t>
+          <t>A 28341-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45629.58258101852</v>
+        <v>45818.67709490741</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15033,14 +15033,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 2749-2024</t>
+          <t>A 28321-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45314.580625</v>
+        <v>45818.64015046296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 67603-2021</t>
+          <t>A 23130-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44524</v>
+        <v>45791.38667824074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -712,124 +712,124 @@
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Backsippa
+Axveronika
+Flentimotej</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 23130-2025 artfynd.xlsx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 23130-2025 karta.png", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 23130-2025 FSC-klagomål.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 23130-2025 FSC-klagomål mail.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 23130-2025 tillsynsbegäran.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 23130-2025 tillsynsbegäran mail.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 67603-2021</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44524</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Backsippa
 Plattad jordtunga
 Svart jordtunga</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 67603-2021 artfynd.xlsx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 67603-2021 karta.png", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 67603-2021 FSC-klagomål.docx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 67603-2021 FSC-klagomål mail.docx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 67603-2021 tillsynsbegäran.docx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 67603-2021 tillsynsbegäran mail.docx", "A 67603-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 23130-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45791.38667824074</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Backsippa
-Axveronika
-Flentimotej</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 23130-2025 artfynd.xlsx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 23130-2025 karta.png", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 23130-2025 FSC-klagomål.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 23130-2025 FSC-klagomål mail.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 23130-2025 tillsynsbegäran.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 23130-2025 tillsynsbegäran mail.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,14 +1010,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 28988-2025</t>
+          <t>A 7564-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45821.36956018519</v>
+        <v>45705.59221064814</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,37 +1029,32 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1069,45 +1064,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Solvända</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 7564-2025 artfynd.xlsx", "A 7564-2025")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 7564-2025 karta.png", "A 7564-2025")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 7564-2025 FSC-klagomål.docx", "A 7564-2025")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 7564-2025 FSC-klagomål mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 7564-2025 tillsynsbegäran.docx", "A 7564-2025")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 7564-2025 tillsynsbegäran mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 7564-2025</t>
+          <t>A 41274-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45705.59221064814</v>
+        <v>45898.62613425926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1120,7 +1115,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,45 +1149,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Solvända</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 7564-2025 artfynd.xlsx", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 7564-2025 karta.png", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 7564-2025 FSC-klagomål.docx", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 7564-2025 FSC-klagomål mail.docx", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 7564-2025 tillsynsbegäran.docx", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 7564-2025 tillsynsbegäran mail.docx", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 41274-2025</t>
+          <t>A 2230-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45898.62613425926</v>
+        <v>45673.4736574074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1205,16 +1200,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1229,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1239,31 +1234,31 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
     </row>
@@ -1277,7 +1272,7 @@
         <v>45924.58663194445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,14 +1354,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 46522-2025</t>
+          <t>A 28988-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45926.32910879629</v>
+        <v>45821.36956018519</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1380,14 +1375,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1418,549 +1413,554 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 22327-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45446.58446759259</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 46522-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45926.32910879629</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Tibast</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 60983-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 54409-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45965.45900462963</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Nattviol</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 50403-2022</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44866</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G16" t="n">
         <v>2.4</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Springkorn</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 54409-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45965.45900462963</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H13" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 26261-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45468.65774305556</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Nattviol</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 22327-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45446.58446759259</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 26261-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45468.65774305556</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Åkerväddsantennmal</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 60983-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45261</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 2230-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45673.4736574074</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44319.48951388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44242</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44627</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2943,14 +2943,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 34431-2022</t>
+          <t>A 39965-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44792.57164351852</v>
+        <v>45892.57770833333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2962,13 +2962,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3005,14 +3000,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12253-2024</t>
+          <t>A 3877-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45378</v>
+        <v>44951.86751157408</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3020,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3062,14 +3057,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12254-2024</t>
+          <t>A 50901-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45378.43430555556</v>
+        <v>45602.68665509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3077,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3119,14 +3114,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 53518-2022</t>
+          <t>A 15467-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44879.59599537037</v>
+        <v>45020.43767361111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3134,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3176,14 +3171,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 17707-2023</t>
+          <t>A 20288-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45037.37438657408</v>
+        <v>45774.71646990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3196,7 +3191,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3233,14 +3228,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 49566-2021</t>
+          <t>A 72558-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44455</v>
+        <v>44546.43049768519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3253,7 +3248,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3290,14 +3285,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 51475-2023</t>
+          <t>A 38760-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45221</v>
+        <v>45887.39769675926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3310,7 +3305,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3347,14 +3342,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 54442-2021</t>
+          <t>A 6480-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44473.45114583334</v>
+        <v>45699.61184027778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3367,7 +3362,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3404,14 +3399,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 72563-2021</t>
+          <t>A 35447-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44546.44777777778</v>
+        <v>45146</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3424,7 +3419,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3461,14 +3456,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46240-2021</t>
+          <t>A 79-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44442</v>
+        <v>45293</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3481,7 +3476,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3518,14 +3513,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 72558-2021</t>
+          <t>A 38735-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44546.43049768519</v>
+        <v>45887</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3538,7 +3533,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3575,14 +3570,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 66977-2021</t>
+          <t>A 36401-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44522</v>
+        <v>45152.54942129629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3594,8 +3589,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 65921-2021</t>
+          <t>A 50886-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44517</v>
+        <v>45602.66590277778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 50179-2023</t>
+          <t>A 14210-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45208</v>
+        <v>45009</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 50570-2023</t>
+          <t>A 38756-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45217</v>
+        <v>45887.39501157407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39950-2024</t>
+          <t>A 39227-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45553</v>
+        <v>45889.22287037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3822,13 +3822,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3865,14 +3860,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28422-2025</t>
+          <t>A 39230-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45819.36372685185</v>
+        <v>45889.26685185185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3884,13 +3879,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3927,14 +3917,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28663-2025</t>
+          <t>A 39225-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45819.6608912037</v>
+        <v>45889.22056712963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3937,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3984,14 +3974,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28695-2025</t>
+          <t>A 39226-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45819.9034837963</v>
+        <v>45889.2216550926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +3994,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4041,14 +4031,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28697-2025</t>
+          <t>A 13567-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45819.92020833334</v>
+        <v>45736</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4051,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4098,14 +4088,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28417-2025</t>
+          <t>A 60917-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45819.35731481481</v>
+        <v>44908</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4117,13 +4107,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4160,14 +4145,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 4821-2023</t>
+          <t>A 40328-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44957.64600694444</v>
+        <v>45555.29670138889</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4180,7 +4165,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4217,14 +4202,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28419-2025</t>
+          <t>A 41105-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45819.3609375</v>
+        <v>45898.45606481482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4236,13 +4221,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4279,14 +4259,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 10980-2024</t>
+          <t>A 66977-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45370.5349074074</v>
+        <v>44522</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4299,7 +4279,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4336,14 +4316,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43012-2024</t>
+          <t>A 20290-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45567.3878125</v>
+        <v>45774.7228125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4356,7 +4336,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4393,14 +4373,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60964-2023</t>
+          <t>A 16304-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45261</v>
+        <v>45407.42699074074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4413,7 +4393,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4450,14 +4430,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15276-2022</t>
+          <t>A 49566-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44659</v>
+        <v>44455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4469,13 +4449,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4512,14 +4487,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 29580-2025</t>
+          <t>A 15276-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45825.37965277778</v>
+        <v>44659</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4531,8 +4506,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4569,14 +4549,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1293-2023</t>
+          <t>A 51642-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44936.47675925926</v>
+        <v>44462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4589,7 +4569,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4626,14 +4606,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30468-2025</t>
+          <t>A 17707-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45827.84690972222</v>
+        <v>45037.37438657408</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4646,7 +4626,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4683,14 +4663,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 64934-2023</t>
+          <t>A 38300-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45282.79449074074</v>
+        <v>45161</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4740,14 +4720,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59234-2022</t>
+          <t>A 43012-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44904</v>
+        <v>45567.3878125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4759,13 +4739,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4802,14 +4777,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23781-2025</t>
+          <t>A 72563-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45793</v>
+        <v>44546.44777777778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4822,7 +4797,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4859,14 +4834,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31623-2025</t>
+          <t>A 46248-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45834.02827546297</v>
+        <v>45581.59293981481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4879,7 +4854,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4916,14 +4891,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38756-2025</t>
+          <t>A 12168-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45887.39501157407</v>
+        <v>44266</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4936,7 +4911,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4973,14 +4948,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38735-2025</t>
+          <t>A 43026-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45887</v>
+        <v>45909.53418981482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4993,7 +4968,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5030,14 +5005,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55730-2022</t>
+          <t>A 43032-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44888</v>
+        <v>45909.53945601852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5050,7 +5025,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5087,14 +5062,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 38760-2025</t>
+          <t>A 61575-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45887.39769675926</v>
+        <v>45261</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5107,7 +5082,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5144,14 +5119,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 31624-2025</t>
+          <t>A 21307-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45834</v>
+        <v>45781.41212962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5164,7 +5139,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5201,14 +5176,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32581-2025</t>
+          <t>A 11923-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45838.59538194445</v>
+        <v>45728.50200231482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,8 +5195,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>30.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5258,14 +5238,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39226-2025</t>
+          <t>A 34664-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45889.2216550926</v>
+        <v>45526.49925925926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5278,7 +5258,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5315,14 +5295,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39230-2025</t>
+          <t>A 53521-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45889.26685185185</v>
+        <v>45230</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5335,7 +5315,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5372,14 +5352,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15491-2024</t>
+          <t>A 8024-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45401.51510416667</v>
+        <v>44243</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5393,11 +5373,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5434,14 +5414,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39227-2025</t>
+          <t>A 22328-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45889.22287037037</v>
+        <v>45446.58618055555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5454,7 +5434,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5491,14 +5471,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 39225-2025</t>
+          <t>A 22401-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45889.22056712963</v>
+        <v>45786.53190972222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5511,7 +5491,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5548,14 +5528,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39965-2025</t>
+          <t>A 37083-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45892.57770833333</v>
+        <v>45539.48737268519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5568,7 +5548,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5605,14 +5585,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 64930-2023</t>
+          <t>A 12675-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45282</v>
+        <v>45384.39924768519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5625,7 +5605,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5662,14 +5642,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 24866-2023</t>
+          <t>A 49971-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45085.39561342593</v>
+        <v>45215.39953703704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5682,7 +5662,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5719,14 +5699,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 12412-2025</t>
+          <t>A 64930-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45730.43697916667</v>
+        <v>45282</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5719,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5776,14 +5756,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41105-2025</t>
+          <t>A 13560-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45898.45606481482</v>
+        <v>45736</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5796,7 +5776,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5833,14 +5813,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 50581-2024</t>
+          <t>A 38278-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45601.61167824074</v>
+        <v>45545</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5853,7 +5833,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5890,14 +5870,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 50339-2023</t>
+          <t>A 23114-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45216</v>
+        <v>45791.36858796296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5910,7 +5890,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5947,14 +5927,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3087-2023</t>
+          <t>A 57284-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44946.43795138889</v>
+        <v>45629.58258101852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6004,14 +5984,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 37806-2022</t>
+          <t>A 2749-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44810</v>
+        <v>45314.580625</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6024,7 +6004,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6061,14 +6041,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58415-2021</t>
+          <t>A 38299-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44488.52820601852</v>
+        <v>45161.64956018519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6081,7 +6061,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6118,14 +6098,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35447-2023</t>
+          <t>A 44757-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45146</v>
+        <v>45917.70016203704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6138,7 +6118,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6175,14 +6155,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 51630-2021</t>
+          <t>A 44752-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44462.48349537037</v>
+        <v>45917.68621527778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6195,7 +6175,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6232,14 +6212,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 37802-2022</t>
+          <t>A 44753-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44810</v>
+        <v>45917.69141203703</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6252,7 +6232,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6289,14 +6269,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43032-2025</t>
+          <t>A 44756-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45909.53945601852</v>
+        <v>45917.69450231481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6309,7 +6289,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6346,14 +6326,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43026-2025</t>
+          <t>A 40667-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45909.53418981482</v>
+        <v>45170.58804398148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6366,7 +6346,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6403,14 +6383,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 63449-2023</t>
+          <t>A 9125-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45273</v>
+        <v>44980.33065972223</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,8 +6402,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6460,14 +6445,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 3678-2025</t>
+          <t>A 24499-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45681.44512731482</v>
+        <v>45798.39575231481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6480,7 +6465,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6517,14 +6502,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 36401-2023</t>
+          <t>A 11924-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45152.54942129629</v>
+        <v>45728.50487268518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6538,11 +6523,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6579,14 +6564,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 44752-2025</t>
+          <t>A 24519-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45917.68621527778</v>
+        <v>45798.41673611111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6599,7 +6584,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6636,14 +6621,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44753-2025</t>
+          <t>A 53518-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45917.69141203703</v>
+        <v>44879.59599537037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6656,7 +6641,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6693,14 +6678,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44756-2025</t>
+          <t>A 15783-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45917.69450231481</v>
+        <v>44663.6975</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6713,7 +6698,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6750,14 +6735,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44757-2025</t>
+          <t>A 18740-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45917.70016203704</v>
+        <v>45763.71474537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6770,7 +6755,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6807,14 +6792,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 38199-2025</t>
+          <t>A 50179-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45882.67461805556</v>
+        <v>45208</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6827,7 +6812,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6864,14 +6849,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26696-2021</t>
+          <t>A 54444-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44348</v>
+        <v>44473</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6884,7 +6869,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>15.5</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6921,14 +6906,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37806-2025</t>
+          <t>A 51475-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45881</v>
+        <v>45221</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6941,7 +6926,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6978,14 +6963,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46164-2025</t>
+          <t>A 46166-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45924.63813657407</v>
+        <v>45924.63995370371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6998,7 +6983,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7035,14 +7020,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46175-2025</t>
+          <t>A 46164-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45924.64946759259</v>
+        <v>45924.63813657407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7055,7 +7040,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7092,14 +7077,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 46144-2025</t>
+          <t>A 46175-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45924.60741898148</v>
+        <v>45924.64946759259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7097,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7149,14 +7134,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46156-2025</t>
+          <t>A 46159-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45924.6319212963</v>
+        <v>45924.6366550926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7154,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7206,14 +7191,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46159-2025</t>
+          <t>A 7337-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45924.6366550926</v>
+        <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7211,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7263,14 +7248,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 7337-2023</t>
+          <t>A 27259-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44971</v>
+        <v>45812.47438657407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7268,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7320,14 +7305,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46166-2025</t>
+          <t>A 46156-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45924.63995370371</v>
+        <v>45924.6319212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7325,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7377,14 +7362,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 9176-2025</t>
+          <t>A 27232-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45714.41366898148</v>
+        <v>45812.44145833333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7382,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7434,14 +7419,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46521-2025</t>
+          <t>A 46467-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45926.32668981481</v>
+        <v>45925.67975694445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7453,13 +7438,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7496,14 +7476,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46467-2025</t>
+          <t>A 27251-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45925.67975694445</v>
+        <v>45812.47131944444</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7516,7 +7496,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7553,14 +7533,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44468-2021</t>
+          <t>A 27255-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44435</v>
+        <v>45812.47243055556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7572,13 +7552,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7615,14 +7590,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7561-2025</t>
+          <t>A 27248-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45705.58834490741</v>
+        <v>45812.46631944444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7635,7 +7610,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7672,14 +7647,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60977-2023</t>
+          <t>A 46144-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45261.4765625</v>
+        <v>45924.60741898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7667,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7729,14 +7704,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11923-2025</t>
+          <t>A 28321-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45728.50200231482</v>
+        <v>45818.64015046296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7748,13 +7723,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>30.5</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7791,14 +7761,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 13870-2025</t>
+          <t>A 28663-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45737.58509259259</v>
+        <v>45819.6608912037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7781,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7848,14 +7818,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60969-2023</t>
+          <t>A 28341-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45261.47166666666</v>
+        <v>45818.67709490741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7838,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7905,14 +7875,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 38299-2023</t>
+          <t>A 28422-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45161.64956018519</v>
+        <v>45819.36372685185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,8 +7894,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7962,14 +7937,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 51335-2025</t>
+          <t>A 58412-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45950.42493055556</v>
+        <v>45250.71864583333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7957,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8019,14 +7994,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51326-2025</t>
+          <t>A 63449-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45950.40321759259</v>
+        <v>45273</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8014,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8076,14 +8051,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 51325-2025</t>
+          <t>A 28417-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45950.39878472222</v>
+        <v>45819.35731481481</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,8 +8070,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8133,14 +8113,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 58800-2022</t>
+          <t>A 28419-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44903</v>
+        <v>45819.3609375</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,8 +8132,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8190,14 +8175,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 6785-2024</t>
+          <t>A 28695-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45342</v>
+        <v>45819.9034837963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,13 +8194,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8252,14 +8232,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26695-2021</t>
+          <t>A 28697-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44348</v>
+        <v>45819.92020833334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8272,7 +8252,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8309,14 +8289,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 11944-2024</t>
+          <t>A 46521-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45376.68662037037</v>
+        <v>45926.32668981481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,8 +8308,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8366,14 +8351,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 59411-2022</t>
+          <t>A 29580-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44907</v>
+        <v>45825.37965277778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8385,13 +8370,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8428,14 +8408,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 58412-2023</t>
+          <t>A 30468-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45250.71864583333</v>
+        <v>45827.84690972222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8448,7 +8428,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8485,14 +8465,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 59410-2022</t>
+          <t>A 3678-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44907</v>
+        <v>45681.44512731482</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,13 +8484,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8547,14 +8522,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44770-2025</t>
+          <t>A 23781-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45917.74980324074</v>
+        <v>45793</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8567,7 +8542,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8604,14 +8579,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44769-2025</t>
+          <t>A 31624-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45917.74508101852</v>
+        <v>45834</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8624,7 +8599,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8661,14 +8636,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45918-2024</t>
+          <t>A 31623-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45580.4637037037</v>
+        <v>45834.02827546297</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8681,7 +8656,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8718,14 +8693,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 62570-2023</t>
+          <t>A 2418-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45269</v>
+        <v>45674.3837037037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8738,7 +8713,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8775,14 +8750,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 55939-2025</t>
+          <t>A 32581-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45973.44811342593</v>
+        <v>45838.59538194445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8795,7 +8770,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8832,14 +8807,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 6147-2025</t>
+          <t>A 65921-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45698.40091435185</v>
+        <v>44517</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8852,7 +8827,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8889,14 +8864,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 58658-2024</t>
+          <t>A 54442-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45635.60386574074</v>
+        <v>44473.45114583334</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8908,13 +8883,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8951,14 +8921,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 14210-2023</t>
+          <t>A 50581-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45009</v>
+        <v>45601.61167824074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8971,7 +8941,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9008,14 +8978,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 57125-2025</t>
+          <t>A 50339-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45979.47040509259</v>
+        <v>45216</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9028,7 +8998,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9065,14 +9035,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 57181-2025</t>
+          <t>A 50181-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45979.56186342592</v>
+        <v>45208</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9085,7 +9055,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9122,14 +9092,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 57194-2025</t>
+          <t>A 37806-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45979.57789351852</v>
+        <v>44810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9142,7 +9112,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9179,14 +9149,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 57694-2025</t>
+          <t>A 26696-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45981.45193287037</v>
+        <v>44348</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9199,7 +9169,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.8</v>
+        <v>15.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9236,14 +9206,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35404-2023</t>
+          <t>A 1293-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45146.60049768518</v>
+        <v>44936.47675925926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9256,7 +9226,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9293,14 +9263,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 57942-2025</t>
+          <t>A 37802-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45982.31621527778</v>
+        <v>44810</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9313,7 +9283,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9350,14 +9320,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58320-2025</t>
+          <t>A 41337-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45985.47396990741</v>
+        <v>45174.69423611111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9370,7 +9340,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9407,14 +9377,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58321-2025</t>
+          <t>A 10984-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45985.47479166667</v>
+        <v>45370.54677083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9427,7 +9397,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9464,14 +9434,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58318-2025</t>
+          <t>A 10980-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45985.47318287037</v>
+        <v>45370.5349074074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9484,7 +9454,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9521,14 +9491,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58756-2025</t>
+          <t>A 11944-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45986.65002314815</v>
+        <v>45376.68662037037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9541,7 +9511,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9578,14 +9548,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 68095-2021</t>
+          <t>A 37806-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44526.3550462963</v>
+        <v>45881</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9598,7 +9568,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9635,14 +9605,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58316-2025</t>
+          <t>A 51326-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45985.47137731482</v>
+        <v>45950.40321759259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9655,7 +9625,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9692,14 +9662,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58761-2025</t>
+          <t>A 3681-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45986.65516203704</v>
+        <v>45681.44800925926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9712,7 +9682,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9749,14 +9719,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 58310-2025</t>
+          <t>A 51325-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45985.4681712963</v>
+        <v>45950.39878472222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9769,7 +9739,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9806,14 +9776,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 12980-2025</t>
+          <t>A 38199-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45734.46005787037</v>
+        <v>45882.67461805556</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,13 +9795,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>12.4</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9868,14 +9833,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 20288-2025</t>
+          <t>A 51335-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45774.71646990741</v>
+        <v>45950.42493055556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9853,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9925,14 +9890,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 59105-2025</t>
+          <t>A 59234-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45988</v>
+        <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9944,8 +9909,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9982,14 +9952,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 49915-2024</t>
+          <t>A 17797-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45597.56597222222</v>
+        <v>44300</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +9972,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10039,14 +10009,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9030-2022</t>
+          <t>A 58658-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44615</v>
+        <v>45635.60386574074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10058,8 +10028,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10096,14 +10071,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37631-2023</t>
+          <t>A 2715-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45159</v>
+        <v>44580</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10116,7 +10091,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10153,14 +10128,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 11270-2022</t>
+          <t>A 961-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44629.74461805556</v>
+        <v>45301</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10173,7 +10148,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10210,14 +10185,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 41337-2023</t>
+          <t>A 1011-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45174.69423611111</v>
+        <v>45666.48438657408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10205,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10267,14 +10242,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2800-2025</t>
+          <t>A 1013-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45677.58048611111</v>
+        <v>45666.48954861111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10287,7 +10262,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10324,14 +10299,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 2073-2026</t>
+          <t>A 34662-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46036.3408449074</v>
+        <v>45526.49626157407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10344,7 +10319,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10381,14 +10356,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 8658-2022</t>
+          <t>A 62570-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44613.66163194444</v>
+        <v>45269</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10438,14 +10413,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 2418-2025</t>
+          <t>A 50883-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45674.3837037037</v>
+        <v>45602.65869212963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10458,7 +10433,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10495,14 +10470,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 2231-2025</t>
+          <t>A 50896-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45673.47716435185</v>
+        <v>45602.68004629629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10515,7 +10490,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10552,14 +10527,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 4852-2026</t>
+          <t>A 6147-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46048.63101851852</v>
+        <v>45698.40091435185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10572,7 +10547,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10609,14 +10584,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 45164-2023</t>
+          <t>A 44769-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45191.49636574074</v>
+        <v>45917.74508101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10604,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10666,14 +10641,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 4837-2026</t>
+          <t>A 44770-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46048.61173611111</v>
+        <v>45917.74980324074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10661,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10723,14 +10698,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 62129-2025</t>
+          <t>A 3087-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46006.44893518519</v>
+        <v>44946.43795138889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10743,7 +10718,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10780,14 +10755,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62123-2025</t>
+          <t>A 55939-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46006.44307870371</v>
+        <v>45973.44811342593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10800,7 +10775,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10837,14 +10812,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62447-2025</t>
+          <t>A 57181-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46007.48613425926</v>
+        <v>45979.56186342592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10856,13 +10831,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10899,14 +10869,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 62391-2025</t>
+          <t>A 7561-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46007.3897337963</v>
+        <v>45705.58834490741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10918,13 +10888,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>8.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10961,14 +10926,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 62852-2025</t>
+          <t>A 57194-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46008.70960648148</v>
+        <v>45979.57789351852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,13 +10945,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11023,14 +10983,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 63445-2025</t>
+          <t>A 57125-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46013.39946759259</v>
+        <v>45979.47040509259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11043,7 +11003,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11080,14 +11040,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11478-2024</t>
+          <t>A 57694-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45372</v>
+        <v>45981.45193287037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11100,7 +11060,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11137,14 +11097,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 13563-2025</t>
+          <t>A 4314-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45736</v>
+        <v>45324</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11156,8 +11116,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11194,14 +11159,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 34662-2024</t>
+          <t>A 12769-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45526.49626157407</v>
+        <v>45384.58284722222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11214,7 +11179,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11251,14 +11216,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 12168-2021</t>
+          <t>A 58316-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44266</v>
+        <v>45985.47137731482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11271,7 +11236,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11308,14 +11273,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 50181-2023</t>
+          <t>A 57942-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45208</v>
+        <v>45982.31621527778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11328,7 +11293,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11365,14 +11330,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11924-2025</t>
+          <t>A 49915-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45728.50487268518</v>
+        <v>45597.56597222222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11384,13 +11349,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11427,14 +11387,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 53520-2022</t>
+          <t>A 58310-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44879</v>
+        <v>45985.4681712963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11407,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11484,14 +11444,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 52655-2023</t>
+          <t>A 58318-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45225</v>
+        <v>45985.47318287037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11464,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11541,14 +11501,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 22307-2024</t>
+          <t>A 58320-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45446.56908564815</v>
+        <v>45985.47396990741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11521,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11598,14 +11558,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 3877-2023</t>
+          <t>A 58321-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44951.86751157408</v>
+        <v>45985.47479166667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11618,7 +11578,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11655,14 +11615,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 61012-2023</t>
+          <t>A 58756-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45259</v>
+        <v>45986.65002314815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11675,7 +11635,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11712,14 +11672,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15783-2022</t>
+          <t>A 9030-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44663.6975</v>
+        <v>44615</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11732,7 +11692,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11769,14 +11729,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 34521-2024</t>
+          <t>A 12412-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45525.68068287037</v>
+        <v>45730.43697916667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11789,7 +11749,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11826,14 +11786,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 17797-2021</t>
+          <t>A 58761-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44300</v>
+        <v>45986.65516203704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11846,7 +11806,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11883,14 +11843,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 1011-2025</t>
+          <t>A 59105-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45666.48438657408</v>
+        <v>45988</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11903,7 +11863,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11940,14 +11900,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 1013-2025</t>
+          <t>A 12980-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45666.48954861111</v>
+        <v>45734.46005787037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11959,8 +11919,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>5</v>
+        <v>12.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11997,14 +11962,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 8024-2021</t>
+          <t>A 41819-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44243</v>
+        <v>45176.56298611111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12016,13 +11981,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12059,14 +12019,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 45292-2024</t>
+          <t>A 58415-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45576.39782407408</v>
+        <v>44488.52820601852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12079,7 +12039,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12116,14 +12076,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 2715-2022</t>
+          <t>A 22307-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44580</v>
+        <v>45446.56908564815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12136,7 +12096,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12173,14 +12133,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 20290-2025</t>
+          <t>A 46240-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45774.7228125</v>
+        <v>44442</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12193,7 +12153,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12230,14 +12190,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 60917-2022</t>
+          <t>A 34431-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44908</v>
+        <v>44792.57164351852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,8 +12209,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12287,14 +12252,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 13567-2025</t>
+          <t>A 2073-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45736</v>
+        <v>46036.3408449074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12307,7 +12272,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12344,14 +12309,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4314-2024</t>
+          <t>A 33532-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45324</v>
+        <v>45519.6759837963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12363,13 +12328,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12406,14 +12366,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 3681-2025</t>
+          <t>A 9176-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45681.44800925926</v>
+        <v>45714.41366898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12426,7 +12386,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12463,14 +12423,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 41819-2023</t>
+          <t>A 60969-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45176.56298611111</v>
+        <v>45261.47166666666</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12483,7 +12443,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12520,14 +12480,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 50883-2024</t>
+          <t>A 60964-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45602.65869212963</v>
+        <v>45261</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12540,7 +12500,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12577,14 +12537,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 50896-2024</t>
+          <t>A 62129-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45602.68004629629</v>
+        <v>46006.44893518519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12597,7 +12557,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12634,14 +12594,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 10984-2024</t>
+          <t>A 4837-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45370.54677083333</v>
+        <v>46048.61173611111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12654,7 +12614,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12691,14 +12651,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 15467-2023</t>
+          <t>A 4852-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45020.43767361111</v>
+        <v>46048.63101851852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12711,7 +12671,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12748,14 +12708,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 40667-2023</t>
+          <t>A 45164-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45170.58804398148</v>
+        <v>45191.49636574074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12768,7 +12728,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12805,14 +12765,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 42042-2023</t>
+          <t>A 62447-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45177.52741898148</v>
+        <v>46007.48613425926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12824,8 +12784,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12862,14 +12827,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 50886-2024</t>
+          <t>A 62123-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45602.66590277778</v>
+        <v>46006.44307870371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12882,7 +12847,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12919,14 +12884,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 50901-2024</t>
+          <t>A 62391-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45602.68665509259</v>
+        <v>46007.3897337963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12938,8 +12903,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>1.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12976,14 +12946,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 33532-2024</t>
+          <t>A 62852-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45519.6759837963</v>
+        <v>46008.70960648148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12995,8 +12965,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13033,14 +13008,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 12769-2024</t>
+          <t>A 42042-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45384.58284722222</v>
+        <v>45177.52741898148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13028,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13090,14 +13065,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 50906-2024</t>
+          <t>A 64934-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45602.69741898148</v>
+        <v>45282.79449074074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13147,14 +13122,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 9125-2023</t>
+          <t>A 63445-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44980.33065972223</v>
+        <v>46013.39946759259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13166,13 +13141,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13209,14 +13179,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 40328-2024</t>
+          <t>A 37631-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45555.29670138889</v>
+        <v>45159</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13229,7 +13199,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13266,14 +13236,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16304-2024</t>
+          <t>A 2231-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45407.42699074074</v>
+        <v>45673.47716435185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13256,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13323,14 +13293,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 51642-2021</t>
+          <t>A 59410-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44462</v>
+        <v>44907</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13342,8 +13312,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13380,14 +13355,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 22328-2024</t>
+          <t>A 59411-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45446.58618055555</v>
+        <v>44907</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13399,8 +13374,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13437,14 +13417,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6480-2025</t>
+          <t>A 2800-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45699.61184027778</v>
+        <v>45677.58048611111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13457,7 +13437,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13494,14 +13474,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 79-2024</t>
+          <t>A 34521-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45293</v>
+        <v>45525.68068287037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13514,7 +13494,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13551,14 +13531,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 961-2024</t>
+          <t>A 8658-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45301</v>
+        <v>44613.66163194444</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13571,7 +13551,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13608,14 +13588,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 38300-2023</t>
+          <t>A 50570-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45161</v>
+        <v>45217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13628,7 +13608,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13665,14 +13645,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 46248-2024</t>
+          <t>A 45292-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45581.59293981481</v>
+        <v>45576.39782407408</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13685,7 +13665,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13722,14 +13702,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 21307-2025</t>
+          <t>A 60977-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45781.41212962963</v>
+        <v>45261.4765625</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13742,7 +13722,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13779,14 +13759,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 53521-2023</t>
+          <t>A 12253-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45230</v>
+        <v>45378</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13799,7 +13779,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13836,14 +13816,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 61575-2023</t>
+          <t>A 12254-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45261</v>
+        <v>45378.43430555556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13856,7 +13836,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13893,14 +13873,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 49971-2023</t>
+          <t>A 44468-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45215.39953703704</v>
+        <v>44435</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13912,8 +13892,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13950,14 +13935,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 38278-2024</t>
+          <t>A 52655-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45545</v>
+        <v>45225</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13970,7 +13955,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14007,14 +13992,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 12675-2024</t>
+          <t>A 24866-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45384.39924768519</v>
+        <v>45085.39561342593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14027,7 +14012,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14064,14 +14049,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 37083-2024</t>
+          <t>A 39950-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45539.48737268519</v>
+        <v>45553</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14083,8 +14068,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14121,14 +14111,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 22401-2025</t>
+          <t>A 11270-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45786.53190972222</v>
+        <v>44629.74461805556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14141,7 +14131,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14178,14 +14168,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 13560-2025</t>
+          <t>A 68095-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45736</v>
+        <v>44526.3550462963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14198,7 +14188,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14235,14 +14225,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 34664-2024</t>
+          <t>A 26695-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45526.49925925926</v>
+        <v>44348</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14255,7 +14245,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14292,14 +14282,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 23114-2025</t>
+          <t>A 58800-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45791.36858796296</v>
+        <v>44903</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14312,7 +14302,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14349,14 +14339,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 2749-2024</t>
+          <t>A 4821-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45314.580625</v>
+        <v>44957.64600694444</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14369,7 +14359,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14406,14 +14396,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 57284-2024</t>
+          <t>A 11478-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45629.58258101852</v>
+        <v>45372</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14426,7 +14416,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14463,14 +14453,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 24519-2025</t>
+          <t>A 51630-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45798.41673611111</v>
+        <v>44462.48349537037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14483,7 +14473,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14520,14 +14510,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 24499-2025</t>
+          <t>A 15491-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45798.39575231481</v>
+        <v>45401.51510416667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,8 +14529,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14577,14 +14572,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 18740-2025</t>
+          <t>A 45918-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45763.71474537037</v>
+        <v>45580.4637037037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14597,7 +14592,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14634,14 +14629,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 54444-2021</t>
+          <t>A 50906-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44473</v>
+        <v>45602.69741898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14691,14 +14686,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 27255-2025</t>
+          <t>A 6785-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45812.47243055556</v>
+        <v>45342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14710,8 +14705,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14748,14 +14748,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 27259-2025</t>
+          <t>A 55730-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45812.47438657407</v>
+        <v>44888</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14805,14 +14805,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 27232-2025</t>
+          <t>A 53520-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45812.44145833333</v>
+        <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14862,14 +14862,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 27251-2025</t>
+          <t>A 35404-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45812.47131944444</v>
+        <v>45146.60049768518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14919,14 +14919,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 27248-2025</t>
+          <t>A 13563-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45812.46631944444</v>
+        <v>45736</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14976,14 +14976,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 28341-2025</t>
+          <t>A 13870-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45818.67709490741</v>
+        <v>45737.58509259259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15033,14 +15033,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 28321-2025</t>
+          <t>A 61012-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45818.64015046296</v>
+        <v>45259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 23130-2025</t>
+          <t>A 67603-2021</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45791.38667824074</v>
+        <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -712,124 +712,124 @@
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Backsippa
+Plattad jordtunga
+Svart jordtunga</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 67603-2021 artfynd.xlsx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 67603-2021 karta.png", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 67603-2021 FSC-klagomål.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 67603-2021 FSC-klagomål mail.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 67603-2021 tillsynsbegäran.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 67603-2021 tillsynsbegäran mail.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 23130-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45791.38667824074</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Backsippa
 Axveronika
 Flentimotej</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 23130-2025 artfynd.xlsx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 23130-2025 karta.png", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 23130-2025 FSC-klagomål.docx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 23130-2025 FSC-klagomål mail.docx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 23130-2025 tillsynsbegäran.docx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 23130-2025 tillsynsbegäran mail.docx", "A 23130-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 67603-2021</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44524</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Backsippa
-Plattad jordtunga
-Svart jordtunga</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 67603-2021 artfynd.xlsx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 67603-2021 karta.png", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 67603-2021 FSC-klagomål.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 67603-2021 FSC-klagomål mail.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 67603-2021 tillsynsbegäran.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 67603-2021 tillsynsbegäran mail.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,14 +1010,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 7564-2025</t>
+          <t>A 50403-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45705.59221064814</v>
+        <v>44866</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,17 +1029,22 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1054,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1064,903 +1069,898 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Springkorn</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 28988-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45821.36956018519</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 22327-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45446.58446759259</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 26261-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45468.65774305556</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Åkerväddsantennmal</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 7564-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45705.59221064814</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Solvända</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 7564-2025 artfynd.xlsx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 7564-2025 karta.png", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 7564-2025 FSC-klagomål.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 7564-2025 FSC-klagomål mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 7564-2025 tillsynsbegäran.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 7564-2025 tillsynsbegäran mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 41274-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45898.62613425926</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>2.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 60983-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 46123-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45924.58663194445</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 46522-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45926.32910879629</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 2230-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45673.4736574074</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>1.6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Fläcknycklar</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 46123-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45924.58663194445</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H10" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 54409-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45965.45900462963</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 28988-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45821.36956018519</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 22327-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45446.58446759259</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 46522-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45926.32910879629</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Tibast</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 60983-2023</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45261</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 54409-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45965.45900462963</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Nattviol</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 50403-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Springkorn</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 26261-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45468.65774305556</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Åkerväddsantennmal</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44319.48951388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44242</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2202,14 +2202,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 13488-2021</t>
+          <t>A 1552-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44273</v>
+        <v>44573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2259,14 +2259,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 23959-2021</t>
+          <t>A 13488-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44335.6689699074</v>
+        <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2316,14 +2316,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 32773-2021</t>
+          <t>A 56458-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44375</v>
+        <v>44480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2373,14 +2373,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 1552-2022</t>
+          <t>A 72290-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44573</v>
+        <v>44545</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2430,14 +2430,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 72290-2021</t>
+          <t>A 48431-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44545</v>
+        <v>44449</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2544,14 +2544,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 56458-2021</t>
+          <t>A 14679-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44480</v>
+        <v>44280.43516203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2601,14 +2601,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48431-2021</t>
+          <t>A 48438-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2658,14 +2658,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48438-2021</t>
+          <t>A 23959-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44449</v>
+        <v>44335.6689699074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2715,14 +2715,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14679-2021</t>
+          <t>A 32773-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44280.43516203704</v>
+        <v>44375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2829,14 +2829,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 26581-2021</t>
+          <t>A 72563-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44348</v>
+        <v>44546.44777777778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>9.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2886,14 +2886,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 10950-2022</t>
+          <t>A 46240-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44627</v>
+        <v>44442</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2943,14 +2943,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 39965-2025</t>
+          <t>A 26581-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45892.57770833333</v>
+        <v>44348</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3000,14 +3000,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3877-2023</t>
+          <t>A 10950-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44951.86751157408</v>
+        <v>44627</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3057,14 +3057,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50901-2024</t>
+          <t>A 38299-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45602.68665509259</v>
+        <v>45161.64956018519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3114,14 +3114,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15467-2023</t>
+          <t>A 72558-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45020.43767361111</v>
+        <v>44546.43049768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3171,14 +3171,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20288-2025</t>
+          <t>A 34431-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45774.71646990741</v>
+        <v>44792.57164351852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3190,8 +3190,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3228,14 +3233,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 72558-2021</t>
+          <t>A 51475-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44546.43049768519</v>
+        <v>45221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3248,7 +3253,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3285,14 +3290,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38760-2025</t>
+          <t>A 58800-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45887.39769675926</v>
+        <v>44903</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3305,7 +3310,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3342,14 +3347,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6480-2025</t>
+          <t>A 12253-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45699.61184027778</v>
+        <v>45378</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3362,7 +3367,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3399,14 +3404,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 35447-2023</t>
+          <t>A 12254-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45146</v>
+        <v>45378.43430555556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3419,7 +3424,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3456,14 +3461,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 79-2024</t>
+          <t>A 6785-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45293</v>
+        <v>45342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3475,8 +3480,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3513,14 +3523,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38735-2025</t>
+          <t>A 26695-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45887</v>
+        <v>44348</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3533,7 +3543,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3570,14 +3580,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 36401-2023</t>
+          <t>A 11944-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45152.54942129629</v>
+        <v>45376.68662037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3589,13 +3599,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>6.3</v>
+        <v>2.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3632,14 +3637,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50886-2024</t>
+          <t>A 66977-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45602.66590277778</v>
+        <v>44522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3652,7 +3657,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3689,14 +3694,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 14210-2023</t>
+          <t>A 59411-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45009</v>
+        <v>44907</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3708,8 +3713,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3746,14 +3756,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38756-2025</t>
+          <t>A 17707-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45887.39501157407</v>
+        <v>45037.37438657408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3766,7 +3776,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3803,14 +3813,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39227-2025</t>
+          <t>A 49566-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45889.22287037037</v>
+        <v>44455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3823,7 +3833,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3860,14 +3870,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 39230-2025</t>
+          <t>A 53518-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45889.26685185185</v>
+        <v>44879.59599537037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3880,7 +3890,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3917,14 +3927,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 39225-2025</t>
+          <t>A 58412-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45889.22056712963</v>
+        <v>45250.71864583333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3974,14 +3984,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39226-2025</t>
+          <t>A 59410-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45889.2216550926</v>
+        <v>44907</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,8 +4003,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4031,14 +4046,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 13567-2025</t>
+          <t>A 65921-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45736</v>
+        <v>44517</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4051,7 +4066,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4088,14 +4103,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 60917-2022</t>
+          <t>A 45918-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44908</v>
+        <v>45580.4637037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4108,7 +4123,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4145,14 +4160,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40328-2024</t>
+          <t>A 50179-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45555.29670138889</v>
+        <v>45208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4165,7 +4180,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4202,14 +4217,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41105-2025</t>
+          <t>A 50570-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45898.45606481482</v>
+        <v>45217</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4222,7 +4237,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4259,14 +4274,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 66977-2021</t>
+          <t>A 62570-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44522</v>
+        <v>45269</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4279,7 +4294,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4316,14 +4331,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20290-2025</t>
+          <t>A 39950-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45774.7228125</v>
+        <v>45553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,8 +4350,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4373,14 +4393,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16304-2024</t>
+          <t>A 4821-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45407.42699074074</v>
+        <v>44957.64600694444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4393,7 +4413,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4430,14 +4450,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49566-2021</t>
+          <t>A 10980-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44455</v>
+        <v>45370.5349074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,14 +4507,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 15276-2022</t>
+          <t>A 43012-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44659</v>
+        <v>45567.3878125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,13 +4526,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4549,14 +4564,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 51642-2021</t>
+          <t>A 60964-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44462</v>
+        <v>45261</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4584,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4606,14 +4621,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17707-2023</t>
+          <t>A 54442-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45037.37438657408</v>
+        <v>44473.45114583334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4626,7 +4641,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4663,14 +4678,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38300-2023</t>
+          <t>A 15276-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45161</v>
+        <v>44659</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4682,8 +4697,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>7.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4720,14 +4740,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43012-2024</t>
+          <t>A 6147-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45567.3878125</v>
+        <v>45698.40091435185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4740,7 +4760,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4777,14 +4797,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 72563-2021</t>
+          <t>A 58658-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44546.44777777778</v>
+        <v>45635.60386574074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4796,8 +4816,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4834,14 +4859,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46248-2024</t>
+          <t>A 54444-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45581.59293981481</v>
+        <v>44473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4854,7 +4879,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4891,14 +4916,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12168-2021</t>
+          <t>A 1293-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44266</v>
+        <v>44936.47675925926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4911,7 +4936,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4948,14 +4973,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 43026-2025</t>
+          <t>A 14210-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45909.53418981482</v>
+        <v>45009</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4968,7 +4993,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5005,14 +5030,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43032-2025</t>
+          <t>A 64934-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45909.53945601852</v>
+        <v>45282.79449074074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5025,7 +5050,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5062,14 +5087,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61575-2023</t>
+          <t>A 27255-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45261</v>
+        <v>45812.47243055556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5082,7 +5107,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5119,14 +5144,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 21307-2025</t>
+          <t>A 59234-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45781.41212962963</v>
+        <v>44904</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5138,8 +5163,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5176,14 +5206,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11923-2025</t>
+          <t>A 27259-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45728.50200231482</v>
+        <v>45812.47438657407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5195,13 +5225,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>30.5</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5238,14 +5263,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 34664-2024</t>
+          <t>A 27232-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45526.49925925926</v>
+        <v>45812.44145833333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5283,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5295,14 +5320,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 53521-2023</t>
+          <t>A 27251-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45230</v>
+        <v>45812.47131944444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5340,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5352,14 +5377,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8024-2021</t>
+          <t>A 27248-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44243</v>
+        <v>45812.46631944444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5371,13 +5396,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5414,14 +5434,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22328-2024</t>
+          <t>A 55730-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45446.58618055555</v>
+        <v>44888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5434,7 +5454,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5471,14 +5491,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 22401-2025</t>
+          <t>A 28341-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45786.53190972222</v>
+        <v>45818.67709490741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5491,7 +5511,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5528,14 +5548,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 37083-2024</t>
+          <t>A 35404-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45539.48737268519</v>
+        <v>45146.60049768518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5548,7 +5568,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5585,14 +5605,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12675-2024</t>
+          <t>A 28321-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45384.39924768519</v>
+        <v>45818.64015046296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5605,7 +5625,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5642,14 +5662,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 49971-2023</t>
+          <t>A 28422-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45215.39953703704</v>
+        <v>45819.36372685185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5661,8 +5681,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5699,14 +5724,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 64930-2023</t>
+          <t>A 28663-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45282</v>
+        <v>45819.6608912037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5719,7 +5744,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5756,14 +5781,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13560-2025</t>
+          <t>A 28695-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45736</v>
+        <v>45819.9034837963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5776,7 +5801,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5813,14 +5838,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 38278-2024</t>
+          <t>A 15491-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45545</v>
+        <v>45401.51510416667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5832,8 +5857,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5870,14 +5900,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 23114-2025</t>
+          <t>A 28697-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45791.36858796296</v>
+        <v>45819.92020833334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5890,7 +5920,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5927,14 +5957,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57284-2024</t>
+          <t>A 28417-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45629.58258101852</v>
+        <v>45819.35731481481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,8 +5976,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5984,14 +6019,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 2749-2024</t>
+          <t>A 28419-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45314.580625</v>
+        <v>45819.3609375</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6003,8 +6038,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6041,14 +6081,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38299-2023</t>
+          <t>A 68095-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45161.64956018519</v>
+        <v>44526.3550462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6098,14 +6138,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44757-2025</t>
+          <t>A 64930-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45917.70016203704</v>
+        <v>45282</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6118,7 +6158,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6155,14 +6195,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44752-2025</t>
+          <t>A 24866-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45917.68621527778</v>
+        <v>45085.39561342593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6175,7 +6215,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6212,14 +6252,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44753-2025</t>
+          <t>A 12980-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45917.69141203703</v>
+        <v>45734.46005787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,8 +6271,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>3.9</v>
+        <v>12.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6269,14 +6314,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44756-2025</t>
+          <t>A 29580-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45917.69450231481</v>
+        <v>45825.37965277778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6289,7 +6334,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6326,14 +6371,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40667-2023</t>
+          <t>A 12412-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45170.58804398148</v>
+        <v>45730.43697916667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6346,7 +6391,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6383,14 +6428,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 9125-2023</t>
+          <t>A 20288-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44980.33065972223</v>
+        <v>45774.71646990741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6402,13 +6447,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6445,14 +6485,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24499-2025</t>
+          <t>A 30468-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45798.39575231481</v>
+        <v>45827.84690972222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6465,7 +6505,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6502,14 +6542,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 11924-2025</t>
+          <t>A 49915-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45728.50487268518</v>
+        <v>45597.56597222222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,13 +6561,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6564,14 +6599,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24519-2025</t>
+          <t>A 3087-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45798.41673611111</v>
+        <v>44946.43795138889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6584,7 +6619,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6621,14 +6656,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 53518-2022</t>
+          <t>A 2715-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44879.59599537037</v>
+        <v>44580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6641,7 +6676,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6678,14 +6713,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 15783-2022</t>
+          <t>A 23781-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44663.6975</v>
+        <v>45793</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6698,7 +6733,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6735,14 +6770,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 18740-2025</t>
+          <t>A 58415-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45763.71474537037</v>
+        <v>44488.52820601852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6755,7 +6790,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6792,14 +6827,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50179-2023</t>
+          <t>A 31623-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45208</v>
+        <v>45834.02827546297</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6812,7 +6847,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6849,14 +6884,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 54444-2021</t>
+          <t>A 35447-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44473</v>
+        <v>45146</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6904,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6906,14 +6941,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 51475-2023</t>
+          <t>A 9030-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45221</v>
+        <v>44615</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6926,7 +6961,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6963,14 +6998,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46166-2025</t>
+          <t>A 37631-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45924.63995370371</v>
+        <v>45159</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7020,14 +7055,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46164-2025</t>
+          <t>A 31624-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45924.63813657407</v>
+        <v>45834</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7040,7 +7075,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7077,14 +7112,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 46175-2025</t>
+          <t>A 51630-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45924.64946759259</v>
+        <v>44462.48349537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7097,7 +7132,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7134,14 +7169,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46159-2025</t>
+          <t>A 11270-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45924.6366550926</v>
+        <v>44629.74461805556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7154,7 +7189,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7191,14 +7226,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 7337-2023</t>
+          <t>A 41337-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44971</v>
+        <v>45174.69423611111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7211,7 +7246,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7248,14 +7283,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 27259-2025</t>
+          <t>A 2800-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45812.47438657407</v>
+        <v>45677.58048611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7268,7 +7303,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7305,14 +7340,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46156-2025</t>
+          <t>A 20290-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45924.6319212963</v>
+        <v>45774.7228125</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7325,7 +7360,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7362,14 +7397,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27232-2025</t>
+          <t>A 32581-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45812.44145833333</v>
+        <v>45838.59538194445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7382,7 +7417,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7419,14 +7454,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46467-2025</t>
+          <t>A 8658-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45925.67975694445</v>
+        <v>44613.66163194444</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7439,7 +7474,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7476,14 +7511,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27251-2025</t>
+          <t>A 2418-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45812.47131944444</v>
+        <v>45674.3837037037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7496,7 +7531,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7533,14 +7568,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27255-2025</t>
+          <t>A 2231-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45812.47243055556</v>
+        <v>45673.47716435185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7588,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7590,14 +7625,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27248-2025</t>
+          <t>A 60917-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45812.46631944444</v>
+        <v>44908</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7645,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7647,14 +7682,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46144-2025</t>
+          <t>A 13567-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45924.60741898148</v>
+        <v>45736</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7702,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7704,14 +7739,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28321-2025</t>
+          <t>A 4314-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45818.64015046296</v>
+        <v>45324</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,8 +7758,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7761,14 +7801,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28663-2025</t>
+          <t>A 50581-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45819.6608912037</v>
+        <v>45601.61167824074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7781,7 +7821,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7818,14 +7858,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28341-2025</t>
+          <t>A 50339-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45818.67709490741</v>
+        <v>45216</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7838,7 +7878,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7875,14 +7915,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28422-2025</t>
+          <t>A 63449-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45819.36372685185</v>
+        <v>45273</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,13 +7934,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7937,14 +7972,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 58412-2023</t>
+          <t>A 3681-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45250.71864583333</v>
+        <v>45681.44800925926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7957,7 +7992,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7994,14 +8029,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 63449-2023</t>
+          <t>A 3678-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45273</v>
+        <v>45681.44512731482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8014,7 +8049,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8051,14 +8086,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28417-2025</t>
+          <t>A 37806-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45819.35731481481</v>
+        <v>44810</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8070,13 +8105,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8113,14 +8143,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28419-2025</t>
+          <t>A 36401-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45819.3609375</v>
+        <v>45152.54942129629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8134,11 +8164,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8175,14 +8205,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28695-2025</t>
+          <t>A 45164-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45819.9034837963</v>
+        <v>45191.49636574074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8195,7 +8225,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8232,14 +8262,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28697-2025</t>
+          <t>A 37802-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45819.92020833334</v>
+        <v>44810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8252,7 +8282,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8289,14 +8319,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46521-2025</t>
+          <t>A 26696-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45926.32668981481</v>
+        <v>44348</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8308,13 +8338,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>15.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8351,14 +8376,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29580-2025</t>
+          <t>A 7337-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45825.37965277778</v>
+        <v>44971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8371,7 +8396,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8408,14 +8433,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30468-2025</t>
+          <t>A 9176-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45827.84690972222</v>
+        <v>45714.41366898148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8428,7 +8453,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8465,14 +8490,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 3678-2025</t>
+          <t>A 44468-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45681.44512731482</v>
+        <v>44435</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8484,8 +8509,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8522,14 +8552,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 23781-2025</t>
+          <t>A 38199-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45793</v>
+        <v>45882.67461805556</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8542,7 +8572,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8579,14 +8609,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 31624-2025</t>
+          <t>A 7561-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45834</v>
+        <v>45705.58834490741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8599,7 +8629,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8636,14 +8666,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31623-2025</t>
+          <t>A 37806-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45834.02827546297</v>
+        <v>45881</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8656,7 +8686,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8693,14 +8723,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 2418-2025</t>
+          <t>A 41819-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45674.3837037037</v>
+        <v>45176.56298611111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8713,7 +8743,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8750,14 +8780,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 32581-2025</t>
+          <t>A 60977-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45838.59538194445</v>
+        <v>45261.4765625</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8770,7 +8800,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8807,14 +8837,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 65921-2021</t>
+          <t>A 11478-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44517</v>
+        <v>45372</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8827,7 +8857,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8864,14 +8894,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 54442-2021</t>
+          <t>A 11923-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44473.45114583334</v>
+        <v>45728.50200231482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8883,8 +8913,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2.3</v>
+        <v>30.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8921,14 +8956,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 50581-2024</t>
+          <t>A 13870-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45601.61167824074</v>
+        <v>45737.58509259259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8941,7 +8976,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8978,14 +9013,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 50339-2023</t>
+          <t>A 13563-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45216</v>
+        <v>45736</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8998,7 +9033,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9035,14 +9070,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 50181-2023</t>
+          <t>A 34662-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45208</v>
+        <v>45526.49626157407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9055,7 +9090,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9092,14 +9127,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 37806-2022</t>
+          <t>A 12168-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44810</v>
+        <v>44266</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9112,7 +9147,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9149,14 +9184,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 26696-2021</t>
+          <t>A 50181-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44348</v>
+        <v>45208</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9169,7 +9204,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>15.5</v>
+        <v>1.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9206,14 +9241,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1293-2023</t>
+          <t>A 50883-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44936.47675925926</v>
+        <v>45602.65869212963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9226,7 +9261,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9263,14 +9298,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 37802-2022</t>
+          <t>A 50896-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44810</v>
+        <v>45602.68004629629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9283,7 +9318,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9320,14 +9355,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 41337-2023</t>
+          <t>A 11924-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45174.69423611111</v>
+        <v>45728.50487268518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9339,8 +9374,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9377,14 +9417,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 10984-2024</t>
+          <t>A 53520-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45370.54677083333</v>
+        <v>44879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9397,7 +9437,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9434,14 +9474,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 10980-2024</t>
+          <t>A 52655-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45370.5349074074</v>
+        <v>45225</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9454,7 +9494,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9491,14 +9531,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 11944-2024</t>
+          <t>A 22307-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45376.68662037037</v>
+        <v>45446.56908564815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9511,7 +9551,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9548,14 +9588,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37806-2025</t>
+          <t>A 10984-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45881</v>
+        <v>45370.54677083333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9568,7 +9608,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9605,14 +9645,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 51326-2025</t>
+          <t>A 3877-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45950.40321759259</v>
+        <v>44951.86751157408</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9625,7 +9665,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9662,14 +9702,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 3681-2025</t>
+          <t>A 60969-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45681.44800925926</v>
+        <v>45261.47166666666</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9682,7 +9722,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9719,14 +9759,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 51325-2025</t>
+          <t>A 15467-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45950.39878472222</v>
+        <v>45020.43767361111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9739,7 +9779,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9776,14 +9816,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 38199-2025</t>
+          <t>A 61012-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45882.67461805556</v>
+        <v>45259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9833,14 +9873,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 51335-2025</t>
+          <t>A 15783-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45950.42493055556</v>
+        <v>44663.6975</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9853,7 +9893,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9890,14 +9930,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 59234-2022</t>
+          <t>A 34521-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44904</v>
+        <v>45525.68068287037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9909,13 +9949,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9959,7 +9994,7 @@
         <v>44300</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10009,14 +10044,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58658-2024</t>
+          <t>A 1011-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45635.60386574074</v>
+        <v>45666.48438657408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10026,11 +10061,6 @@
       <c r="E158" t="inlineStr">
         <is>
           <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -10071,14 +10101,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2715-2022</t>
+          <t>A 1013-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44580</v>
+        <v>45666.48954861111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10121,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10128,14 +10158,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 961-2024</t>
+          <t>A 38756-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45301</v>
+        <v>45887.39501157407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10148,7 +10178,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10185,14 +10215,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 1011-2025</t>
+          <t>A 38735-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45666.48438657408</v>
+        <v>45887</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10205,7 +10235,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10242,14 +10272,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 1013-2025</t>
+          <t>A 38760-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45666.48954861111</v>
+        <v>45887.39769675926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10262,7 +10292,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10299,14 +10329,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34662-2024</t>
+          <t>A 8024-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45526.49626157407</v>
+        <v>44243</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10318,8 +10348,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10356,14 +10391,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 62570-2023</t>
+          <t>A 40667-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45269</v>
+        <v>45170.58804398148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10376,7 +10411,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10413,14 +10448,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50883-2024</t>
+          <t>A 45292-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45602.65869212963</v>
+        <v>45576.39782407408</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10433,7 +10468,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10470,14 +10505,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50896-2024</t>
+          <t>A 39226-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45602.68004629629</v>
+        <v>45889.2216550926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10490,7 +10525,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10527,14 +10562,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 6147-2025</t>
+          <t>A 39230-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45698.40091435185</v>
+        <v>45889.26685185185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10547,7 +10582,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10584,14 +10619,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 44769-2025</t>
+          <t>A 39227-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45917.74508101852</v>
+        <v>45889.22287037037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10604,7 +10639,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10641,14 +10676,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 44770-2025</t>
+          <t>A 39225-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45917.74980324074</v>
+        <v>45889.22056712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10661,7 +10696,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10698,14 +10733,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 3087-2023</t>
+          <t>A 42042-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44946.43795138889</v>
+        <v>45177.52741898148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10718,7 +10753,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10755,14 +10790,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 55939-2025</t>
+          <t>A 39965-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45973.44811342593</v>
+        <v>45892.57770833333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10775,7 +10810,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10812,14 +10847,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 57181-2025</t>
+          <t>A 50886-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45979.56186342592</v>
+        <v>45602.66590277778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10832,7 +10867,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10869,14 +10904,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 7561-2025</t>
+          <t>A 50901-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45705.58834490741</v>
+        <v>45602.68665509259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10889,7 +10924,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10926,14 +10961,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 57194-2025</t>
+          <t>A 41105-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45979.57789351852</v>
+        <v>45898.45606481482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10946,7 +10981,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10983,14 +11018,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 57125-2025</t>
+          <t>A 33532-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45979.47040509259</v>
+        <v>45519.6759837963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11003,7 +11038,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11040,14 +11075,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 57694-2025</t>
+          <t>A 12769-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45981.45193287037</v>
+        <v>45384.58284722222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11060,7 +11095,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11097,14 +11132,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 4314-2024</t>
+          <t>A 50906-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45324</v>
+        <v>45602.69741898148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11116,13 +11151,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11159,14 +11189,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 12769-2024</t>
+          <t>A 9125-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45384.58284722222</v>
+        <v>44980.33065972223</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,8 +11208,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11216,14 +11251,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 58316-2025</t>
+          <t>A 40328-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45985.47137731482</v>
+        <v>45555.29670138889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11236,7 +11271,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11273,14 +11308,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57942-2025</t>
+          <t>A 16304-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45982.31621527778</v>
+        <v>45407.42699074074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11293,7 +11328,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11330,14 +11365,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49915-2024</t>
+          <t>A 51642-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45597.56597222222</v>
+        <v>44462</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11350,7 +11385,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11387,14 +11422,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 58310-2025</t>
+          <t>A 43032-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45985.4681712963</v>
+        <v>45909.53945601852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11407,7 +11442,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11444,14 +11479,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 58318-2025</t>
+          <t>A 22328-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45985.47318287037</v>
+        <v>45446.58618055555</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11464,7 +11499,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11501,14 +11536,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 58320-2025</t>
+          <t>A 43026-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45985.47396990741</v>
+        <v>45909.53418981482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11521,7 +11556,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11558,14 +11593,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 58321-2025</t>
+          <t>A 6480-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45985.47479166667</v>
+        <v>45699.61184027778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11578,7 +11613,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11615,14 +11650,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 58756-2025</t>
+          <t>A 44752-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45986.65002314815</v>
+        <v>45917.68621527778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11635,7 +11670,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11672,14 +11707,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 9030-2022</t>
+          <t>A 44753-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44615</v>
+        <v>45917.69141203703</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11692,7 +11727,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11729,14 +11764,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 12412-2025</t>
+          <t>A 44756-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45730.43697916667</v>
+        <v>45917.69450231481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11784,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>6.6</v>
+        <v>2.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11786,14 +11821,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 58761-2025</t>
+          <t>A 44757-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45986.65516203704</v>
+        <v>45917.70016203704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11806,7 +11841,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11843,14 +11878,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 59105-2025</t>
+          <t>A 79-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45988</v>
+        <v>45293</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11863,7 +11898,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11900,14 +11935,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 12980-2025</t>
+          <t>A 961-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45734.46005787037</v>
+        <v>45301</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11919,13 +11954,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>12.4</v>
+        <v>2.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11962,14 +11992,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 41819-2023</t>
+          <t>A 38300-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45176.56298611111</v>
+        <v>45161</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +12012,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12019,14 +12049,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 58415-2021</t>
+          <t>A 46164-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44488.52820601852</v>
+        <v>45924.63813657407</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12039,7 +12069,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12076,14 +12106,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 22307-2024</t>
+          <t>A 46175-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45446.56908564815</v>
+        <v>45924.64946759259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12096,7 +12126,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12133,14 +12163,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 46240-2021</t>
+          <t>A 46144-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44442</v>
+        <v>45924.60741898148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12153,7 +12183,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12190,14 +12220,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 34431-2022</t>
+          <t>A 46156-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44792.57164351852</v>
+        <v>45924.6319212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12209,13 +12239,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12252,14 +12277,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 2073-2026</t>
+          <t>A 46159-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46036.3408449074</v>
+        <v>45924.6366550926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12297,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12309,14 +12334,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 33532-2024</t>
+          <t>A 46248-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45519.6759837963</v>
+        <v>45581.59293981481</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12354,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12366,14 +12391,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 9176-2025</t>
+          <t>A 46166-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45714.41366898148</v>
+        <v>45924.63995370371</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12386,7 +12411,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12423,14 +12448,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60969-2023</t>
+          <t>A 46521-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45261.47166666666</v>
+        <v>45926.32668981481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12442,8 +12467,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12480,14 +12510,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 60964-2023</t>
+          <t>A 46467-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45261</v>
+        <v>45925.67975694445</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12500,7 +12530,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12537,14 +12567,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 62129-2025</t>
+          <t>A 21307-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46006.44893518519</v>
+        <v>45781.41212962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12557,7 +12587,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12594,14 +12624,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 4837-2026</t>
+          <t>A 53521-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46048.61173611111</v>
+        <v>45230</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12614,7 +12644,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12651,14 +12681,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 4852-2026</t>
+          <t>A 61575-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46048.63101851852</v>
+        <v>45261</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12671,7 +12701,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12708,14 +12738,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 45164-2023</t>
+          <t>A 49971-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45191.49636574074</v>
+        <v>45215.39953703704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12728,7 +12758,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12765,14 +12795,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 62447-2025</t>
+          <t>A 38278-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46007.48613425926</v>
+        <v>45545</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12784,13 +12814,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12827,14 +12852,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 62123-2025</t>
+          <t>A 12675-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46006.44307870371</v>
+        <v>45384.39924768519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12847,7 +12872,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12884,14 +12909,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 62391-2025</t>
+          <t>A 37083-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46007.3897337963</v>
+        <v>45539.48737268519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12903,13 +12928,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>8.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12946,14 +12966,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 62852-2025</t>
+          <t>A 22401-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46008.70960648148</v>
+        <v>45786.53190972222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,13 +12985,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13008,14 +13023,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 42042-2023</t>
+          <t>A 13560-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45177.52741898148</v>
+        <v>45736</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13028,7 +13043,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13065,14 +13080,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 64934-2023</t>
+          <t>A 34664-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45282.79449074074</v>
+        <v>45526.49925925926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13085,7 +13100,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13122,14 +13137,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 63445-2025</t>
+          <t>A 23114-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46013.39946759259</v>
+        <v>45791.36858796296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13142,7 +13157,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13179,14 +13194,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 37631-2023</t>
+          <t>A 2749-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45159</v>
+        <v>45314.580625</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13199,7 +13214,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13236,14 +13251,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 2231-2025</t>
+          <t>A 57284-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45673.47716435185</v>
+        <v>45629.58258101852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13256,7 +13271,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13293,14 +13308,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 59410-2022</t>
+          <t>A 51335-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44907</v>
+        <v>45950.42493055556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13312,13 +13327,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13355,14 +13365,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 59411-2022</t>
+          <t>A 51326-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44907</v>
+        <v>45950.40321759259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,13 +13384,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13417,14 +13422,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 2800-2025</t>
+          <t>A 51325-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45677.58048611111</v>
+        <v>45950.39878472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13437,7 +13442,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13474,14 +13479,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 34521-2024</t>
+          <t>A 24519-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45525.68068287037</v>
+        <v>45798.41673611111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13494,7 +13499,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13531,14 +13536,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 8658-2022</t>
+          <t>A 24499-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44613.66163194444</v>
+        <v>45798.39575231481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13551,7 +13556,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13588,14 +13593,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 50570-2023</t>
+          <t>A 44770-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45217</v>
+        <v>45917.74980324074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13608,7 +13613,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13645,14 +13650,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 45292-2024</t>
+          <t>A 44769-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45576.39782407408</v>
+        <v>45917.74508101852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13665,7 +13670,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13702,14 +13707,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 60977-2023</t>
+          <t>A 18740-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45261.4765625</v>
+        <v>45763.71474537037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13722,7 +13727,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13759,14 +13764,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 12253-2024</t>
+          <t>A 55939-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45378</v>
+        <v>45973.44811342593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13779,7 +13784,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13816,14 +13821,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 12254-2024</t>
+          <t>A 57125-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45378.43430555556</v>
+        <v>45979.47040509259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13836,7 +13841,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13873,14 +13878,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 44468-2021</t>
+          <t>A 57181-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44435</v>
+        <v>45979.56186342592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13892,13 +13897,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13935,14 +13935,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 52655-2023</t>
+          <t>A 57194-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45225</v>
+        <v>45979.57789351852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13992,14 +13992,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 24866-2023</t>
+          <t>A 57694-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45085.39561342593</v>
+        <v>45981.45193287037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14049,14 +14049,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 39950-2024</t>
+          <t>A 57942-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45553</v>
+        <v>45982.31621527778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14068,13 +14068,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14111,14 +14106,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 11270-2022</t>
+          <t>A 58320-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44629.74461805556</v>
+        <v>45985.47396990741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14131,7 +14126,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14168,14 +14163,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 68095-2021</t>
+          <t>A 58321-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44526.3550462963</v>
+        <v>45985.47479166667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14188,7 +14183,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14225,14 +14220,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 26695-2021</t>
+          <t>A 58318-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44348</v>
+        <v>45985.47318287037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14245,7 +14240,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14282,14 +14277,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 58800-2022</t>
+          <t>A 58756-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44903</v>
+        <v>45986.65002314815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14302,7 +14297,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14339,14 +14334,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 4821-2023</t>
+          <t>A 58316-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44957.64600694444</v>
+        <v>45985.47137731482</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14359,7 +14354,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14396,14 +14391,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 11478-2024</t>
+          <t>A 58761-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45372</v>
+        <v>45986.65516203704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14416,7 +14411,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14453,14 +14448,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 51630-2021</t>
+          <t>A 58310-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44462.48349537037</v>
+        <v>45985.4681712963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14473,7 +14468,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14510,14 +14505,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 15491-2024</t>
+          <t>A 59105-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45401.51510416667</v>
+        <v>45988</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14529,13 +14524,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14572,14 +14562,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 45918-2024</t>
+          <t>A 2073-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45580.4637037037</v>
+        <v>46036.3408449074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14592,7 +14582,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14629,14 +14619,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 50906-2024</t>
+          <t>A 4852-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45602.69741898148</v>
+        <v>46048.63101851852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14649,7 +14639,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.3</v>
+        <v>5.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14686,14 +14676,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 6785-2024</t>
+          <t>A 4837-2026</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45342</v>
+        <v>46048.61173611111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14705,13 +14695,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14748,14 +14733,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 55730-2022</t>
+          <t>A 62129-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44888</v>
+        <v>46006.44893518519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14768,7 +14753,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14805,14 +14790,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 53520-2022</t>
+          <t>A 62123-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44879</v>
+        <v>46006.44307870371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14825,7 +14810,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14862,14 +14847,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 35404-2023</t>
+          <t>A 62447-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45146.60049768518</v>
+        <v>46007.48613425926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14881,8 +14866,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14919,14 +14909,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 13563-2025</t>
+          <t>A 62391-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45736</v>
+        <v>46007.3897337963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14938,8 +14928,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>2.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14976,14 +14971,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 13870-2025</t>
+          <t>A 62852-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45737.58509259259</v>
+        <v>46008.70960648148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14995,8 +14990,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15033,14 +15033,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 61012-2023</t>
+          <t>A 63445-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45259</v>
+        <v>46013.39946759259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45791.38667824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,14 +1010,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 50403-2022</t>
+          <t>A 7564-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44866</v>
+        <v>45705.59221064814</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,23 +1029,18 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1059,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1069,31 +1064,31 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Springkorn</t>
+          <t>Solvända</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 7564-2025 artfynd.xlsx", "A 7564-2025")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 7564-2025 karta.png", "A 7564-2025")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 7564-2025 FSC-klagomål.docx", "A 7564-2025")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 7564-2025 FSC-klagomål mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 7564-2025 tillsynsbegäran.docx", "A 7564-2025")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 7564-2025 tillsynsbegäran mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
     </row>
@@ -1107,7 +1102,7 @@
         <v>45821.36956018519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1192,7 @@
         <v>45446.58446759259</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,14 +1270,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 26261-2024</t>
+          <t>A 41274-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45468.65774305556</v>
+        <v>45898.62613425926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1295,7 +1290,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1329,45 +1324,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 7564-2025</t>
+          <t>A 46123-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45705.59221064814</v>
+        <v>45924.58663194445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1380,19 +1375,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1407,52 +1402,56 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Solvända</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 7564-2025 artfynd.xlsx", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 7564-2025 karta.png", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
         <v/>
       </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
+        <v/>
+      </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 7564-2025 FSC-klagomål.docx", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 7564-2025 FSC-klagomål mail.docx", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 7564-2025 tillsynsbegäran.docx", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 7564-2025 tillsynsbegäran mail.docx", "A 7564-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 41274-2025</t>
+          <t>A 46522-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45898.62613425926</v>
+        <v>45926.32910879629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1464,17 +1463,22 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1489,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1499,31 +1503,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
         <v/>
       </c>
     </row>
@@ -1537,7 +1541,7 @@
         <v>45261</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1615,14 +1619,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 46123-2025</t>
+          <t>A 54409-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45924.58663194445</v>
+        <v>45965.45900462963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1639,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1647,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1659,59 +1663,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 46522-2025</t>
+          <t>A 50403-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45926.32910879629</v>
+        <v>44866</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1763,45 +1763,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Springkorn</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2230-2025</t>
+          <t>A 26261-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45673.4736574074</v>
+        <v>45468.65774305556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1814,17 +1814,17 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1848,119 +1848,119 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Åkerväddsantennmal</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 2230-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45673.4736574074</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 54409-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45965.45900462963</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Nattviol</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44319.48951388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44242</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2202,14 +2202,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 1552-2022</t>
+          <t>A 13488-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44573</v>
+        <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2259,14 +2259,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 13488-2021</t>
+          <t>A 23959-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44273</v>
+        <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2316,14 +2316,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 56458-2021</t>
+          <t>A 32773-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44480</v>
+        <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2373,14 +2373,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 72290-2021</t>
+          <t>A 1552-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44545</v>
+        <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2430,14 +2430,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 48431-2021</t>
+          <t>A 72290-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44449</v>
+        <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2544,14 +2544,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 14679-2021</t>
+          <t>A 56458-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44280.43516203704</v>
+        <v>44480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2601,14 +2601,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48438-2021</t>
+          <t>A 48431-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2658,14 +2658,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 23959-2021</t>
+          <t>A 48438-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44335.6689699074</v>
+        <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2715,14 +2715,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32773-2021</t>
+          <t>A 14679-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44375</v>
+        <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2829,14 +2829,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 72563-2021</t>
+          <t>A 26581-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44546.44777777778</v>
+        <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2886,14 +2886,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 46240-2021</t>
+          <t>A 10950-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44442</v>
+        <v>44627</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2943,14 +2943,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26581-2021</t>
+          <t>A 50901-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44348</v>
+        <v>45602.68665509259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>9.300000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3000,14 +3000,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 10950-2022</t>
+          <t>A 3877-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44627</v>
+        <v>44951.86751157408</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3057,14 +3057,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38299-2023</t>
+          <t>A 14210-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45161.64956018519</v>
+        <v>45009</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3114,14 +3114,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 72558-2021</t>
+          <t>A 36401-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44546.43049768519</v>
+        <v>45152.54942129629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3133,8 +3133,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3171,14 +3176,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 34431-2022</t>
+          <t>A 50886-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44792.57164351852</v>
+        <v>45602.66590277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3190,13 +3195,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 51475-2023</t>
+          <t>A 13567-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45221</v>
+        <v>45736</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 58800-2022</t>
+          <t>A 60917-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44903</v>
+        <v>44908</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 12253-2024</t>
+          <t>A 20290-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45378</v>
+        <v>45774.7228125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12254-2024</t>
+          <t>A 38300-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45378.43430555556</v>
+        <v>45161</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 6785-2024</t>
+          <t>A 43012-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45342</v>
+        <v>45567.3878125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3480,13 +3480,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3523,14 +3518,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 26695-2021</t>
+          <t>A 16304-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44348</v>
+        <v>45407.42699074074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3543,7 +3538,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3580,14 +3575,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11944-2024</t>
+          <t>A 72563-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45376.68662037037</v>
+        <v>44546.44777777778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3600,7 +3595,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3637,14 +3632,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 66977-2021</t>
+          <t>A 12168-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44522</v>
+        <v>44266</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3657,7 +3652,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3694,14 +3689,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 59411-2022</t>
+          <t>A 11923-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44907</v>
+        <v>45728.50200231482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3715,11 +3710,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>30.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3756,14 +3751,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 17707-2023</t>
+          <t>A 8024-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45037.37438657408</v>
+        <v>44243</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3775,8 +3770,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3813,14 +3813,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 49566-2021</t>
+          <t>A 22328-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44455</v>
+        <v>45446.58618055555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3870,14 +3870,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53518-2022</t>
+          <t>A 38760-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44879.59599537037</v>
+        <v>45887.39769675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3927,14 +3927,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 58412-2023</t>
+          <t>A 64930-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45250.71864583333</v>
+        <v>45282</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3984,14 +3984,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59410-2022</t>
+          <t>A 24499-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44907</v>
+        <v>45798.39575231481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,13 +4003,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4046,14 +4041,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 65921-2021</t>
+          <t>A 24519-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44517</v>
+        <v>45798.41673611111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4066,7 +4061,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4103,14 +4098,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45918-2024</t>
+          <t>A 38735-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45580.4637037037</v>
+        <v>45887</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4123,7 +4118,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4160,14 +4155,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 50179-2023</t>
+          <t>A 38299-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45208</v>
+        <v>45161.64956018519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4180,7 +4175,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4217,14 +4212,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 50570-2023</t>
+          <t>A 18740-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45217</v>
+        <v>45763.71474537037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4237,7 +4232,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4274,14 +4269,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 62570-2023</t>
+          <t>A 38756-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45269</v>
+        <v>45887.39501157407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4294,7 +4289,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4331,14 +4326,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 39950-2024</t>
+          <t>A 54444-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45553</v>
+        <v>44473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4350,13 +4345,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4393,14 +4383,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4821-2023</t>
+          <t>A 40667-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44957.64600694444</v>
+        <v>45170.58804398148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4413,7 +4403,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4450,14 +4440,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10980-2024</t>
+          <t>A 9125-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45370.5349074074</v>
+        <v>44980.33065972223</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4469,8 +4459,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4507,14 +4502,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 43012-2024</t>
+          <t>A 39227-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45567.3878125</v>
+        <v>45889.22287037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4527,7 +4522,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4564,14 +4559,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60964-2023</t>
+          <t>A 39230-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45261</v>
+        <v>45889.26685185185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4584,7 +4579,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4621,14 +4616,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 54442-2021</t>
+          <t>A 27259-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44473.45114583334</v>
+        <v>45812.47438657407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4641,7 +4636,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4678,14 +4673,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 15276-2022</t>
+          <t>A 27232-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44659</v>
+        <v>45812.44145833333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4697,13 +4692,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>7.6</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4740,14 +4730,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6147-2025</t>
+          <t>A 39225-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45698.40091435185</v>
+        <v>45889.22056712963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4760,7 +4750,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4797,14 +4787,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 58658-2024</t>
+          <t>A 27251-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45635.60386574074</v>
+        <v>45812.47131944444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,13 +4806,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4859,14 +4844,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 54444-2021</t>
+          <t>A 27255-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44473</v>
+        <v>45812.47243055556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4879,7 +4864,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4916,14 +4901,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 1293-2023</t>
+          <t>A 27248-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44936.47675925926</v>
+        <v>45812.46631944444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4936,7 +4921,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4973,14 +4958,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 14210-2023</t>
+          <t>A 11924-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45009</v>
+        <v>45728.50487268518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,8 +4977,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5030,14 +5020,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 64934-2023</t>
+          <t>A 39226-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45282.79449074074</v>
+        <v>45889.2216550926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5050,7 +5040,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5087,14 +5077,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27255-2025</t>
+          <t>A 53518-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45812.47243055556</v>
+        <v>44879.59599537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5107,7 +5097,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5144,14 +5134,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59234-2022</t>
+          <t>A 28321-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44904</v>
+        <v>45818.64015046296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,13 +5153,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5206,14 +5191,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27259-2025</t>
+          <t>A 28663-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45812.47438657407</v>
+        <v>45819.6608912037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5226,7 +5211,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5263,14 +5248,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 27232-2025</t>
+          <t>A 28341-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45812.44145833333</v>
+        <v>45818.67709490741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5283,7 +5268,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5320,14 +5305,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27251-2025</t>
+          <t>A 28422-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45812.47131944444</v>
+        <v>45819.36372685185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5339,8 +5324,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5377,14 +5367,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27248-2025</t>
+          <t>A 28417-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45812.46631944444</v>
+        <v>45819.35731481481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5396,8 +5386,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5434,14 +5429,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 55730-2022</t>
+          <t>A 28419-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44888</v>
+        <v>45819.3609375</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5453,8 +5448,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5491,14 +5491,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28341-2025</t>
+          <t>A 15783-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45818.67709490741</v>
+        <v>44663.6975</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5548,14 +5548,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35404-2023</t>
+          <t>A 28695-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45146.60049768518</v>
+        <v>45819.9034837963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5605,14 +5605,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28321-2025</t>
+          <t>A 28697-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45818.64015046296</v>
+        <v>45819.92020833334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5662,14 +5662,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28422-2025</t>
+          <t>A 50179-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45819.36372685185</v>
+        <v>45208</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5681,13 +5681,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5724,14 +5719,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28663-2025</t>
+          <t>A 51475-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45819.6608912037</v>
+        <v>45221</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5744,7 +5739,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5781,14 +5776,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 28695-2025</t>
+          <t>A 29580-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45819.9034837963</v>
+        <v>45825.37965277778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5796,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5838,14 +5833,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 15491-2024</t>
+          <t>A 7337-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45401.51510416667</v>
+        <v>44971</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5857,13 +5852,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5900,14 +5890,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28697-2025</t>
+          <t>A 39965-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45819.92020833334</v>
+        <v>45892.57770833333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5957,14 +5947,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 28417-2025</t>
+          <t>A 30468-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45819.35731481481</v>
+        <v>45827.84690972222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5976,13 +5966,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6019,14 +6004,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28419-2025</t>
+          <t>A 23781-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45819.3609375</v>
+        <v>45793</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6038,13 +6023,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6081,14 +6061,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 68095-2021</t>
+          <t>A 31624-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44526.3550462963</v>
+        <v>45834</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6081,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6138,14 +6118,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 64930-2023</t>
+          <t>A 31623-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45282</v>
+        <v>45834.02827546297</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6158,7 +6138,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6195,14 +6175,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24866-2023</t>
+          <t>A 32581-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45085.39561342593</v>
+        <v>45838.59538194445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6215,7 +6195,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6252,14 +6232,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12980-2025</t>
+          <t>A 58412-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45734.46005787037</v>
+        <v>45250.71864583333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,13 +6251,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>12.4</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6314,14 +6289,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 29580-2025</t>
+          <t>A 63449-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45825.37965277778</v>
+        <v>45273</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6334,7 +6309,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6371,14 +6346,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 12412-2025</t>
+          <t>A 50581-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45730.43697916667</v>
+        <v>45601.61167824074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6391,7 +6366,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.6</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6428,14 +6403,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20288-2025</t>
+          <t>A 50339-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45774.71646990741</v>
+        <v>45216</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6448,7 +6423,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6485,14 +6460,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30468-2025</t>
+          <t>A 41105-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45827.84690972222</v>
+        <v>45898.45606481482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6505,7 +6480,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6542,14 +6517,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 49915-2024</t>
+          <t>A 3678-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45597.56597222222</v>
+        <v>45681.44512731482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6562,7 +6537,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6599,14 +6574,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 3087-2023</t>
+          <t>A 37806-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44946.43795138889</v>
+        <v>44810</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6619,7 +6594,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6656,14 +6631,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2715-2022</t>
+          <t>A 2418-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44580</v>
+        <v>45674.3837037037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6676,7 +6651,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6713,14 +6688,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 23781-2025</t>
+          <t>A 65921-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45793</v>
+        <v>44517</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6733,7 +6708,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6770,14 +6745,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58415-2021</t>
+          <t>A 37802-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44488.52820601852</v>
+        <v>44810</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6790,7 +6765,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6827,14 +6802,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 31623-2025</t>
+          <t>A 54442-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45834.02827546297</v>
+        <v>44473.45114583334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6847,7 +6822,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6884,14 +6859,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35447-2023</t>
+          <t>A 43026-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45146</v>
+        <v>45909.53418981482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6904,7 +6879,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6941,14 +6916,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 9030-2022</t>
+          <t>A 43032-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44615</v>
+        <v>45909.53945601852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6961,7 +6936,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6998,14 +6973,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 37631-2023</t>
+          <t>A 50181-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45159</v>
+        <v>45208</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7018,7 +6993,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7055,14 +7030,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 31624-2025</t>
+          <t>A 26696-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45834</v>
+        <v>44348</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7075,7 +7050,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.5</v>
+        <v>15.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7112,14 +7087,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51630-2021</t>
+          <t>A 37806-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44462.48349537037</v>
+        <v>45881</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7132,7 +7107,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7169,14 +7144,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 11270-2022</t>
+          <t>A 1293-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44629.74461805556</v>
+        <v>44936.47675925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7189,7 +7164,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7226,14 +7201,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 41337-2023</t>
+          <t>A 38199-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45174.69423611111</v>
+        <v>45882.67461805556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7246,7 +7221,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7283,14 +7258,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 2800-2025</t>
+          <t>A 44757-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45677.58048611111</v>
+        <v>45917.70016203704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7303,7 +7278,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7340,14 +7315,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 20290-2025</t>
+          <t>A 41337-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45774.7228125</v>
+        <v>45174.69423611111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7360,7 +7335,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7397,14 +7372,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32581-2025</t>
+          <t>A 10984-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45838.59538194445</v>
+        <v>45370.54677083333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7417,7 +7392,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7454,14 +7429,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8658-2022</t>
+          <t>A 44752-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44613.66163194444</v>
+        <v>45917.68621527778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7474,7 +7449,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7511,14 +7486,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 2418-2025</t>
+          <t>A 44753-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45674.3837037037</v>
+        <v>45917.69141203703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7531,7 +7506,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7568,14 +7543,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 2231-2025</t>
+          <t>A 44756-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45673.47716435185</v>
+        <v>45917.69450231481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7588,7 +7563,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7625,14 +7600,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60917-2022</t>
+          <t>A 10980-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44908</v>
+        <v>45370.5349074074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7645,7 +7620,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7682,14 +7657,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 13567-2025</t>
+          <t>A 46166-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45736</v>
+        <v>45924.63995370371</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7702,7 +7677,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7739,14 +7714,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 4314-2024</t>
+          <t>A 46164-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45324</v>
+        <v>45924.63813657407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,13 +7733,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7801,14 +7771,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 50581-2024</t>
+          <t>A 46175-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45601.61167824074</v>
+        <v>45924.64946759259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7821,7 +7791,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7858,14 +7828,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50339-2023</t>
+          <t>A 46159-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45216</v>
+        <v>45924.6366550926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7878,7 +7848,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7915,14 +7885,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 63449-2023</t>
+          <t>A 46156-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45273</v>
+        <v>45924.6319212963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7935,7 +7905,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7972,14 +7942,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3681-2025</t>
+          <t>A 11944-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45681.44800925926</v>
+        <v>45376.68662037037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7992,7 +7962,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8029,14 +7999,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 3678-2025</t>
+          <t>A 46467-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45681.44512731482</v>
+        <v>45925.67975694445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8049,7 +8019,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8086,14 +8056,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37806-2022</t>
+          <t>A 46144-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44810</v>
+        <v>45924.60741898148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8106,7 +8076,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8143,14 +8113,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 36401-2023</t>
+          <t>A 46521-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45152.54942129629</v>
+        <v>45926.32668981481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8164,11 +8134,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>6.3</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8205,14 +8175,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45164-2023</t>
+          <t>A 3681-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45191.49636574074</v>
+        <v>45681.44800925926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8225,7 +8195,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8262,14 +8232,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 37802-2022</t>
+          <t>A 59234-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44810</v>
+        <v>44904</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8281,8 +8251,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8319,14 +8294,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 26696-2021</t>
+          <t>A 17797-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44348</v>
+        <v>44300</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8339,7 +8314,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>15.5</v>
+        <v>4.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8376,14 +8351,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7337-2023</t>
+          <t>A 58658-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44971</v>
+        <v>45635.60386574074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8395,8 +8370,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8433,14 +8413,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 9176-2025</t>
+          <t>A 2715-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45714.41366898148</v>
+        <v>44580</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8453,7 +8433,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8490,14 +8470,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44468-2021</t>
+          <t>A 961-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44435</v>
+        <v>45301</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8509,13 +8489,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8552,14 +8527,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 38199-2025</t>
+          <t>A 1011-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45882.67461805556</v>
+        <v>45666.48438657408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8572,7 +8547,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8609,14 +8584,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 7561-2025</t>
+          <t>A 1013-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45705.58834490741</v>
+        <v>45666.48954861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8629,7 +8604,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8666,14 +8641,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37806-2025</t>
+          <t>A 34662-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45881</v>
+        <v>45526.49626157407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8686,7 +8661,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8723,14 +8698,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 41819-2023</t>
+          <t>A 62570-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45176.56298611111</v>
+        <v>45269</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8743,7 +8718,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8780,14 +8755,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60977-2023</t>
+          <t>A 50883-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45261.4765625</v>
+        <v>45602.65869212963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8800,7 +8775,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8837,14 +8812,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 11478-2024</t>
+          <t>A 50896-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45372</v>
+        <v>45602.68004629629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8857,7 +8832,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8894,14 +8869,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 11923-2025</t>
+          <t>A 6147-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45728.50200231482</v>
+        <v>45698.40091435185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8913,13 +8888,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>30.5</v>
+        <v>1.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8956,14 +8926,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 13870-2025</t>
+          <t>A 3087-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45737.58509259259</v>
+        <v>44946.43795138889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8976,7 +8946,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9013,14 +8983,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 13563-2025</t>
+          <t>A 7561-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45736</v>
+        <v>45705.58834490741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9033,7 +9003,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9070,14 +9040,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 34662-2024</t>
+          <t>A 51326-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45526.49626157407</v>
+        <v>45950.40321759259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9090,7 +9060,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9127,14 +9097,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 12168-2021</t>
+          <t>A 51325-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44266</v>
+        <v>45950.39878472222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9147,7 +9117,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9184,14 +9154,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 50181-2023</t>
+          <t>A 51335-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45208</v>
+        <v>45950.42493055556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9204,7 +9174,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9241,14 +9211,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 50883-2024</t>
+          <t>A 4314-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45602.65869212963</v>
+        <v>45324</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9260,8 +9230,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9298,14 +9273,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 50896-2024</t>
+          <t>A 12769-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45602.68004629629</v>
+        <v>45384.58284722222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9318,7 +9293,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9355,14 +9330,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 11924-2025</t>
+          <t>A 49915-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45728.50487268518</v>
+        <v>45597.56597222222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9374,13 +9349,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9417,14 +9387,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 53520-2022</t>
+          <t>A 9030-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44879</v>
+        <v>44615</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9437,7 +9407,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9474,14 +9444,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 52655-2023</t>
+          <t>A 12412-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45225</v>
+        <v>45730.43697916667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9494,7 +9464,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>6.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9531,14 +9501,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 22307-2024</t>
+          <t>A 12980-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45446.56908564815</v>
+        <v>45734.46005787037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,8 +9520,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>12.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9588,14 +9563,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 10984-2024</t>
+          <t>A 41819-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45370.54677083333</v>
+        <v>45176.56298611111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9608,7 +9583,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9645,14 +9620,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 3877-2023</t>
+          <t>A 58415-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44951.86751157408</v>
+        <v>44488.52820601852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9665,7 +9640,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9702,14 +9677,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 60969-2023</t>
+          <t>A 22307-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45261.47166666666</v>
+        <v>45446.56908564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9722,7 +9697,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9759,14 +9734,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 15467-2023</t>
+          <t>A 46240-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45020.43767361111</v>
+        <v>44442</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9779,7 +9754,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9816,14 +9791,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 61012-2023</t>
+          <t>A 44769-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45259</v>
+        <v>45917.74508101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9873,14 +9848,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 15783-2022</t>
+          <t>A 44770-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44663.6975</v>
+        <v>45917.74980324074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9893,7 +9868,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9930,14 +9905,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 34521-2024</t>
+          <t>A 34431-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45525.68068287037</v>
+        <v>44792.57164351852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9949,8 +9924,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9987,14 +9967,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 17797-2021</t>
+          <t>A 33532-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44300</v>
+        <v>45519.6759837963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10007,7 +9987,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10044,14 +10024,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1011-2025</t>
+          <t>A 55939-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45666.48438657408</v>
+        <v>45973.44811342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10101,14 +10081,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 1013-2025</t>
+          <t>A 9176-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45666.48954861111</v>
+        <v>45714.41366898148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10121,7 +10101,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10158,14 +10138,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 38756-2025</t>
+          <t>A 60969-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45887.39501157407</v>
+        <v>45261.47166666666</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10215,14 +10195,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 38735-2025</t>
+          <t>A 57181-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45887</v>
+        <v>45979.56186342592</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10235,7 +10215,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10272,14 +10252,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 38760-2025</t>
+          <t>A 57194-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45887.39769675926</v>
+        <v>45979.57789351852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10329,14 +10309,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 8024-2021</t>
+          <t>A 57125-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44243</v>
+        <v>45979.47040509259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10348,13 +10328,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10391,14 +10366,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 40667-2023</t>
+          <t>A 60964-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45170.58804398148</v>
+        <v>45261</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10386,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10448,14 +10423,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 45292-2024</t>
+          <t>A 57694-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45576.39782407408</v>
+        <v>45981.45193287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10468,7 +10443,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10505,14 +10480,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 39226-2025</t>
+          <t>A 58316-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45889.2216550926</v>
+        <v>45985.47137731482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10525,7 +10500,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10562,14 +10537,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 39230-2025</t>
+          <t>A 57942-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45889.26685185185</v>
+        <v>45982.31621527778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10582,7 +10557,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10619,14 +10594,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 39227-2025</t>
+          <t>A 58310-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45889.22287037037</v>
+        <v>45985.4681712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10639,7 +10614,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10676,14 +10651,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 39225-2025</t>
+          <t>A 58318-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45889.22056712963</v>
+        <v>45985.47318287037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10696,7 +10671,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10733,14 +10708,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 42042-2023</t>
+          <t>A 58320-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45177.52741898148</v>
+        <v>45985.47396990741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10753,7 +10728,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10790,14 +10765,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 39965-2025</t>
+          <t>A 58321-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45892.57770833333</v>
+        <v>45985.47479166667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10785,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10847,14 +10822,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 50886-2024</t>
+          <t>A 58756-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45602.66590277778</v>
+        <v>45986.65002314815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10867,7 +10842,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10904,14 +10879,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 50901-2024</t>
+          <t>A 45164-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45602.68665509259</v>
+        <v>45191.49636574074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10924,7 +10899,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10961,14 +10936,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 41105-2025</t>
+          <t>A 58761-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45898.45606481482</v>
+        <v>45986.65516203704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10981,7 +10956,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11018,14 +10993,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 33532-2024</t>
+          <t>A 59105-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45519.6759837963</v>
+        <v>45988</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11038,7 +11013,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11075,14 +11050,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 12769-2024</t>
+          <t>A 42042-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45384.58284722222</v>
+        <v>45177.52741898148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11095,7 +11070,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11132,14 +11107,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 50906-2024</t>
+          <t>A 64934-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45602.69741898148</v>
+        <v>45282.79449074074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11189,14 +11164,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 9125-2023</t>
+          <t>A 2073-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44980.33065972223</v>
+        <v>46036.3408449074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11208,13 +11183,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11251,14 +11221,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 40328-2024</t>
+          <t>A 37631-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45555.29670138889</v>
+        <v>45159</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11271,7 +11241,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11308,14 +11278,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 16304-2024</t>
+          <t>A 2231-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45407.42699074074</v>
+        <v>45673.47716435185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11328,7 +11298,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11365,14 +11335,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 51642-2021</t>
+          <t>A 59410-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44462</v>
+        <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11384,8 +11354,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11422,14 +11397,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 43032-2025</t>
+          <t>A 59411-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45909.53945601852</v>
+        <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11441,8 +11416,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11479,14 +11459,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 22328-2024</t>
+          <t>A 2800-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45446.58618055555</v>
+        <v>45677.58048611111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11499,7 +11479,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11536,14 +11516,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 43026-2025</t>
+          <t>A 34521-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45909.53418981482</v>
+        <v>45525.68068287037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11556,7 +11536,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11593,14 +11573,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 6480-2025</t>
+          <t>A 8658-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45699.61184027778</v>
+        <v>44613.66163194444</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11613,7 +11593,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11650,14 +11630,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 44752-2025</t>
+          <t>A 50570-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45917.68621527778</v>
+        <v>45217</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11670,7 +11650,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11707,14 +11687,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 44753-2025</t>
+          <t>A 45292-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45917.69141203703</v>
+        <v>45576.39782407408</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11727,7 +11707,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11764,14 +11744,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 44756-2025</t>
+          <t>A 62129-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45917.69450231481</v>
+        <v>46006.44893518519</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11784,7 +11764,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11821,14 +11801,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 44757-2025</t>
+          <t>A 4837-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45917.70016203704</v>
+        <v>46048.61173611111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11841,7 +11821,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11878,14 +11858,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 79-2024</t>
+          <t>A 4852-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45293</v>
+        <v>46048.63101851852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11898,7 +11878,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11935,14 +11915,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 961-2024</t>
+          <t>A 62447-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45301</v>
+        <v>46007.48613425926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11954,8 +11934,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11992,14 +11977,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 38300-2023</t>
+          <t>A 62123-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45161</v>
+        <v>46006.44307870371</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12012,7 +11997,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12049,14 +12034,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 46164-2025</t>
+          <t>A 62391-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45924.63813657407</v>
+        <v>46007.3897337963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12068,8 +12053,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12106,14 +12096,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 46175-2025</t>
+          <t>A 62852-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45924.64946759259</v>
+        <v>46008.70960648148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,8 +12115,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12163,14 +12158,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 46144-2025</t>
+          <t>A 60977-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45924.60741898148</v>
+        <v>45261.4765625</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12183,7 +12178,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12220,14 +12215,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 46156-2025</t>
+          <t>A 12253-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45924.6319212963</v>
+        <v>45378</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12240,7 +12235,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12277,14 +12272,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46159-2025</t>
+          <t>A 12254-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45924.6366550926</v>
+        <v>45378.43430555556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12297,7 +12292,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12334,14 +12329,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 46248-2024</t>
+          <t>A 44468-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45581.59293981481</v>
+        <v>44435</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12353,8 +12348,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12391,14 +12391,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 46166-2025</t>
+          <t>A 63445-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45924.63995370371</v>
+        <v>46013.39946759259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12448,14 +12448,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 46521-2025</t>
+          <t>A 52655-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45926.32668981481</v>
+        <v>45225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12467,13 +12467,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12510,14 +12505,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 46467-2025</t>
+          <t>A 24866-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45925.67975694445</v>
+        <v>45085.39561342593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12530,7 +12525,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12567,14 +12562,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21307-2025</t>
+          <t>A 39950-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45781.41212962963</v>
+        <v>45553</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12586,8 +12581,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12624,14 +12624,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 53521-2023</t>
+          <t>A 11270-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45230</v>
+        <v>44629.74461805556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12681,14 +12681,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61575-2023</t>
+          <t>A 68095-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45261</v>
+        <v>44526.3550462963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12738,14 +12738,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 49971-2023</t>
+          <t>A 26695-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45215.39953703704</v>
+        <v>44348</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12795,14 +12795,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 38278-2024</t>
+          <t>A 58800-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45545</v>
+        <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12852,14 +12852,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 12675-2024</t>
+          <t>A 4821-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45384.39924768519</v>
+        <v>44957.64600694444</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12909,14 +12909,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 37083-2024</t>
+          <t>A 11478-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45539.48737268519</v>
+        <v>45372</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12966,14 +12966,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 22401-2025</t>
+          <t>A 51630-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45786.53190972222</v>
+        <v>44462.48349537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13023,14 +13023,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 13560-2025</t>
+          <t>A 15491-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45736</v>
+        <v>45401.51510416667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13042,8 +13042,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13080,14 +13085,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 34664-2024</t>
+          <t>A 45918-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45526.49925925926</v>
+        <v>45580.4637037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13100,7 +13105,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13137,14 +13142,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 23114-2025</t>
+          <t>A 50906-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45791.36858796296</v>
+        <v>45602.69741898148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13157,7 +13162,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13194,14 +13199,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 2749-2024</t>
+          <t>A 6785-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45314.580625</v>
+        <v>45342</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13213,8 +13218,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13251,14 +13261,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 57284-2024</t>
+          <t>A 55730-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45629.58258101852</v>
+        <v>44888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13271,7 +13281,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13308,14 +13318,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 51335-2025</t>
+          <t>A 53520-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45950.42493055556</v>
+        <v>44879</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13328,7 +13338,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13365,14 +13375,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 51326-2025</t>
+          <t>A 35404-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45950.40321759259</v>
+        <v>45146.60049768518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13385,7 +13395,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13422,14 +13432,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 51325-2025</t>
+          <t>A 13563-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45950.39878472222</v>
+        <v>45736</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13442,7 +13452,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13479,14 +13489,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 24519-2025</t>
+          <t>A 13870-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45798.41673611111</v>
+        <v>45737.58509259259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13499,7 +13509,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13536,14 +13546,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 24499-2025</t>
+          <t>A 61012-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45798.39575231481</v>
+        <v>45259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13556,7 +13566,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13593,14 +13603,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 44770-2025</t>
+          <t>A 15467-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45917.74980324074</v>
+        <v>45020.43767361111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13613,7 +13623,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13650,14 +13660,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 44769-2025</t>
+          <t>A 20288-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45917.74508101852</v>
+        <v>45774.71646990741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13670,7 +13680,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13707,14 +13717,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 18740-2025</t>
+          <t>A 72558-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45763.71474537037</v>
+        <v>44546.43049768519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13727,7 +13737,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13764,14 +13774,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 55939-2025</t>
+          <t>A 6480-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45973.44811342593</v>
+        <v>45699.61184027778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13784,7 +13794,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13821,14 +13831,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 57125-2025</t>
+          <t>A 35447-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45979.47040509259</v>
+        <v>45146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13841,7 +13851,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13878,14 +13888,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 57181-2025</t>
+          <t>A 79-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45979.56186342592</v>
+        <v>45293</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13898,7 +13908,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13935,14 +13945,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 57194-2025</t>
+          <t>A 40328-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45979.57789351852</v>
+        <v>45555.29670138889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13955,7 +13965,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13992,14 +14002,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 57694-2025</t>
+          <t>A 66977-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45981.45193287037</v>
+        <v>44522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14012,7 +14022,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14049,14 +14059,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 57942-2025</t>
+          <t>A 49566-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45982.31621527778</v>
+        <v>44455</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14069,7 +14079,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14106,14 +14116,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 58320-2025</t>
+          <t>A 15276-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45985.47396990741</v>
+        <v>44659</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14125,8 +14135,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>1.9</v>
+        <v>7.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14163,14 +14178,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 58321-2025</t>
+          <t>A 51642-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45985.47479166667</v>
+        <v>44462</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14183,7 +14198,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14220,14 +14235,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58318-2025</t>
+          <t>A 17707-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45985.47318287037</v>
+        <v>45037.37438657408</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14240,7 +14255,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14277,14 +14292,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 58756-2025</t>
+          <t>A 46248-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45986.65002314815</v>
+        <v>45581.59293981481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14297,7 +14312,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14334,14 +14349,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 58316-2025</t>
+          <t>A 61575-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45985.47137731482</v>
+        <v>45261</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14354,7 +14369,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14391,14 +14406,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 58761-2025</t>
+          <t>A 21307-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45986.65516203704</v>
+        <v>45781.41212962963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14411,7 +14426,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14448,14 +14463,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 58310-2025</t>
+          <t>A 34664-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45985.4681712963</v>
+        <v>45526.49925925926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14468,7 +14483,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14505,14 +14520,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 59105-2025</t>
+          <t>A 53521-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45988</v>
+        <v>45230</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14525,7 +14540,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14562,14 +14577,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 2073-2026</t>
+          <t>A 22401-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46036.3408449074</v>
+        <v>45786.53190972222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14582,7 +14597,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14619,14 +14634,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 4852-2026</t>
+          <t>A 37083-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46048.63101851852</v>
+        <v>45539.48737268519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14639,7 +14654,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14676,14 +14691,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 4837-2026</t>
+          <t>A 12675-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46048.61173611111</v>
+        <v>45384.39924768519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14696,7 +14711,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14733,14 +14748,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 62129-2025</t>
+          <t>A 49971-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46006.44893518519</v>
+        <v>45215.39953703704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14753,7 +14768,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14790,14 +14805,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 62123-2025</t>
+          <t>A 13560-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46006.44307870371</v>
+        <v>45736</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14810,7 +14825,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14847,14 +14862,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 62447-2025</t>
+          <t>A 38278-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46007.48613425926</v>
+        <v>45545</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14866,13 +14881,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14909,14 +14919,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 62391-2025</t>
+          <t>A 23114-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46007.3897337963</v>
+        <v>45791.36858796296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14928,13 +14938,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>8.300000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14971,14 +14976,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 62852-2025</t>
+          <t>A 57284-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46008.70960648148</v>
+        <v>45629.58258101852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14990,13 +14995,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15033,14 +15033,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 63445-2025</t>
+          <t>A 2749-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>46013.39946759259</v>
+        <v>45314.580625</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z245"/>
+  <dimension ref="A1:Z243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 67603-2021</t>
+          <t>A 23130-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44524</v>
+        <v>45791.38667824074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -712,124 +712,124 @@
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Backsippa
+Axveronika
+Flentimotej</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 23130-2025 artfynd.xlsx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 23130-2025 karta.png", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 23130-2025 FSC-klagomål.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 23130-2025 FSC-klagomål mail.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 23130-2025 tillsynsbegäran.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 23130-2025 tillsynsbegäran mail.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 67603-2021</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44524</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Backsippa
 Plattad jordtunga
 Svart jordtunga</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 67603-2021 artfynd.xlsx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 67603-2021 karta.png", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 67603-2021 FSC-klagomål.docx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 67603-2021 FSC-klagomål mail.docx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 67603-2021 tillsynsbegäran.docx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 67603-2021 tillsynsbegäran mail.docx", "A 67603-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 23130-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45791.38667824074</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Backsippa
-Axveronika
-Flentimotej</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 23130-2025 artfynd.xlsx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 23130-2025 karta.png", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 23130-2025 FSC-klagomål.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 23130-2025 FSC-klagomål mail.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 23130-2025 tillsynsbegäran.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 23130-2025 tillsynsbegäran mail.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45705.59221064814</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,14 +1095,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 28988-2025</t>
+          <t>A 41274-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45821.36956018519</v>
+        <v>45898.62613425926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,37 +1114,32 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1154,394 +1149,399 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 28988-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45821.36956018519</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 46123-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45924.58663194445</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 46522-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45926.32910879629</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 22327-2024</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45446.58446759259</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>1.8</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 41274-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45898.62613425926</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 46123-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45924.58663194445</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 46522-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45926.32910879629</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Tibast</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 60983-2023</t>
+          <t>A 54409-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45261</v>
+        <v>45965.45900462963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1588,119 +1588,119 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Nattviol</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 60983-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 54409-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45965.45900462963</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Nattviol</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>44866</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45468.65774305556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45673.4736574074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44319.48951388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2145,14 +2145,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 7649-2021</t>
+          <t>A 13488-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44242</v>
+        <v>44273</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,14 +2202,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 13488-2021</t>
+          <t>A 23959-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44273</v>
+        <v>44335.6689699074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2259,14 +2259,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 23959-2021</t>
+          <t>A 32773-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44335.6689699074</v>
+        <v>44375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2316,14 +2316,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 32773-2021</t>
+          <t>A 1552-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44375</v>
+        <v>44573</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2373,14 +2373,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 1552-2022</t>
+          <t>A 72290-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44573</v>
+        <v>44545</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2430,14 +2430,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 72290-2021</t>
+          <t>A 31010-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44545</v>
+        <v>44768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2487,14 +2487,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 31010-2022</t>
+          <t>A 56458-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44768</v>
+        <v>44480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2544,14 +2544,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 56458-2021</t>
+          <t>A 48431-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44480</v>
+        <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2601,14 +2601,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48431-2021</t>
+          <t>A 48438-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2658,14 +2658,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48438-2021</t>
+          <t>A 14679-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44449</v>
+        <v>44280.43516203704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2715,14 +2715,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14679-2021</t>
+          <t>A 19352-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44280.43516203704</v>
+        <v>44692.66456018519</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2772,14 +2772,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 19352-2022</t>
+          <t>A 26581-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44692.66456018519</v>
+        <v>44348</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2829,14 +2829,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 26581-2021</t>
+          <t>A 10950-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44348</v>
+        <v>44627</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>9.300000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2886,14 +2886,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 10950-2022</t>
+          <t>A 50901-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44627</v>
+        <v>45602.68665509259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2943,14 +2943,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50901-2024</t>
+          <t>A 3877-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45602.68665509259</v>
+        <v>44951.86751157408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3000,14 +3000,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3877-2023</t>
+          <t>A 14210-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44951.86751157408</v>
+        <v>45009</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3057,14 +3057,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14210-2023</t>
+          <t>A 36401-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45009</v>
+        <v>45152.54942129629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3076,8 +3076,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3114,14 +3119,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 36401-2023</t>
+          <t>A 50886-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45152.54942129629</v>
+        <v>45602.66590277778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3133,13 +3138,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 50886-2024</t>
+          <t>A 13567-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45602.66590277778</v>
+        <v>45736</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13567-2025</t>
+          <t>A 60917-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45736</v>
+        <v>44908</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 60917-2022</t>
+          <t>A 20290-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44908</v>
+        <v>45774.7228125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 20290-2025</t>
+          <t>A 16304-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45774.7228125</v>
+        <v>45407.42699074074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>45161</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>45567.3878125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,14 +3518,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 16304-2024</t>
+          <t>A 72563-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45407.42699074074</v>
+        <v>44546.44777777778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 72563-2021</t>
+          <t>A 38760-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44546.44777777778</v>
+        <v>45887.39769675926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 12168-2021</t>
+          <t>A 23114-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44266</v>
+        <v>45791.36858796296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11923-2025</t>
+          <t>A 12168-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45728.50200231482</v>
+        <v>44266</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3708,13 +3708,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>30.5</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3751,14 +3746,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8024-2021</t>
+          <t>A 57284-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44243</v>
+        <v>45629.58258101852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3770,13 +3765,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3813,14 +3803,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22328-2024</t>
+          <t>A 2749-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45446.58618055555</v>
+        <v>45314.580625</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3823,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3870,14 +3860,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38760-2025</t>
+          <t>A 38735-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45887.39769675926</v>
+        <v>45887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3880,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3927,14 +3917,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64930-2023</t>
+          <t>A 11923-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45282</v>
+        <v>45728.50200231482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,8 +3936,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>30.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3984,14 +3979,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24499-2025</t>
+          <t>A 38756-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45798.39575231481</v>
+        <v>45887.39501157407</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +3999,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4041,14 +4036,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 24519-2025</t>
+          <t>A 39227-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45798.41673611111</v>
+        <v>45889.22287037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4056,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4098,14 +4093,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38735-2025</t>
+          <t>A 39230-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45887</v>
+        <v>45889.26685185185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4113,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4155,14 +4150,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38299-2023</t>
+          <t>A 39225-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45161.64956018519</v>
+        <v>45889.22056712963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4212,14 +4207,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18740-2025</t>
+          <t>A 39226-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45763.71474537037</v>
+        <v>45889.2216550926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4227,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4269,14 +4264,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38756-2025</t>
+          <t>A 22328-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45887.39501157407</v>
+        <v>45446.58618055555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4284,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4326,14 +4321,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 54444-2021</t>
+          <t>A 24499-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44473</v>
+        <v>45798.39575231481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4341,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4383,14 +4378,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40667-2023</t>
+          <t>A 24519-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45170.58804398148</v>
+        <v>45798.41673611111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4398,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4440,14 +4435,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9125-2023</t>
+          <t>A 64930-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44980.33065972223</v>
+        <v>45282</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4459,13 +4454,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4502,14 +4492,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39227-2025</t>
+          <t>A 39965-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45889.22287037037</v>
+        <v>45892.57770833333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4522,7 +4512,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4559,14 +4549,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39230-2025</t>
+          <t>A 18740-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45889.26685185185</v>
+        <v>45763.71474537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4579,7 +4569,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4616,14 +4606,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 27259-2025</t>
+          <t>A 54444-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45812.47438657407</v>
+        <v>44473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4636,7 +4626,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4673,14 +4663,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 27232-2025</t>
+          <t>A 38299-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45812.44145833333</v>
+        <v>45161.64956018519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4693,7 +4683,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4730,14 +4720,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39225-2025</t>
+          <t>A 41105-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45889.22056712963</v>
+        <v>45898.45606481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4740,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4787,14 +4777,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 27251-2025</t>
+          <t>A 27259-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45812.47131944444</v>
+        <v>45812.47438657407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4797,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4844,14 +4834,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 27255-2025</t>
+          <t>A 27232-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45812.47243055556</v>
+        <v>45812.44145833333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4864,7 +4854,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4901,14 +4891,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 27248-2025</t>
+          <t>A 27251-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45812.46631944444</v>
+        <v>45812.47131944444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4921,7 +4911,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4958,14 +4948,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11924-2025</t>
+          <t>A 27255-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45728.50487268518</v>
+        <v>45812.47243055556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4977,13 +4967,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5020,14 +5005,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39226-2025</t>
+          <t>A 27248-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45889.2216550926</v>
+        <v>45812.46631944444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5040,7 +5025,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5077,14 +5062,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 53518-2022</t>
+          <t>A 62129-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44879.59599537037</v>
+        <v>46006.44893518519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5097,7 +5082,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5134,14 +5119,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28321-2025</t>
+          <t>A 40667-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45818.64015046296</v>
+        <v>45170.58804398148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5154,7 +5139,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5191,14 +5176,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28663-2025</t>
+          <t>A 4837-2026</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45819.6608912037</v>
+        <v>46048.61173611111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5211,7 +5196,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5248,14 +5233,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28341-2025</t>
+          <t>A 28321-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45818.67709490741</v>
+        <v>45818.64015046296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5268,7 +5253,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5305,14 +5290,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28422-2025</t>
+          <t>A 28663-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45819.36372685185</v>
+        <v>45819.6608912037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5324,13 +5309,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5367,14 +5347,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28417-2025</t>
+          <t>A 9125-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45819.35731481481</v>
+        <v>44980.33065972223</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5388,11 +5368,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5429,14 +5409,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28419-2025</t>
+          <t>A 28341-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45819.3609375</v>
+        <v>45818.67709490741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,13 +5428,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5491,14 +5466,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 15783-2022</t>
+          <t>A 28422-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44663.6975</v>
+        <v>45819.36372685185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5510,8 +5485,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5548,14 +5528,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28695-2025</t>
+          <t>A 28417-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45819.9034837963</v>
+        <v>45819.35731481481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5567,8 +5547,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5605,14 +5590,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28697-2025</t>
+          <t>A 28419-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45819.92020833334</v>
+        <v>45819.3609375</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5624,8 +5609,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5662,14 +5652,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 50179-2023</t>
+          <t>A 28695-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45208</v>
+        <v>45819.9034837963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5682,7 +5672,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5719,14 +5709,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 51475-2023</t>
+          <t>A 28697-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45221</v>
+        <v>45819.92020833334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5729,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5776,14 +5766,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29580-2025</t>
+          <t>A 11924-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45825.37965277778</v>
+        <v>45728.50487268518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5795,8 +5785,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5833,14 +5828,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7337-2023</t>
+          <t>A 43026-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44971</v>
+        <v>45909.53418981482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5853,7 +5848,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5890,14 +5885,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39965-2025</t>
+          <t>A 62447-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45892.57770833333</v>
+        <v>46007.48613425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5909,8 +5904,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5947,14 +5947,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 30468-2025</t>
+          <t>A 53518-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45827.84690972222</v>
+        <v>44879.59599537037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6004,14 +6004,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 23781-2025</t>
+          <t>A 43032-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45793</v>
+        <v>45909.53945601852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6061,14 +6061,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31624-2025</t>
+          <t>A 29580-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45834</v>
+        <v>45825.37965277778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6118,14 +6118,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31623-2025</t>
+          <t>A 62123-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45834.02827546297</v>
+        <v>46006.44307870371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6175,14 +6175,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32581-2025</t>
+          <t>A 62391-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45838.59538194445</v>
+        <v>46007.3897337963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,8 +6194,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6232,14 +6237,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58412-2023</t>
+          <t>A 15783-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45250.71864583333</v>
+        <v>44663.6975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6252,7 +6257,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6289,14 +6294,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 63449-2023</t>
+          <t>A 62852-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45273</v>
+        <v>46008.70960648148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,8 +6313,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6346,14 +6356,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 50581-2024</t>
+          <t>A 44757-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45601.61167824074</v>
+        <v>45917.70016203704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6366,7 +6376,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6403,14 +6413,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50339-2023</t>
+          <t>A 50179-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45216</v>
+        <v>45208</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6423,7 +6433,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6460,14 +6470,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41105-2025</t>
+          <t>A 51475-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45898.45606481482</v>
+        <v>45221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6480,7 +6490,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6517,14 +6527,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3678-2025</t>
+          <t>A 30468-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45681.44512731482</v>
+        <v>45827.84690972222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6537,7 +6547,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6574,14 +6584,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 37806-2022</t>
+          <t>A 44752-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44810</v>
+        <v>45917.68621527778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6594,7 +6604,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6631,14 +6641,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2418-2025</t>
+          <t>A 44753-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45674.3837037037</v>
+        <v>45917.69141203703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6651,7 +6661,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6688,14 +6698,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 65921-2021</t>
+          <t>A 44756-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44517</v>
+        <v>45917.69450231481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6745,14 +6755,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37802-2022</t>
+          <t>A 23781-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44810</v>
+        <v>45793</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6765,7 +6775,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6802,14 +6812,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 54442-2021</t>
+          <t>A 7337-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44473.45114583334</v>
+        <v>44971</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6822,7 +6832,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6859,14 +6869,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43026-2025</t>
+          <t>A 31624-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45909.53418981482</v>
+        <v>45834</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6879,7 +6889,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6916,14 +6926,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43032-2025</t>
+          <t>A 31623-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45909.53945601852</v>
+        <v>45834.02827546297</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6936,7 +6946,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6973,14 +6983,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50181-2023</t>
+          <t>A 32581-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45208</v>
+        <v>45838.59538194445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7030,14 +7040,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 26696-2021</t>
+          <t>A 46166-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44348</v>
+        <v>45924.63995370371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7060,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>15.5</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7087,14 +7097,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 37806-2025</t>
+          <t>A 46164-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45881</v>
+        <v>45924.63813657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7107,7 +7117,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7144,14 +7154,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 1293-2023</t>
+          <t>A 46175-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44936.47675925926</v>
+        <v>45924.64946759259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7164,7 +7174,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7201,14 +7211,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38199-2025</t>
+          <t>A 46159-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45882.67461805556</v>
+        <v>45924.6366550926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7231,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7258,14 +7268,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 44757-2025</t>
+          <t>A 46156-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45917.70016203704</v>
+        <v>45924.6319212963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7288,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7315,14 +7325,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41337-2023</t>
+          <t>A 46467-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45174.69423611111</v>
+        <v>45925.67975694445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7335,7 +7345,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7372,14 +7382,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10984-2024</t>
+          <t>A 46144-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45370.54677083333</v>
+        <v>45924.60741898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7392,7 +7402,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7429,14 +7439,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44752-2025</t>
+          <t>A 58412-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45917.68621527778</v>
+        <v>45250.71864583333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7449,7 +7459,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7486,14 +7496,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44753-2025</t>
+          <t>A 63449-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45917.69141203703</v>
+        <v>45273</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7506,7 +7516,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7543,14 +7553,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44756-2025</t>
+          <t>A 46521-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45917.69450231481</v>
+        <v>45926.32668981481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7562,8 +7572,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7600,14 +7615,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 10980-2024</t>
+          <t>A 50581-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45370.5349074074</v>
+        <v>45601.61167824074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7620,7 +7635,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7657,14 +7672,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46166-2025</t>
+          <t>A 50339-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45924.63995370371</v>
+        <v>45216</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7677,7 +7692,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7714,14 +7729,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46164-2025</t>
+          <t>A 37806-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45924.63813657407</v>
+        <v>44810</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7734,7 +7749,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7771,14 +7786,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46175-2025</t>
+          <t>A 3678-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45924.64946759259</v>
+        <v>45681.44512731482</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7806,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7828,14 +7843,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46159-2025</t>
+          <t>A 37802-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45924.6366550926</v>
+        <v>44810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7848,7 +7863,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7885,14 +7900,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46156-2025</t>
+          <t>A 2418-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45924.6319212963</v>
+        <v>45674.3837037037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7905,7 +7920,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7942,14 +7957,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 11944-2024</t>
+          <t>A 65921-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45376.68662037037</v>
+        <v>44517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7962,7 +7977,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7999,14 +8014,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46467-2025</t>
+          <t>A 63445-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45925.67975694445</v>
+        <v>46013.39946759259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8019,7 +8034,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8056,14 +8071,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46144-2025</t>
+          <t>A 54442-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45924.60741898148</v>
+        <v>44473.45114583334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8076,7 +8091,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8113,14 +8128,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46521-2025</t>
+          <t>A 51326-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45926.32668981481</v>
+        <v>45950.40321759259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8132,13 +8147,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8175,14 +8185,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 3681-2025</t>
+          <t>A 51325-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45681.44800925926</v>
+        <v>45950.39878472222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8195,7 +8205,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8232,14 +8242,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 59234-2022</t>
+          <t>A 37806-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44904</v>
+        <v>45881</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8251,13 +8261,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8294,14 +8299,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 17797-2021</t>
+          <t>A 51335-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44300</v>
+        <v>45950.42493055556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8314,7 +8319,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8351,14 +8356,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58658-2024</t>
+          <t>A 50181-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45635.60386574074</v>
+        <v>45208</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,13 +8375,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8413,14 +8413,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 2715-2022</t>
+          <t>A 38199-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44580</v>
+        <v>45882.67461805556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8470,14 +8470,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 961-2024</t>
+          <t>A 26696-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45301</v>
+        <v>44348</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>15.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8527,14 +8527,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 1011-2025</t>
+          <t>A 1293-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45666.48438657408</v>
+        <v>44936.47675925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8584,14 +8584,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 1013-2025</t>
+          <t>A 44769-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45666.48954861111</v>
+        <v>45917.74508101852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8641,14 +8641,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 34662-2024</t>
+          <t>A 44770-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45526.49626157407</v>
+        <v>45917.74980324074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8698,14 +8698,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 62570-2023</t>
+          <t>A 55939-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45269</v>
+        <v>45973.44811342593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8755,14 +8755,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 50883-2024</t>
+          <t>A 41337-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45602.65869212963</v>
+        <v>45174.69423611111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8812,14 +8812,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 50896-2024</t>
+          <t>A 10984-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45602.68004629629</v>
+        <v>45370.54677083333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8869,14 +8869,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6147-2025</t>
+          <t>A 10980-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45698.40091435185</v>
+        <v>45370.5349074074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8926,14 +8926,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 3087-2023</t>
+          <t>A 57181-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44946.43795138889</v>
+        <v>45979.56186342592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8983,14 +8983,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7561-2025</t>
+          <t>A 57194-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45705.58834490741</v>
+        <v>45979.57789351852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9040,14 +9040,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 51326-2025</t>
+          <t>A 57125-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45950.40321759259</v>
+        <v>45979.47040509259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9097,14 +9097,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51325-2025</t>
+          <t>A 57694-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45950.39878472222</v>
+        <v>45981.45193287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9154,14 +9154,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51335-2025</t>
+          <t>A 58316-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45950.42493055556</v>
+        <v>45985.47137731482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9211,14 +9211,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 4314-2024</t>
+          <t>A 57942-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45324</v>
+        <v>45982.31621527778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,13 +9230,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9273,14 +9268,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 12769-2024</t>
+          <t>A 11944-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45384.58284722222</v>
+        <v>45376.68662037037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9293,7 +9288,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9330,14 +9325,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 49915-2024</t>
+          <t>A 58310-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45597.56597222222</v>
+        <v>45985.4681712963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9350,7 +9345,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9387,14 +9382,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 9030-2022</t>
+          <t>A 58318-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44615</v>
+        <v>45985.47318287037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9407,7 +9402,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9444,14 +9439,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 12412-2025</t>
+          <t>A 58320-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45730.43697916667</v>
+        <v>45985.47396990741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9464,7 +9459,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9501,14 +9496,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 12980-2025</t>
+          <t>A 58321-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45734.46005787037</v>
+        <v>45985.47479166667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,13 +9515,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>12.4</v>
+        <v>3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9563,14 +9553,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 41819-2023</t>
+          <t>A 3681-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45176.56298611111</v>
+        <v>45681.44800925926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9620,14 +9610,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58415-2021</t>
+          <t>A 58756-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44488.52820601852</v>
+        <v>45986.65002314815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9630,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9677,14 +9667,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 22307-2024</t>
+          <t>A 4852-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45446.56908564815</v>
+        <v>46048.63101851852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9687,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9734,14 +9724,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 46240-2021</t>
+          <t>A 58761-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44442</v>
+        <v>45986.65516203704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9744,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9791,14 +9781,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 44769-2025</t>
+          <t>A 59105-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45917.74508101852</v>
+        <v>45988</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9801,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9848,14 +9838,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 44770-2025</t>
+          <t>A 59234-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45917.74980324074</v>
+        <v>44904</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,8 +9857,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9905,14 +9900,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 34431-2022</t>
+          <t>A 17797-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44792.57164351852</v>
+        <v>44300</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,13 +9919,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9967,14 +9957,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 33532-2024</t>
+          <t>A 58658-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45519.6759837963</v>
+        <v>45635.60386574074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9986,8 +9976,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10024,14 +10019,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 55939-2025</t>
+          <t>A 2715-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45973.44811342593</v>
+        <v>44580</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10039,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10081,14 +10076,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9176-2025</t>
+          <t>A 961-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45714.41366898148</v>
+        <v>45301</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10101,7 +10096,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10138,14 +10133,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 60969-2023</t>
+          <t>A 1011-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45261.47166666666</v>
+        <v>45666.48438657408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10158,7 +10153,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10195,14 +10190,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 57181-2025</t>
+          <t>A 1013-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45979.56186342592</v>
+        <v>45666.48954861111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10210,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10252,14 +10247,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 57194-2025</t>
+          <t>A 34662-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45979.57789351852</v>
+        <v>45526.49626157407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10267,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10309,14 +10304,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 57125-2025</t>
+          <t>A 62570-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45979.47040509259</v>
+        <v>45269</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10324,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10366,14 +10361,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 60964-2023</t>
+          <t>A 50883-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45261</v>
+        <v>45602.65869212963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10386,7 +10381,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10423,14 +10418,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 57694-2025</t>
+          <t>A 50896-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45981.45193287037</v>
+        <v>45602.68004629629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10443,7 +10438,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10480,14 +10475,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 58316-2025</t>
+          <t>A 6147-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45985.47137731482</v>
+        <v>45698.40091435185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10500,7 +10495,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10537,14 +10532,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 57942-2025</t>
+          <t>A 2073-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45982.31621527778</v>
+        <v>46036.3408449074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10557,7 +10552,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10594,14 +10589,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 58310-2025</t>
+          <t>A 3087-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45985.4681712963</v>
+        <v>44946.43795138889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10614,7 +10609,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10651,14 +10646,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58318-2025</t>
+          <t>A 7561-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45985.47318287037</v>
+        <v>45705.58834490741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10671,7 +10666,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10708,14 +10703,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 58320-2025</t>
+          <t>A 4314-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45985.47396990741</v>
+        <v>45324</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10727,8 +10722,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10765,14 +10765,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 58321-2025</t>
+          <t>A 12769-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45985.47479166667</v>
+        <v>45384.58284722222</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10822,14 +10822,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 58756-2025</t>
+          <t>A 49915-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45986.65002314815</v>
+        <v>45597.56597222222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10879,14 +10879,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45164-2023</t>
+          <t>A 9030-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45191.49636574074</v>
+        <v>44615</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10936,14 +10936,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 58761-2025</t>
+          <t>A 12412-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45986.65516203704</v>
+        <v>45730.43697916667</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10993,14 +10993,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 59105-2025</t>
+          <t>A 12980-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45988</v>
+        <v>45734.46005787037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11012,8 +11012,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>12.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11050,14 +11055,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 42042-2023</t>
+          <t>A 41819-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45177.52741898148</v>
+        <v>45176.56298611111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11070,7 +11075,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11107,14 +11112,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 64934-2023</t>
+          <t>A 58415-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45282.79449074074</v>
+        <v>44488.52820601852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11127,7 +11132,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11164,14 +11169,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 2073-2026</t>
+          <t>A 22307-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46036.3408449074</v>
+        <v>45446.56908564815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11184,7 +11189,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11221,14 +11226,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 37631-2023</t>
+          <t>A 46240-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45159</v>
+        <v>44442</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11241,7 +11246,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11278,14 +11283,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 2231-2025</t>
+          <t>A 34431-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45673.47716435185</v>
+        <v>44792.57164351852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11297,8 +11302,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11335,14 +11345,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59410-2022</t>
+          <t>A 33532-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44907</v>
+        <v>45519.6759837963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,13 +11364,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11397,14 +11402,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59411-2022</t>
+          <t>A 9176-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44907</v>
+        <v>45714.41366898148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,13 +11421,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11459,14 +11459,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 2800-2025</t>
+          <t>A 60969-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45677.58048611111</v>
+        <v>45261.47166666666</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11516,14 +11516,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 34521-2024</t>
+          <t>A 60964-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45525.68068287037</v>
+        <v>45261</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11573,14 +11573,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 8658-2022</t>
+          <t>A 45164-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44613.66163194444</v>
+        <v>45191.49636574074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11630,14 +11630,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 50570-2023</t>
+          <t>A 42042-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45217</v>
+        <v>45177.52741898148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11687,14 +11687,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 45292-2024</t>
+          <t>A 64934-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45576.39782407408</v>
+        <v>45282.79449074074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11744,14 +11744,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 62129-2025</t>
+          <t>A 37631-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46006.44893518519</v>
+        <v>45159</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11801,14 +11801,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4837-2026</t>
+          <t>A 2231-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46048.61173611111</v>
+        <v>45673.47716435185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11858,14 +11858,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 4852-2026</t>
+          <t>A 59410-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46048.63101851852</v>
+        <v>44907</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11877,8 +11877,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11915,14 +11920,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 62447-2025</t>
+          <t>A 59411-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46007.48613425926</v>
+        <v>44907</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11936,11 +11941,11 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11977,14 +11982,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 62123-2025</t>
+          <t>A 2800-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46006.44307870371</v>
+        <v>45677.58048611111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11997,7 +12002,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12034,14 +12039,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62391-2025</t>
+          <t>A 34521-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46007.3897337963</v>
+        <v>45525.68068287037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12053,13 +12058,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>8.300000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12096,14 +12096,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 62852-2025</t>
+          <t>A 8658-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46008.70960648148</v>
+        <v>44613.66163194444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12115,13 +12115,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12158,14 +12153,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 60977-2023</t>
+          <t>A 50570-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45261.4765625</v>
+        <v>45217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12178,7 +12173,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12215,14 +12210,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 12253-2024</t>
+          <t>A 45292-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45378</v>
+        <v>45576.39782407408</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12235,7 +12230,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12272,14 +12267,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 12254-2024</t>
+          <t>A 60977-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45378.43430555556</v>
+        <v>45261.4765625</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12292,7 +12287,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12329,14 +12324,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 44468-2021</t>
+          <t>A 12253-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44435</v>
+        <v>45378</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12348,13 +12343,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12391,14 +12381,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 63445-2025</t>
+          <t>A 12254-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46013.39946759259</v>
+        <v>45378.43430555556</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12411,7 +12401,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12448,14 +12438,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 52655-2023</t>
+          <t>A 44468-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45225</v>
+        <v>44435</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12467,8 +12457,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12505,14 +12500,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 24866-2023</t>
+          <t>A 52655-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45085.39561342593</v>
+        <v>45225</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12562,14 +12557,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 39950-2024</t>
+          <t>A 24866-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45553</v>
+        <v>45085.39561342593</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12581,13 +12576,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12624,14 +12614,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 11270-2022</t>
+          <t>A 39950-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44629.74461805556</v>
+        <v>45553</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12643,8 +12633,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12681,14 +12676,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 68095-2021</t>
+          <t>A 11270-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44526.3550462963</v>
+        <v>44629.74461805556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12701,7 +12696,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12738,14 +12733,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 26695-2021</t>
+          <t>A 68095-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44348</v>
+        <v>44526.3550462963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12758,7 +12753,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12795,14 +12790,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 58800-2022</t>
+          <t>A 26695-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44903</v>
+        <v>44348</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12815,7 +12810,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12852,14 +12847,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 4821-2023</t>
+          <t>A 58800-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44957.64600694444</v>
+        <v>44903</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12867,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12909,14 +12904,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 11478-2024</t>
+          <t>A 4821-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45372</v>
+        <v>44957.64600694444</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12966,14 +12961,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 51630-2021</t>
+          <t>A 11478-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44462.48349537037</v>
+        <v>45372</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12986,7 +12981,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13023,14 +13018,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 15491-2024</t>
+          <t>A 51630-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45401.51510416667</v>
+        <v>44462.48349537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13042,13 +13037,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13085,14 +13075,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 45918-2024</t>
+          <t>A 15491-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45580.4637037037</v>
+        <v>45401.51510416667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13104,8 +13094,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13142,14 +13137,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 50906-2024</t>
+          <t>A 45918-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45602.69741898148</v>
+        <v>45580.4637037037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13162,7 +13157,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13199,14 +13194,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 6785-2024</t>
+          <t>A 50906-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45342</v>
+        <v>45602.69741898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13218,13 +13213,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13261,14 +13251,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 55730-2022</t>
+          <t>A 6785-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44888</v>
+        <v>45342</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13280,8 +13270,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13318,14 +13313,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 53520-2022</t>
+          <t>A 55730-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44879</v>
+        <v>44888</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13338,7 +13333,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13375,14 +13370,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 35404-2023</t>
+          <t>A 53520-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45146.60049768518</v>
+        <v>44879</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13395,7 +13390,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13432,14 +13427,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 13563-2025</t>
+          <t>A 35404-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45736</v>
+        <v>45146.60049768518</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13452,7 +13447,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13489,14 +13484,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 13870-2025</t>
+          <t>A 13563-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45737.58509259259</v>
+        <v>45736</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13509,7 +13504,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13546,14 +13541,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61012-2023</t>
+          <t>A 13870-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45259</v>
+        <v>45737.58509259259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13566,7 +13561,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13603,14 +13598,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 15467-2023</t>
+          <t>A 61012-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45020.43767361111</v>
+        <v>45259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13623,7 +13618,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13660,14 +13655,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 20288-2025</t>
+          <t>A 15467-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45774.71646990741</v>
+        <v>45020.43767361111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13680,7 +13675,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13717,14 +13712,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 72558-2021</t>
+          <t>A 20288-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44546.43049768519</v>
+        <v>45774.71646990741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13737,7 +13732,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13774,14 +13769,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 6480-2025</t>
+          <t>A 72558-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45699.61184027778</v>
+        <v>44546.43049768519</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13794,7 +13789,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13831,14 +13826,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 35447-2023</t>
+          <t>A 6480-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45146</v>
+        <v>45699.61184027778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13851,7 +13846,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13888,14 +13883,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 79-2024</t>
+          <t>A 35447-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45293</v>
+        <v>45146</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13908,7 +13903,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13945,14 +13940,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 40328-2024</t>
+          <t>A 79-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45555.29670138889</v>
+        <v>45293</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13965,7 +13960,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14002,14 +13997,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 66977-2021</t>
+          <t>A 40328-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44522</v>
+        <v>45555.29670138889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14022,7 +14017,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14059,14 +14054,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 49566-2021</t>
+          <t>A 66977-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44455</v>
+        <v>44522</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14079,7 +14074,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14116,14 +14111,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 15276-2022</t>
+          <t>A 49566-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44659</v>
+        <v>44455</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14135,13 +14130,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14178,14 +14168,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 51642-2021</t>
+          <t>A 15276-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44462</v>
+        <v>44659</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14197,8 +14187,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>2.9</v>
+        <v>7.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14235,14 +14230,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 17707-2023</t>
+          <t>A 51642-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45037.37438657408</v>
+        <v>44462</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14255,7 +14250,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14292,14 +14287,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 46248-2024</t>
+          <t>A 17707-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45581.59293981481</v>
+        <v>45037.37438657408</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14312,7 +14307,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14349,14 +14344,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 61575-2023</t>
+          <t>A 46248-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45261</v>
+        <v>45581.59293981481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14369,7 +14364,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14406,14 +14401,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 21307-2025</t>
+          <t>A 61575-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45781.41212962963</v>
+        <v>45261</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14426,7 +14421,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14463,14 +14458,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 34664-2024</t>
+          <t>A 21307-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45526.49925925926</v>
+        <v>45781.41212962963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14483,7 +14478,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14520,14 +14515,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 53521-2023</t>
+          <t>A 34664-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45230</v>
+        <v>45526.49925925926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14540,7 +14535,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14577,14 +14572,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 22401-2025</t>
+          <t>A 53521-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45786.53190972222</v>
+        <v>45230</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14597,7 +14592,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14634,14 +14629,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 37083-2024</t>
+          <t>A 22401-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45539.48737268519</v>
+        <v>45786.53190972222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14654,7 +14649,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14691,14 +14686,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 12675-2024</t>
+          <t>A 37083-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45384.39924768519</v>
+        <v>45539.48737268519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14711,7 +14706,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14748,14 +14743,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 49971-2023</t>
+          <t>A 12675-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45215.39953703704</v>
+        <v>45384.39924768519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14768,7 +14763,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14805,14 +14800,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 13560-2025</t>
+          <t>A 49971-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45736</v>
+        <v>45215.39953703704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14825,7 +14820,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14862,85 +14857,85 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
+          <t>A 13560-2025</t>
+        </is>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>45736</v>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" s="2" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
           <t>A 38278-2024</t>
         </is>
       </c>
-      <c r="B242" s="1" t="n">
+      <c r="B243" s="1" t="n">
         <v>45545</v>
       </c>
-      <c r="C242" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G242" t="n">
+      <c r="C243" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
         <v>6</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>0</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0</v>
-      </c>
-      <c r="L242" t="n">
-        <v>0</v>
-      </c>
-      <c r="M242" t="n">
-        <v>0</v>
-      </c>
-      <c r="N242" t="n">
-        <v>0</v>
-      </c>
-      <c r="O242" t="n">
-        <v>0</v>
-      </c>
-      <c r="P242" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q242" t="n">
-        <v>0</v>
-      </c>
-      <c r="R242" s="2" t="inlineStr"/>
-    </row>
-    <row r="243" ht="15" customHeight="1">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>A 23114-2025</t>
-        </is>
-      </c>
-      <c r="B243" s="1" t="n">
-        <v>45791.36858796296</v>
-      </c>
-      <c r="C243" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G243" t="n">
-        <v>0.7</v>
-      </c>
       <c r="H243" t="n">
         <v>0</v>
       </c>
@@ -14972,120 +14967,6 @@
         <v>0</v>
       </c>
       <c r="R243" s="2" t="inlineStr"/>
-    </row>
-    <row r="244" ht="15" customHeight="1">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>A 57284-2024</t>
-        </is>
-      </c>
-      <c r="B244" s="1" t="n">
-        <v>45629.58258101852</v>
-      </c>
-      <c r="C244" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G244" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>0</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0</v>
-      </c>
-      <c r="L244" t="n">
-        <v>0</v>
-      </c>
-      <c r="M244" t="n">
-        <v>0</v>
-      </c>
-      <c r="N244" t="n">
-        <v>0</v>
-      </c>
-      <c r="O244" t="n">
-        <v>0</v>
-      </c>
-      <c r="P244" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q244" t="n">
-        <v>0</v>
-      </c>
-      <c r="R244" s="2" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>A 2749-2024</t>
-        </is>
-      </c>
-      <c r="B245" s="1" t="n">
-        <v>45314.580625</v>
-      </c>
-      <c r="C245" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G245" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
-        <v>0</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0</v>
-      </c>
-      <c r="L245" t="n">
-        <v>0</v>
-      </c>
-      <c r="M245" t="n">
-        <v>0</v>
-      </c>
-      <c r="N245" t="n">
-        <v>0</v>
-      </c>
-      <c r="O245" t="n">
-        <v>0</v>
-      </c>
-      <c r="P245" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q245" t="n">
-        <v>0</v>
-      </c>
-      <c r="R245" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45791.38667824074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,14 +1010,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 7564-2025</t>
+          <t>A 2230-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45705.59221064814</v>
+        <v>45673.4736574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1064,965 +1064,997 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 7564-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45705.59221064814</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Solvända</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 7564-2025 artfynd.xlsx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 7564-2025 karta.png", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 7564-2025 FSC-klagomål.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 7564-2025 FSC-klagomål mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 7564-2025 tillsynsbegäran.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 7564-2025 tillsynsbegäran mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 11923-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45728.50200231482</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 11923-2025 artfynd.xlsx", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 11923-2025 karta.png", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 11923-2025 FSC-klagomål.docx", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 11923-2025 FSC-klagomål mail.docx", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 11923-2025 tillsynsbegäran.docx", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 11923-2025 tillsynsbegäran mail.docx", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/fåglar/A 11923-2025 prioriterade fågelarter.docx", "A 11923-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 41274-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45898.62613425926</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 28988-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45821.36956018519</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G11" t="n">
         <v>4.2</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 46123-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45924.58663194445</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>5.6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
         <v/>
       </c>
-      <c r="U10">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 46522-2025</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45926.32910879629</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G13" t="n">
         <v>1.2</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Tibast</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 22327-2024</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45446.58446759259</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>1.8</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 54409-2025</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45965.45900462963</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>0.9</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Nattviol</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 60983-2023</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45261</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>3.8</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 50403-2022</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44866</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G17" t="n">
         <v>2.4</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Springkorn</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 26261-2024</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45468.65774305556</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>6.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Åkerväddsantennmal</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 2230-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45673.4736574074</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 20935-2021</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44319.48951388889</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-    </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
@@ -2033,7 +2065,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2083,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 44652-2022</t>
+          <t>A 20935-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44840</v>
+        <v>44319.48951388889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2140,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2145,14 +2177,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 13488-2021</t>
+          <t>A 44652-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44273</v>
+        <v>44840</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2164,8 +2196,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,14 +2239,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 23959-2021</t>
+          <t>A 13488-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44335.6689699074</v>
+        <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2259,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2259,14 +2296,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 32773-2021</t>
+          <t>A 23959-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44375</v>
+        <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2316,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2316,14 +2353,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 1552-2022</t>
+          <t>A 32773-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44573</v>
+        <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2373,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2373,14 +2410,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 72290-2021</t>
+          <t>A 1552-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44545</v>
+        <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2430,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2430,14 +2467,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31010-2022</t>
+          <t>A 72290-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44768</v>
+        <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2487,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2487,14 +2524,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 56458-2021</t>
+          <t>A 31010-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44480</v>
+        <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2544,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2544,14 +2581,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48431-2021</t>
+          <t>A 56458-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44449</v>
+        <v>44480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2564,7 +2601,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2601,14 +2638,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48438-2021</t>
+          <t>A 48431-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2621,7 +2658,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2658,14 +2695,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 14679-2021</t>
+          <t>A 48438-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44280.43516203704</v>
+        <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2678,7 +2715,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>6.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2715,14 +2752,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19352-2022</t>
+          <t>A 14679-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44692.66456018519</v>
+        <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2735,7 +2772,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2772,14 +2809,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 26581-2021</t>
+          <t>A 19352-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44348</v>
+        <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2792,7 +2829,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>9.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2829,14 +2866,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 10950-2022</t>
+          <t>A 26581-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44627</v>
+        <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2849,7 +2886,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2893,7 +2930,7 @@
         <v>45602.68665509259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2943,14 +2980,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 3877-2023</t>
+          <t>A 10950-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44951.86751157408</v>
+        <v>44627</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2963,7 +3000,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3000,14 +3037,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 14210-2023</t>
+          <t>A 3877-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45009</v>
+        <v>44951.86751157408</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3020,7 +3057,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3064,7 +3101,7 @@
         <v>45152.54942129629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3119,14 +3156,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 50886-2024</t>
+          <t>A 14210-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45602.66590277778</v>
+        <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3176,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3176,14 +3213,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 13567-2025</t>
+          <t>A 50886-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45736</v>
+        <v>45602.66590277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3196,7 +3233,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3233,14 +3270,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 60917-2022</t>
+          <t>A 34664-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44908</v>
+        <v>45526.49925925926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3253,7 +3290,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3290,14 +3327,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20290-2025</t>
+          <t>A 53521-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45774.7228125</v>
+        <v>45230</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3310,7 +3347,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3347,14 +3384,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16304-2024</t>
+          <t>A 13567-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45407.42699074074</v>
+        <v>45736</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3367,7 +3404,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3404,14 +3441,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38300-2023</t>
+          <t>A 22401-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45161</v>
+        <v>45786.53190972222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3424,7 +3461,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3461,14 +3498,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43012-2024</t>
+          <t>A 37083-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45567.3878125</v>
+        <v>45539.48737268519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3481,7 +3518,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3518,14 +3555,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 72563-2021</t>
+          <t>A 60917-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44546.44777777778</v>
+        <v>44908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3538,7 +3575,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3575,14 +3612,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38760-2025</t>
+          <t>A 12675-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45887.39769675926</v>
+        <v>45384.39924768519</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3595,7 +3632,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3632,14 +3669,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23114-2025</t>
+          <t>A 38760-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45791.36858796296</v>
+        <v>45887.39769675926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3652,7 +3689,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3689,14 +3726,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12168-2021</t>
+          <t>A 49971-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44266</v>
+        <v>45215.39953703704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3709,7 +3746,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3746,14 +3783,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 57284-2024</t>
+          <t>A 55939-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45629.58258101852</v>
+        <v>45973.44811342593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3766,7 +3803,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3803,14 +3840,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2749-2024</t>
+          <t>A 13560-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45314.580625</v>
+        <v>45736</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3823,7 +3860,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3860,14 +3897,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38735-2025</t>
+          <t>A 38278-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45887</v>
+        <v>45545</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3880,7 +3917,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3917,14 +3954,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 11923-2025</t>
+          <t>A 38735-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45728.50200231482</v>
+        <v>45887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,13 +3973,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>30.5</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3979,14 +4011,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38756-2025</t>
+          <t>A 20290-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45887.39501157407</v>
+        <v>45774.7228125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3999,7 +4031,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4036,14 +4068,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 39227-2025</t>
+          <t>A 23114-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45889.22287037037</v>
+        <v>45791.36858796296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4056,7 +4088,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4093,14 +4125,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 39230-2025</t>
+          <t>A 57284-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45889.26685185185</v>
+        <v>45629.58258101852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4113,7 +4145,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4150,14 +4182,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39225-2025</t>
+          <t>A 2749-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45889.22056712963</v>
+        <v>45314.580625</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4170,7 +4202,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4207,14 +4239,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39226-2025</t>
+          <t>A 16304-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45889.2216550926</v>
+        <v>45407.42699074074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4227,7 +4259,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4264,14 +4296,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22328-2024</t>
+          <t>A 38756-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45446.58618055555</v>
+        <v>45887.39501157407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4284,7 +4316,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4321,14 +4353,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24499-2025</t>
+          <t>A 39227-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45798.39575231481</v>
+        <v>45889.22287037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4378,14 +4410,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24519-2025</t>
+          <t>A 39230-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45798.41673611111</v>
+        <v>45889.26685185185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4398,7 +4430,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4435,14 +4467,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 64930-2023</t>
+          <t>A 38300-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45282</v>
+        <v>45161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4455,7 +4487,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4492,14 +4524,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39965-2025</t>
+          <t>A 43012-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45892.57770833333</v>
+        <v>45567.3878125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4544,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4549,14 +4581,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18740-2025</t>
+          <t>A 39225-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45763.71474537037</v>
+        <v>45889.22056712963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4601,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4606,14 +4638,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 54444-2021</t>
+          <t>A 72563-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44473</v>
+        <v>44546.44777777778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4663,14 +4695,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38299-2023</t>
+          <t>A 39226-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45161.64956018519</v>
+        <v>45889.2216550926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4683,7 +4715,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4720,14 +4752,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 41105-2025</t>
+          <t>A 12168-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45898.45606481482</v>
+        <v>44266</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4740,7 +4772,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4777,14 +4809,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 27259-2025</t>
+          <t>A 39965-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45812.47438657407</v>
+        <v>45892.57770833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4797,7 +4829,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4834,14 +4866,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 27232-2025</t>
+          <t>A 57181-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45812.44145833333</v>
+        <v>45979.56186342592</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4854,7 +4886,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4891,14 +4923,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 27251-2025</t>
+          <t>A 24499-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45812.47131944444</v>
+        <v>45798.39575231481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4911,7 +4943,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4948,14 +4980,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27255-2025</t>
+          <t>A 57194-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45812.47243055556</v>
+        <v>45979.57789351852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4968,7 +5000,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5005,14 +5037,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27248-2025</t>
+          <t>A 57125-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45812.46631944444</v>
+        <v>45979.47040509259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5062,14 +5094,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62129-2025</t>
+          <t>A 24519-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46006.44893518519</v>
+        <v>45798.41673611111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5082,7 +5114,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5119,14 +5151,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 40667-2023</t>
+          <t>A 22328-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45170.58804398148</v>
+        <v>45446.58618055555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5139,7 +5171,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5176,14 +5208,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4837-2026</t>
+          <t>A 64930-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46048.61173611111</v>
+        <v>45282</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5196,7 +5228,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5233,14 +5265,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28321-2025</t>
+          <t>A 41105-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45818.64015046296</v>
+        <v>45898.45606481482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5253,7 +5285,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5290,14 +5322,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28663-2025</t>
+          <t>A 18740-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45819.6608912037</v>
+        <v>45763.71474537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5310,7 +5342,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5347,14 +5379,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 9125-2023</t>
+          <t>A 54444-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44980.33065972223</v>
+        <v>44473</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5366,13 +5398,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5409,14 +5436,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28341-2025</t>
+          <t>A 57694-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45818.67709490741</v>
+        <v>45981.45193287037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5456,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5466,14 +5493,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28422-2025</t>
+          <t>A 38299-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45819.36372685185</v>
+        <v>45161.64956018519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5485,13 +5512,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5528,14 +5550,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28417-2025</t>
+          <t>A 27259-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45819.35731481481</v>
+        <v>45812.47438657407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5547,13 +5569,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5590,14 +5607,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28419-2025</t>
+          <t>A 43026-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45819.3609375</v>
+        <v>45909.53418981482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5609,13 +5626,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5652,14 +5664,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28695-2025</t>
+          <t>A 27232-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45819.9034837963</v>
+        <v>45812.44145833333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5672,7 +5684,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5709,14 +5721,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28697-2025</t>
+          <t>A 43032-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45819.92020833334</v>
+        <v>45909.53945601852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5729,7 +5741,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5766,14 +5778,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 11924-2025</t>
+          <t>A 27251-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45728.50487268518</v>
+        <v>45812.47131944444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5785,13 +5797,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5828,14 +5835,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43026-2025</t>
+          <t>A 27255-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45909.53418981482</v>
+        <v>45812.47243055556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5848,7 +5855,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5885,14 +5892,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62447-2025</t>
+          <t>A 27248-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46007.48613425926</v>
+        <v>45812.46631944444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,13 +5911,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5947,14 +5949,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 53518-2022</t>
+          <t>A 58316-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44879.59599537037</v>
+        <v>45985.47137731482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5967,7 +5969,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6004,14 +6006,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43032-2025</t>
+          <t>A 57942-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45909.53945601852</v>
+        <v>45982.31621527778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6024,7 +6026,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6061,14 +6063,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29580-2025</t>
+          <t>A 28321-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45825.37965277778</v>
+        <v>45818.64015046296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6081,7 +6083,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6118,14 +6120,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62123-2025</t>
+          <t>A 28663-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46006.44307870371</v>
+        <v>45819.6608912037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6138,7 +6140,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6175,14 +6177,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62391-2025</t>
+          <t>A 28341-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46007.3897337963</v>
+        <v>45818.67709490741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,13 +6196,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>8.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6237,14 +6234,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 15783-2022</t>
+          <t>A 40667-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44663.6975</v>
+        <v>45170.58804398148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6257,7 +6254,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6294,14 +6291,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 62852-2025</t>
+          <t>A 44757-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46008.70960648148</v>
+        <v>45917.70016203704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6313,13 +6310,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6356,14 +6348,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44757-2025</t>
+          <t>A 28422-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45917.70016203704</v>
+        <v>45819.36372685185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6375,8 +6367,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6413,14 +6410,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50179-2023</t>
+          <t>A 28417-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45208</v>
+        <v>45819.35731481481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6432,8 +6429,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6470,14 +6472,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 51475-2023</t>
+          <t>A 28419-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45221</v>
+        <v>45819.3609375</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6489,8 +6491,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6527,14 +6534,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30468-2025</t>
+          <t>A 9125-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45827.84690972222</v>
+        <v>44980.33065972223</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6546,8 +6553,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6591,7 +6603,7 @@
         <v>45917.68621527778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6648,7 +6660,7 @@
         <v>45917.69141203703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6705,7 +6717,7 @@
         <v>45917.69450231481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,14 +6767,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 23781-2025</t>
+          <t>A 28695-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45793</v>
+        <v>45819.9034837963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6775,7 +6787,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6812,14 +6824,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 7337-2023</t>
+          <t>A 28697-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44971</v>
+        <v>45819.92020833334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6832,7 +6844,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6869,14 +6881,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 31624-2025</t>
+          <t>A 11924-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45834</v>
+        <v>45728.50487268518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6888,8 +6900,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6926,14 +6943,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 31623-2025</t>
+          <t>A 29580-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45834.02827546297</v>
+        <v>45825.37965277778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6946,7 +6963,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6983,14 +7000,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 32581-2025</t>
+          <t>A 53518-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45838.59538194445</v>
+        <v>44879.59599537037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7003,7 +7020,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7047,7 +7064,7 @@
         <v>45924.63995370371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7121,7 @@
         <v>45924.63813657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7178,7 @@
         <v>45924.64946759259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7235,7 @@
         <v>45924.6366550926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7268,14 +7285,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46156-2025</t>
+          <t>A 15783-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45924.6319212963</v>
+        <v>44663.6975</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7288,7 +7305,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7325,14 +7342,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46467-2025</t>
+          <t>A 46156-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45925.67975694445</v>
+        <v>45924.6319212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7345,7 +7362,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7382,14 +7399,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46144-2025</t>
+          <t>A 46467-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45924.60741898148</v>
+        <v>45925.67975694445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7402,7 +7419,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7439,14 +7456,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 58412-2023</t>
+          <t>A 46144-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45250.71864583333</v>
+        <v>45924.60741898148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7459,7 +7476,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7496,14 +7513,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 63449-2023</t>
+          <t>A 58310-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45273</v>
+        <v>45985.4681712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7516,7 +7533,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7553,14 +7570,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46521-2025</t>
+          <t>A 58318-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45926.32668981481</v>
+        <v>45985.47318287037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7572,13 +7589,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7615,14 +7627,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 50581-2024</t>
+          <t>A 50179-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45601.61167824074</v>
+        <v>45208</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7635,7 +7647,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7672,14 +7684,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 50339-2023</t>
+          <t>A 51475-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45216</v>
+        <v>45221</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7704,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7729,14 +7741,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 37806-2022</t>
+          <t>A 58320-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44810</v>
+        <v>45985.47396990741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7786,14 +7798,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3678-2025</t>
+          <t>A 58321-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45681.44512731482</v>
+        <v>45985.47479166667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7806,7 +7818,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7843,14 +7855,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 37802-2022</t>
+          <t>A 30468-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44810</v>
+        <v>45827.84690972222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7863,7 +7875,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7900,14 +7912,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 2418-2025</t>
+          <t>A 46521-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45674.3837037037</v>
+        <v>45926.32668981481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7919,8 +7931,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7957,14 +7974,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 65921-2021</t>
+          <t>A 23781-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44517</v>
+        <v>45793</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7994,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8014,14 +8031,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 63445-2025</t>
+          <t>A 7337-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46013.39946759259</v>
+        <v>44971</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8034,7 +8051,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8071,14 +8088,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 54442-2021</t>
+          <t>A 31624-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44473.45114583334</v>
+        <v>45834</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8091,7 +8108,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8128,14 +8145,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 51326-2025</t>
+          <t>A 31623-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45950.40321759259</v>
+        <v>45834.02827546297</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8148,7 +8165,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8185,14 +8202,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 51325-2025</t>
+          <t>A 32581-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45950.39878472222</v>
+        <v>45838.59538194445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8205,7 +8222,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8242,14 +8259,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 37806-2025</t>
+          <t>A 58756-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45881</v>
+        <v>45986.65002314815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8262,7 +8279,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8299,14 +8316,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 51335-2025</t>
+          <t>A 58412-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45950.42493055556</v>
+        <v>45250.71864583333</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8319,7 +8336,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8356,14 +8373,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 50181-2023</t>
+          <t>A 63449-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45208</v>
+        <v>45273</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8376,7 +8393,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8413,14 +8430,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 38199-2025</t>
+          <t>A 50581-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45882.67461805556</v>
+        <v>45601.61167824074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8433,7 +8450,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8470,14 +8487,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 26696-2021</t>
+          <t>A 50339-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44348</v>
+        <v>45216</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8490,7 +8507,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>15.5</v>
+        <v>2.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8527,14 +8544,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 1293-2023</t>
+          <t>A 3678-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44936.47675925926</v>
+        <v>45681.44512731482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8547,7 +8564,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8584,14 +8601,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44769-2025</t>
+          <t>A 58761-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45917.74508101852</v>
+        <v>45986.65516203704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8604,7 +8621,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8641,14 +8658,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44770-2025</t>
+          <t>A 37806-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45917.74980324074</v>
+        <v>44810</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8661,7 +8678,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8698,14 +8715,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55939-2025</t>
+          <t>A 51326-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45973.44811342593</v>
+        <v>45950.40321759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8718,7 +8735,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8755,14 +8772,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 41337-2023</t>
+          <t>A 51325-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45174.69423611111</v>
+        <v>45950.39878472222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8775,7 +8792,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8812,14 +8829,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 10984-2024</t>
+          <t>A 51335-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45370.54677083333</v>
+        <v>45950.42493055556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8832,7 +8849,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8869,14 +8886,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 10980-2024</t>
+          <t>A 2418-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45370.5349074074</v>
+        <v>45674.3837037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8889,7 +8906,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8926,14 +8943,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 57181-2025</t>
+          <t>A 65921-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45979.56186342592</v>
+        <v>44517</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8946,7 +8963,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8983,14 +9000,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 57194-2025</t>
+          <t>A 37802-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45979.57789351852</v>
+        <v>44810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9003,7 +9020,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9040,14 +9057,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 57125-2025</t>
+          <t>A 59105-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45979.47040509259</v>
+        <v>45988</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9097,14 +9114,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 57694-2025</t>
+          <t>A 54442-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45981.45193287037</v>
+        <v>44473.45114583334</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9117,7 +9134,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9154,14 +9171,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58316-2025</t>
+          <t>A 50181-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45985.47137731482</v>
+        <v>45208</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9174,7 +9191,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9211,14 +9228,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 57942-2025</t>
+          <t>A 44769-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45982.31621527778</v>
+        <v>45917.74508101852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9231,7 +9248,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9268,14 +9285,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11944-2024</t>
+          <t>A 44770-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45376.68662037037</v>
+        <v>45917.74980324074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9288,7 +9305,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9325,14 +9342,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58310-2025</t>
+          <t>A 37806-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45985.4681712963</v>
+        <v>45881</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9345,7 +9362,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9382,14 +9399,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58318-2025</t>
+          <t>A 26696-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45985.47318287037</v>
+        <v>44348</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9402,7 +9419,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>15.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9439,14 +9456,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58320-2025</t>
+          <t>A 1293-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45985.47396990741</v>
+        <v>44936.47675925926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9459,7 +9476,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9496,14 +9513,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58321-2025</t>
+          <t>A 38199-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45985.47479166667</v>
+        <v>45882.67461805556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9516,7 +9533,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9553,14 +9570,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 3681-2025</t>
+          <t>A 41337-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45681.44800925926</v>
+        <v>45174.69423611111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9573,7 +9590,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9610,14 +9627,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58756-2025</t>
+          <t>A 10984-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45986.65002314815</v>
+        <v>45370.54677083333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9630,7 +9647,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9667,14 +9684,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 4852-2026</t>
+          <t>A 10980-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46048.63101851852</v>
+        <v>45370.5349074074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9687,7 +9704,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.9</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9724,14 +9741,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 58761-2025</t>
+          <t>A 2073-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45986.65516203704</v>
+        <v>46036.3408449074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9744,7 +9761,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9781,14 +9798,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 59105-2025</t>
+          <t>A 11944-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45988</v>
+        <v>45376.68662037037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9801,7 +9818,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9838,14 +9855,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 59234-2022</t>
+          <t>A 3681-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44904</v>
+        <v>45681.44800925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9857,13 +9874,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9900,14 +9912,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 17797-2021</t>
+          <t>A 59234-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44300</v>
+        <v>44904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9919,8 +9931,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9957,14 +9974,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 58658-2024</t>
+          <t>A 17797-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45635.60386574074</v>
+        <v>44300</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9976,13 +9993,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10019,14 +10031,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 2715-2022</t>
+          <t>A 58658-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44580</v>
+        <v>45635.60386574074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,8 +10050,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10076,14 +10093,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 961-2024</t>
+          <t>A 2715-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45301</v>
+        <v>44580</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10096,7 +10113,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10133,14 +10150,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 1011-2025</t>
+          <t>A 961-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45666.48438657408</v>
+        <v>45301</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10170,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10190,14 +10207,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 1013-2025</t>
+          <t>A 1011-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45666.48954861111</v>
+        <v>45666.48438657408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10210,7 +10227,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10247,14 +10264,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 34662-2024</t>
+          <t>A 1013-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45526.49626157407</v>
+        <v>45666.48954861111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10267,7 +10284,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10304,14 +10321,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 62570-2023</t>
+          <t>A 34662-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45269</v>
+        <v>45526.49626157407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10324,7 +10341,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10361,14 +10378,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 50883-2024</t>
+          <t>A 62570-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45602.65869212963</v>
+        <v>45269</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10381,7 +10398,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10418,14 +10435,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50896-2024</t>
+          <t>A 62129-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45602.68004629629</v>
+        <v>46006.44893518519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10438,7 +10455,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10475,14 +10492,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 6147-2025</t>
+          <t>A 4837-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45698.40091435185</v>
+        <v>46048.61173611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10495,7 +10512,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10532,14 +10549,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 2073-2026</t>
+          <t>A 50883-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46036.3408449074</v>
+        <v>45602.65869212963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10552,7 +10569,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10589,14 +10606,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3087-2023</t>
+          <t>A 50896-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44946.43795138889</v>
+        <v>45602.68004629629</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10609,7 +10626,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10646,14 +10663,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 7561-2025</t>
+          <t>A 6147-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45705.58834490741</v>
+        <v>45698.40091435185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10666,7 +10683,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10703,14 +10720,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 4314-2024</t>
+          <t>A 62447-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45324</v>
+        <v>46007.48613425926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10724,11 +10741,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10765,14 +10782,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 12769-2024</t>
+          <t>A 62123-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45384.58284722222</v>
+        <v>46006.44307870371</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10785,7 +10802,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10822,14 +10839,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 49915-2024</t>
+          <t>A 62391-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45597.56597222222</v>
+        <v>46007.3897337963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10841,8 +10858,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>0.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10879,14 +10901,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 9030-2022</t>
+          <t>A 62852-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44615</v>
+        <v>46008.70960648148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10898,8 +10920,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10936,14 +10963,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 12412-2025</t>
+          <t>A 3087-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45730.43697916667</v>
+        <v>44946.43795138889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10956,7 +10983,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10993,14 +11020,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 12980-2025</t>
+          <t>A 7561-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45734.46005787037</v>
+        <v>45705.58834490741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11012,13 +11039,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>12.4</v>
+        <v>1.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11055,14 +11077,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 41819-2023</t>
+          <t>A 4314-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45176.56298611111</v>
+        <v>45324</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11074,8 +11096,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11112,14 +11139,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 58415-2021</t>
+          <t>A 63445-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44488.52820601852</v>
+        <v>46013.39946759259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11132,7 +11159,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11169,14 +11196,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 22307-2024</t>
+          <t>A 12769-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45446.56908564815</v>
+        <v>45384.58284722222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11189,7 +11216,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11226,14 +11253,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 46240-2021</t>
+          <t>A 49915-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44442</v>
+        <v>45597.56597222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11246,7 +11273,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11283,14 +11310,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 34431-2022</t>
+          <t>A 9030-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44792.57164351852</v>
+        <v>44615</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11302,13 +11329,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11345,14 +11367,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 33532-2024</t>
+          <t>A 12412-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45519.6759837963</v>
+        <v>45730.43697916667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11365,7 +11387,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11402,14 +11424,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 9176-2025</t>
+          <t>A 12980-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45714.41366898148</v>
+        <v>45734.46005787037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11421,8 +11443,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>12.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11459,14 +11486,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60969-2023</t>
+          <t>A 41819-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45261.47166666666</v>
+        <v>45176.56298611111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11479,7 +11506,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11516,14 +11543,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 60964-2023</t>
+          <t>A 58415-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45261</v>
+        <v>44488.52820601852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11536,7 +11563,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11573,14 +11600,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 45164-2023</t>
+          <t>A 22307-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45191.49636574074</v>
+        <v>45446.56908564815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11593,7 +11620,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11630,14 +11657,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 42042-2023</t>
+          <t>A 46240-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45177.52741898148</v>
+        <v>44442</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11650,7 +11677,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11687,14 +11714,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 64934-2023</t>
+          <t>A 34431-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45282.79449074074</v>
+        <v>44792.57164351852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11706,8 +11733,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11744,14 +11776,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 37631-2023</t>
+          <t>A 33532-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45159</v>
+        <v>45519.6759837963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11764,7 +11796,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11801,14 +11833,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2231-2025</t>
+          <t>A 4852-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45673.47716435185</v>
+        <v>46048.63101851852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11821,7 +11853,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11858,14 +11890,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 59410-2022</t>
+          <t>A 9176-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44907</v>
+        <v>45714.41366898148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11877,13 +11909,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11920,14 +11947,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 59411-2022</t>
+          <t>A 60969-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44907</v>
+        <v>45261.47166666666</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11939,13 +11966,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11982,14 +12004,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 2800-2025</t>
+          <t>A 60964-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45677.58048611111</v>
+        <v>45261</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12002,7 +12024,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12039,14 +12061,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 34521-2024</t>
+          <t>A 45164-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45525.68068287037</v>
+        <v>45191.49636574074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12059,7 +12081,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12096,14 +12118,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 8658-2022</t>
+          <t>A 42042-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44613.66163194444</v>
+        <v>45177.52741898148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12116,7 +12138,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12153,14 +12175,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 50570-2023</t>
+          <t>A 64934-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45217</v>
+        <v>45282.79449074074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12173,7 +12195,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12210,14 +12232,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 45292-2024</t>
+          <t>A 37631-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45576.39782407408</v>
+        <v>45159</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12230,7 +12252,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12267,14 +12289,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 60977-2023</t>
+          <t>A 2231-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45261.4765625</v>
+        <v>45673.47716435185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12287,7 +12309,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12324,14 +12346,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 12253-2024</t>
+          <t>A 59410-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45378</v>
+        <v>44907</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12343,8 +12365,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12381,14 +12408,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 12254-2024</t>
+          <t>A 59411-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45378.43430555556</v>
+        <v>44907</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12400,8 +12427,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12438,14 +12470,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 44468-2021</t>
+          <t>A 2800-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44435</v>
+        <v>45677.58048611111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12457,13 +12489,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12500,14 +12527,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 52655-2023</t>
+          <t>A 34521-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45225</v>
+        <v>45525.68068287037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12520,7 +12547,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12557,14 +12584,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 24866-2023</t>
+          <t>A 8658-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45085.39561342593</v>
+        <v>44613.66163194444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12577,7 +12604,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12614,14 +12641,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 39950-2024</t>
+          <t>A 50570-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45553</v>
+        <v>45217</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12633,13 +12660,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12676,14 +12698,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 11270-2022</t>
+          <t>A 45292-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44629.74461805556</v>
+        <v>45576.39782407408</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12696,7 +12718,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12733,14 +12755,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 68095-2021</t>
+          <t>A 60977-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44526.3550462963</v>
+        <v>45261.4765625</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12753,7 +12775,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12790,14 +12812,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 26695-2021</t>
+          <t>A 12253-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44348</v>
+        <v>45378</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12832,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12847,14 +12869,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 58800-2022</t>
+          <t>A 12254-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44903</v>
+        <v>45378.43430555556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12867,7 +12889,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12904,14 +12926,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 4821-2023</t>
+          <t>A 44468-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44957.64600694444</v>
+        <v>44435</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12923,8 +12945,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12961,14 +12988,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 11478-2024</t>
+          <t>A 52655-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45372</v>
+        <v>45225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12981,7 +13008,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13018,14 +13045,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 51630-2021</t>
+          <t>A 24866-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44462.48349537037</v>
+        <v>45085.39561342593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13038,7 +13065,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13075,14 +13102,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 15491-2024</t>
+          <t>A 39950-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45401.51510416667</v>
+        <v>45553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13096,11 +13123,11 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13137,14 +13164,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 45918-2024</t>
+          <t>A 11270-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45580.4637037037</v>
+        <v>44629.74461805556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13157,7 +13184,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13194,14 +13221,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 50906-2024</t>
+          <t>A 68095-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45602.69741898148</v>
+        <v>44526.3550462963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13214,7 +13241,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13251,14 +13278,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 6785-2024</t>
+          <t>A 26695-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45342</v>
+        <v>44348</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13270,13 +13297,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13313,14 +13335,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 55730-2022</t>
+          <t>A 58800-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44888</v>
+        <v>44903</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13333,7 +13355,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13370,14 +13392,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 53520-2022</t>
+          <t>A 4821-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44879</v>
+        <v>44957.64600694444</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13390,7 +13412,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13427,14 +13449,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 35404-2023</t>
+          <t>A 11478-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45146.60049768518</v>
+        <v>45372</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13447,7 +13469,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13484,14 +13506,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 13563-2025</t>
+          <t>A 51630-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45736</v>
+        <v>44462.48349537037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13504,7 +13526,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13541,14 +13563,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 13870-2025</t>
+          <t>A 15491-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45737.58509259259</v>
+        <v>45401.51510416667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13560,8 +13582,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13598,14 +13625,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 61012-2023</t>
+          <t>A 45918-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45259</v>
+        <v>45580.4637037037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13618,7 +13645,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13655,14 +13682,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 15467-2023</t>
+          <t>A 50906-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45020.43767361111</v>
+        <v>45602.69741898148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13675,7 +13702,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13712,14 +13739,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 20288-2025</t>
+          <t>A 6785-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45774.71646990741</v>
+        <v>45342</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13731,8 +13758,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13769,14 +13801,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 72558-2021</t>
+          <t>A 55730-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44546.43049768519</v>
+        <v>44888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13789,7 +13821,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13826,14 +13858,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 6480-2025</t>
+          <t>A 53520-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45699.61184027778</v>
+        <v>44879</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13846,7 +13878,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13883,14 +13915,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 35447-2023</t>
+          <t>A 35404-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45146</v>
+        <v>45146.60049768518</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13903,7 +13935,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13940,14 +13972,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 79-2024</t>
+          <t>A 13563-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45293</v>
+        <v>45736</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13960,7 +13992,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13997,14 +14029,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 40328-2024</t>
+          <t>A 13870-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45555.29670138889</v>
+        <v>45737.58509259259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14017,7 +14049,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14054,14 +14086,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 66977-2021</t>
+          <t>A 61012-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44522</v>
+        <v>45259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14074,7 +14106,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14111,14 +14143,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 49566-2021</t>
+          <t>A 15467-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44455</v>
+        <v>45020.43767361111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14131,7 +14163,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14168,14 +14200,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 15276-2022</t>
+          <t>A 20288-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44659</v>
+        <v>45774.71646990741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,13 +14219,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14230,14 +14257,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 51642-2021</t>
+          <t>A 72558-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44462</v>
+        <v>44546.43049768519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14250,7 +14277,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14287,14 +14314,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 17707-2023</t>
+          <t>A 6480-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45037.37438657408</v>
+        <v>45699.61184027778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14307,7 +14334,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14344,14 +14371,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 46248-2024</t>
+          <t>A 35447-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45581.59293981481</v>
+        <v>45146</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14401,14 +14428,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 61575-2023</t>
+          <t>A 79-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45261</v>
+        <v>45293</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14421,7 +14448,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14458,14 +14485,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 21307-2025</t>
+          <t>A 40328-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45781.41212962963</v>
+        <v>45555.29670138889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14478,7 +14505,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14515,14 +14542,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 34664-2024</t>
+          <t>A 66977-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45526.49925925926</v>
+        <v>44522</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14535,7 +14562,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14572,14 +14599,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 53521-2023</t>
+          <t>A 49566-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45230</v>
+        <v>44455</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14592,7 +14619,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14629,14 +14656,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 22401-2025</t>
+          <t>A 15276-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45786.53190972222</v>
+        <v>44659</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14648,8 +14675,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14686,14 +14718,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 37083-2024</t>
+          <t>A 51642-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45539.48737268519</v>
+        <v>44462</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14706,7 +14738,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14743,14 +14775,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 12675-2024</t>
+          <t>A 17707-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45384.39924768519</v>
+        <v>45037.37438657408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14763,7 +14795,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14800,14 +14832,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 49971-2023</t>
+          <t>A 46248-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45215.39953703704</v>
+        <v>45581.59293981481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14820,7 +14852,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14857,14 +14889,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 13560-2025</t>
+          <t>A 61575-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45736</v>
+        <v>45261</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14877,7 +14909,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14914,14 +14946,14 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 38278-2024</t>
+          <t>A 21307-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45545</v>
+        <v>45781.41212962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14934,7 +14966,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45791.38667824074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,14 +1010,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2230-2025</t>
+          <t>A 7564-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45673.4736574074</v>
+        <v>45705.59221064814</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,17 +1030,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1064,130 +1064,130 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Solvända</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 7564-2025 artfynd.xlsx", "A 7564-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 7564-2025 karta.png", "A 7564-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 7564-2025 FSC-klagomål.docx", "A 7564-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 7564-2025 FSC-klagomål mail.docx", "A 7564-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 7564-2025 tillsynsbegäran.docx", "A 7564-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 7564-2025 tillsynsbegäran mail.docx", "A 7564-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 2230-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45673.4736574074</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 7564-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45705.59221064814</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Solvända</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 7564-2025 artfynd.xlsx", "A 7564-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 7564-2025 karta.png", "A 7564-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 7564-2025 FSC-klagomål.docx", "A 7564-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 7564-2025 FSC-klagomål mail.docx", "A 7564-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 7564-2025 tillsynsbegäran.docx", "A 7564-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 7564-2025 tillsynsbegäran mail.docx", "A 7564-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 11923-2025</t>
+          <t>A 41274-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45728.50200231482</v>
+        <v>45898.62613425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1199,23 +1199,18 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>30.5</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1229,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1239,833 +1234,838 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 54409-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45965.45900462963</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Nattviol</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 46123-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45924.58663194445</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 46522-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45926.32910879629</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 28988-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45821.36956018519</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 11923-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45728.50200231482</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Tjäder</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 11923-2025 artfynd.xlsx", "A 11923-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 11923-2025 karta.png", "A 11923-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 11923-2025 FSC-klagomål.docx", "A 11923-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 11923-2025 FSC-klagomål mail.docx", "A 11923-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 11923-2025 tillsynsbegäran.docx", "A 11923-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 11923-2025 tillsynsbegäran mail.docx", "A 11923-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/fåglar/A 11923-2025 prioriterade fågelarter.docx", "A 11923-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 41274-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45898.62613425926</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 50403-2022</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44866</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Springkorn</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 22327-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45446.58446759259</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 28988-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45821.36956018519</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 46123-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45924.58663194445</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 46522-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45926.32910879629</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Tibast</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 22327-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45446.58446759259</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 54409-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45965.45900462963</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H15" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 26261-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45468.65774305556</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Nattviol</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Åkerväddsantennmal</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 60983-2023</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45261</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>3.8</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 50403-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Springkorn</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 26261-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45468.65774305556</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Åkerväddsantennmal</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 1554-2022</t>
+          <t>A 20935-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44573</v>
+        <v>44319.48951388889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2077,8 +2077,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2115,14 +2120,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20935-2021</t>
+          <t>A 1554-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44319.48951388889</v>
+        <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2134,13 +2139,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>44840</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,14 +2923,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 50901-2024</t>
+          <t>A 10950-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45602.68665509259</v>
+        <v>44627</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2980,14 +2980,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 10950-2022</t>
+          <t>A 34431-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44627</v>
+        <v>44792.57164351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2999,8 +2999,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3037,14 +3042,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3877-2023</t>
+          <t>A 51475-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44951.86751157408</v>
+        <v>45221</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3057,7 +3062,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3094,14 +3099,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 36401-2023</t>
+          <t>A 6480-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45152.54942129629</v>
+        <v>45699.61184027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3113,13 +3118,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3156,14 +3156,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14210-2023</t>
+          <t>A 12253-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45009</v>
+        <v>45378</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3213,14 +3213,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 50886-2024</t>
+          <t>A 12254-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45602.66590277778</v>
+        <v>45378.43430555556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3270,14 +3270,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 34664-2024</t>
+          <t>A 79-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45526.49925925926</v>
+        <v>45293</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3327,14 +3327,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 53521-2023</t>
+          <t>A 961-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45230</v>
+        <v>45301</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3384,14 +3384,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 13567-2025</t>
+          <t>A 38300-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45736</v>
+        <v>45161</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22401-2025</t>
+          <t>A 17707-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45786.53190972222</v>
+        <v>45037.37438657408</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 37083-2024</t>
+          <t>A 49566-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45539.48737268519</v>
+        <v>44455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3555,14 +3555,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60917-2022</t>
+          <t>A 53518-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44908</v>
+        <v>44879.59599537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3612,14 +3612,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12675-2024</t>
+          <t>A 46248-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45384.39924768519</v>
+        <v>45581.59293981481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3669,14 +3669,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38760-2025</t>
+          <t>A 21307-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45887.39769675926</v>
+        <v>45781.41212962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3726,14 +3726,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49971-2023</t>
+          <t>A 38756-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45215.39953703704</v>
+        <v>45887.39501157407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3783,14 +3783,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 55939-2025</t>
+          <t>A 38735-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45973.44811342593</v>
+        <v>45887</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3840,14 +3840,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 13560-2025</t>
+          <t>A 53521-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45736</v>
+        <v>45230</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3897,14 +3897,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38278-2024</t>
+          <t>A 38760-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45545</v>
+        <v>45887.39769675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3954,14 +3954,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38735-2025</t>
+          <t>A 61575-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45887</v>
+        <v>45261</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4011,14 +4011,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20290-2025</t>
+          <t>A 49971-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45774.7228125</v>
+        <v>45215.39953703704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4068,14 +4068,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 23114-2025</t>
+          <t>A 39226-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45791.36858796296</v>
+        <v>45889.2216550926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4125,14 +4125,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 57284-2024</t>
+          <t>A 38278-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45629.58258101852</v>
+        <v>45545</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4182,14 +4182,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2749-2024</t>
+          <t>A 39230-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45314.580625</v>
+        <v>45889.26685185185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4239,14 +4239,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 16304-2024</t>
+          <t>A 12675-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45407.42699074074</v>
+        <v>45384.39924768519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4296,14 +4296,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38756-2025</t>
+          <t>A 39227-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45887.39501157407</v>
+        <v>45889.22287037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4353,14 +4353,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 39227-2025</t>
+          <t>A 37083-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45889.22287037037</v>
+        <v>45539.48737268519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4410,14 +4410,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 39230-2025</t>
+          <t>A 39225-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45889.26685185185</v>
+        <v>45889.22056712963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4467,14 +4467,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38300-2023</t>
+          <t>A 22401-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45161</v>
+        <v>45786.53190972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 43012-2024</t>
+          <t>A 13560-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45567.3878125</v>
+        <v>45736</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39225-2025</t>
+          <t>A 34664-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45889.22056712963</v>
+        <v>45526.49925925926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 72563-2021</t>
+          <t>A 39965-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44546.44777777778</v>
+        <v>45892.57770833333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4695,14 +4695,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39226-2025</t>
+          <t>A 41105-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45889.2216550926</v>
+        <v>45898.45606481482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 12168-2021</t>
+          <t>A 23114-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44266</v>
+        <v>45791.36858796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39965-2025</t>
+          <t>A 54442-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45892.57770833333</v>
+        <v>44473.45114583334</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57181-2025</t>
+          <t>A 2749-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45979.56186342592</v>
+        <v>45314.580625</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4923,14 +4923,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 24499-2025</t>
+          <t>A 72563-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45798.39575231481</v>
+        <v>44546.44777777778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 57194-2025</t>
+          <t>A 57284-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45979.57789351852</v>
+        <v>45629.58258101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 57125-2025</t>
+          <t>A 46240-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45979.47040509259</v>
+        <v>44442</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 24519-2025</t>
+          <t>A 51335-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45798.41673611111</v>
+        <v>45950.42493055556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22328-2024</t>
+          <t>A 51326-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45446.58618055555</v>
+        <v>45950.40321759259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 64930-2023</t>
+          <t>A 51325-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45282</v>
+        <v>45950.39878472222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41105-2025</t>
+          <t>A 72558-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45898.45606481482</v>
+        <v>44546.43049768519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 18740-2025</t>
+          <t>A 24519-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45763.71474537037</v>
+        <v>45798.41673611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 54444-2021</t>
+          <t>A 43032-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44473</v>
+        <v>45909.53945601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57694-2025</t>
+          <t>A 24499-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45981.45193287037</v>
+        <v>45798.39575231481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 38299-2023</t>
+          <t>A 43026-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45161.64956018519</v>
+        <v>45909.53418981482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 27259-2025</t>
+          <t>A 44770-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45812.47438657407</v>
+        <v>45917.74980324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5607,14 +5607,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 43026-2025</t>
+          <t>A 44769-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45909.53418981482</v>
+        <v>45917.74508101852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 27232-2025</t>
+          <t>A 18740-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45812.44145833333</v>
+        <v>45763.71474537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 43032-2025</t>
+          <t>A 66977-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45909.53945601852</v>
+        <v>44522</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,14 +5778,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27251-2025</t>
+          <t>A 44752-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45812.47131944444</v>
+        <v>45917.68621527778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 27255-2025</t>
+          <t>A 44753-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45812.47243055556</v>
+        <v>45917.69141203703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27248-2025</t>
+          <t>A 44756-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45812.46631944444</v>
+        <v>45917.69450231481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 58316-2025</t>
+          <t>A 44757-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45985.47137731482</v>
+        <v>45917.70016203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6006,14 +6006,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57942-2025</t>
+          <t>A 54444-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45982.31621527778</v>
+        <v>44473</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28321-2025</t>
+          <t>A 46164-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45818.64015046296</v>
+        <v>45924.63813657407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28663-2025</t>
+          <t>A 46175-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45819.6608912037</v>
+        <v>45924.64946759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28341-2025</t>
+          <t>A 65921-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45818.67709490741</v>
+        <v>44517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40667-2023</t>
+          <t>A 46144-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45170.58804398148</v>
+        <v>45924.60741898148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44757-2025</t>
+          <t>A 46156-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45917.70016203704</v>
+        <v>45924.6319212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28422-2025</t>
+          <t>A 27255-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45819.36372685185</v>
+        <v>45812.47243055556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6367,13 +6367,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6410,14 +6405,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 28417-2025</t>
+          <t>A 46159-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45819.35731481481</v>
+        <v>45924.6366550926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6429,13 +6424,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6472,14 +6462,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28419-2025</t>
+          <t>A 27259-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45819.3609375</v>
+        <v>45812.47438657407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,13 +6481,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6534,14 +6519,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9125-2023</t>
+          <t>A 27232-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44980.33065972223</v>
+        <v>45812.44145833333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6553,13 +6538,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6596,14 +6576,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 44752-2025</t>
+          <t>A 46166-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45917.68621527778</v>
+        <v>45924.63995370371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6616,7 +6596,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6653,14 +6633,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44753-2025</t>
+          <t>A 27251-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45917.69141203703</v>
+        <v>45812.47131944444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6673,7 +6653,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6710,14 +6690,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44756-2025</t>
+          <t>A 27248-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45917.69450231481</v>
+        <v>45812.46631944444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6730,7 +6710,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6767,14 +6747,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28695-2025</t>
+          <t>A 46521-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45819.9034837963</v>
+        <v>45926.32668981481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6786,8 +6766,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6824,14 +6809,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28697-2025</t>
+          <t>A 46467-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45819.92020833334</v>
+        <v>45925.67975694445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6844,7 +6829,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6881,14 +6866,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11924-2025</t>
+          <t>A 50179-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45728.50487268518</v>
+        <v>45208</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6900,13 +6885,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6943,14 +6923,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 29580-2025</t>
+          <t>A 50570-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45825.37965277778</v>
+        <v>45217</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6963,7 +6943,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7000,14 +6980,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53518-2022</t>
+          <t>A 28341-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44879.59599537037</v>
+        <v>45818.67709490741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7020,7 +7000,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7057,14 +7037,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46166-2025</t>
+          <t>A 55939-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45924.63995370371</v>
+        <v>45973.44811342593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7077,7 +7057,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7114,14 +7094,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 46164-2025</t>
+          <t>A 28321-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45924.63813657407</v>
+        <v>45818.64015046296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7134,7 +7114,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7171,14 +7151,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46175-2025</t>
+          <t>A 39950-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45924.64946759259</v>
+        <v>45553</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7190,8 +7170,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7228,14 +7213,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46159-2025</t>
+          <t>A 28422-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45924.6366550926</v>
+        <v>45819.36372685185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7247,8 +7232,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7285,14 +7275,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15783-2022</t>
+          <t>A 28663-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44663.6975</v>
+        <v>45819.6608912037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7305,7 +7295,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7342,14 +7332,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46156-2025</t>
+          <t>A 28695-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45924.6319212963</v>
+        <v>45819.9034837963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7362,7 +7352,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7399,14 +7389,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46467-2025</t>
+          <t>A 28697-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45925.67975694445</v>
+        <v>45819.92020833334</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7419,7 +7409,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7456,14 +7446,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46144-2025</t>
+          <t>A 28417-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45924.60741898148</v>
+        <v>45819.35731481481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7475,8 +7465,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7513,14 +7508,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 58310-2025</t>
+          <t>A 28419-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45985.4681712963</v>
+        <v>45819.3609375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7532,8 +7527,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7570,14 +7570,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58318-2025</t>
+          <t>A 4821-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45985.47318287037</v>
+        <v>44957.64600694444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7627,14 +7627,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 50179-2023</t>
+          <t>A 10980-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45208</v>
+        <v>45370.5349074074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7684,14 +7684,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 51475-2023</t>
+          <t>A 43012-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45221</v>
+        <v>45567.3878125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7741,14 +7741,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 58320-2025</t>
+          <t>A 60964-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45985.47396990741</v>
+        <v>45261</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7798,14 +7798,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58321-2025</t>
+          <t>A 15276-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45985.47479166667</v>
+        <v>44659</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7817,8 +7817,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7855,14 +7860,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 30468-2025</t>
+          <t>A 29580-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45827.84690972222</v>
+        <v>45825.37965277778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7875,7 +7880,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7912,14 +7917,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46521-2025</t>
+          <t>A 30468-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45926.32668981481</v>
+        <v>45827.84690972222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7931,13 +7936,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7974,14 +7974,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 23781-2025</t>
+          <t>A 1293-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45793</v>
+        <v>44936.47675925926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8031,14 +8031,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7337-2023</t>
+          <t>A 23781-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44971</v>
+        <v>45793</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8088,14 +8088,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 31624-2025</t>
+          <t>A 57125-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45834</v>
+        <v>45979.47040509259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8145,14 +8145,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 31623-2025</t>
+          <t>A 57181-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45834.02827546297</v>
+        <v>45979.56186342592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8202,14 +8202,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 32581-2025</t>
+          <t>A 64934-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45838.59538194445</v>
+        <v>45282.79449074074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8259,14 +8259,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58756-2025</t>
+          <t>A 57194-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45986.65002314815</v>
+        <v>45979.57789351852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8316,14 +8316,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 58412-2023</t>
+          <t>A 31623-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45250.71864583333</v>
+        <v>45834.02827546297</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8373,14 +8373,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 63449-2023</t>
+          <t>A 57694-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45273</v>
+        <v>45981.45193287037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8430,14 +8430,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 50581-2024</t>
+          <t>A 59234-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45601.61167824074</v>
+        <v>44904</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8449,8 +8449,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8487,14 +8492,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 50339-2023</t>
+          <t>A 31624-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45216</v>
+        <v>45834</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8507,7 +8512,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8544,14 +8549,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 3678-2025</t>
+          <t>A 57942-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45681.44512731482</v>
+        <v>45982.31621527778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8564,7 +8569,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8601,14 +8606,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 58761-2025</t>
+          <t>A 32581-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45986.65516203704</v>
+        <v>45838.59538194445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8621,7 +8626,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8658,14 +8663,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37806-2022</t>
+          <t>A 58320-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44810</v>
+        <v>45985.47396990741</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8715,14 +8720,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 51326-2025</t>
+          <t>A 58321-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45950.40321759259</v>
+        <v>45985.47479166667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8735,7 +8740,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8772,14 +8777,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 51325-2025</t>
+          <t>A 58318-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45950.39878472222</v>
+        <v>45985.47318287037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8792,7 +8797,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8829,14 +8834,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 51335-2025</t>
+          <t>A 55730-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45950.42493055556</v>
+        <v>44888</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8849,7 +8854,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8886,14 +8891,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 2418-2025</t>
+          <t>A 58756-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45674.3837037037</v>
+        <v>45986.65002314815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8906,7 +8911,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8943,14 +8948,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 65921-2021</t>
+          <t>A 58316-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44517</v>
+        <v>45985.47137731482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8963,7 +8968,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9000,14 +9005,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 37802-2022</t>
+          <t>A 58761-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44810</v>
+        <v>45986.65516203704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9020,7 +9025,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9057,14 +9062,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 59105-2025</t>
+          <t>A 58310-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45988</v>
+        <v>45985.4681712963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9077,7 +9082,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9114,14 +9119,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54442-2021</t>
+          <t>A 15491-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44473.45114583334</v>
+        <v>45401.51510416667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9133,8 +9138,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9171,14 +9181,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 50181-2023</t>
+          <t>A 59105-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45208</v>
+        <v>45988</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9228,14 +9238,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 44769-2025</t>
+          <t>A 50581-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45917.74508101852</v>
+        <v>45601.61167824074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9248,7 +9258,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9285,14 +9295,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 44770-2025</t>
+          <t>A 50339-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45917.74980324074</v>
+        <v>45216</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9305,7 +9315,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9342,14 +9352,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 37806-2025</t>
+          <t>A 37806-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45881</v>
+        <v>44810</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9362,7 +9372,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9399,14 +9409,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 26696-2021</t>
+          <t>A 64930-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44348</v>
+        <v>45282</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9419,7 +9429,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>15.5</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9456,14 +9466,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 1293-2023</t>
+          <t>A 24866-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44936.47675925926</v>
+        <v>45085.39561342593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9476,7 +9486,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9513,14 +9523,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 38199-2025</t>
+          <t>A 12412-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45882.67461805556</v>
+        <v>45730.43697916667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9533,7 +9543,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9570,14 +9580,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 41337-2023</t>
+          <t>A 2073-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45174.69423611111</v>
+        <v>46036.3408449074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9590,7 +9600,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9627,14 +9637,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10984-2024</t>
+          <t>A 3087-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45370.54677083333</v>
+        <v>44946.43795138889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9647,7 +9657,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9684,14 +9694,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 10980-2024</t>
+          <t>A 37802-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45370.5349074074</v>
+        <v>44810</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9704,7 +9714,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9741,14 +9751,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2073-2026</t>
+          <t>A 58415-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46036.3408449074</v>
+        <v>44488.52820601852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9761,7 +9771,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9798,14 +9808,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 11944-2024</t>
+          <t>A 35447-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45376.68662037037</v>
+        <v>45146</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9818,7 +9828,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9855,14 +9865,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 3681-2025</t>
+          <t>A 51630-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45681.44800925926</v>
+        <v>44462.48349537037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9875,7 +9885,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9912,14 +9922,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 59234-2022</t>
+          <t>A 63449-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44904</v>
+        <v>45273</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9931,13 +9941,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9974,14 +9979,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 17797-2021</t>
+          <t>A 3678-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44300</v>
+        <v>45681.44512731482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9994,7 +9999,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10031,14 +10036,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58658-2024</t>
+          <t>A 38199-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45635.60386574074</v>
+        <v>45882.67461805556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10050,13 +10055,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10093,14 +10093,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2715-2022</t>
+          <t>A 37806-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44580</v>
+        <v>45881</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10150,14 +10150,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 961-2024</t>
+          <t>A 36401-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45301</v>
+        <v>45152.54942129629</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10169,8 +10169,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>6.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10207,14 +10212,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 1011-2025</t>
+          <t>A 26696-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45666.48438657408</v>
+        <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10227,7 +10232,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>15.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10264,14 +10269,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 1013-2025</t>
+          <t>A 7337-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45666.48954861111</v>
+        <v>44971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10284,7 +10289,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10321,14 +10326,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34662-2024</t>
+          <t>A 9176-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45526.49626157407</v>
+        <v>45714.41366898148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10341,7 +10346,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10378,14 +10383,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 62570-2023</t>
+          <t>A 4837-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45269</v>
+        <v>46048.61173611111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10398,7 +10403,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10442,7 +10447,7 @@
         <v>46006.44893518519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10492,14 +10497,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 4837-2026</t>
+          <t>A 62123-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46048.61173611111</v>
+        <v>46006.44307870371</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10517,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10549,14 +10554,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 50883-2024</t>
+          <t>A 44468-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45602.65869212963</v>
+        <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10568,8 +10573,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10606,14 +10616,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 50896-2024</t>
+          <t>A 7561-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45602.68004629629</v>
+        <v>45705.58834490741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10626,7 +10636,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10663,14 +10673,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 6147-2025</t>
+          <t>A 60977-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45698.40091435185</v>
+        <v>45261.4765625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10683,7 +10693,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10727,7 +10737,7 @@
         <v>46007.48613425926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10782,14 +10792,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62123-2025</t>
+          <t>A 62391-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46006.44307870371</v>
+        <v>46007.3897337963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10801,8 +10811,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10839,14 +10854,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62391-2025</t>
+          <t>A 62852-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46007.3897337963</v>
+        <v>46008.70960648148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10864,7 +10879,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>8.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10901,14 +10916,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 62852-2025</t>
+          <t>A 13870-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46008.70960648148</v>
+        <v>45737.58509259259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10920,13 +10935,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10963,14 +10973,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 3087-2023</t>
+          <t>A 60969-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44946.43795138889</v>
+        <v>45261.47166666666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10983,7 +10993,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11020,14 +11030,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 7561-2025</t>
+          <t>A 63445-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45705.58834490741</v>
+        <v>46013.39946759259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11077,14 +11087,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 4314-2024</t>
+          <t>A 38299-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45324</v>
+        <v>45161.64956018519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11096,13 +11106,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11139,14 +11144,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 63445-2025</t>
+          <t>A 58800-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46013.39946759259</v>
+        <v>44903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11159,7 +11164,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11196,14 +11201,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 12769-2024</t>
+          <t>A 6785-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45384.58284722222</v>
+        <v>45342</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11215,8 +11220,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11253,14 +11263,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 49915-2024</t>
+          <t>A 26695-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45597.56597222222</v>
+        <v>44348</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11273,7 +11283,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11310,14 +11320,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 9030-2022</t>
+          <t>A 11944-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44615</v>
+        <v>45376.68662037037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11330,7 +11340,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11367,14 +11377,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 12412-2025</t>
+          <t>A 59411-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45730.43697916667</v>
+        <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11386,8 +11396,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11424,14 +11439,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 12980-2025</t>
+          <t>A 58412-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45734.46005787037</v>
+        <v>45250.71864583333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11443,13 +11458,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>12.4</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11486,14 +11496,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 41819-2023</t>
+          <t>A 59410-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45176.56298611111</v>
+        <v>44907</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11505,8 +11515,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11543,14 +11558,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 58415-2021</t>
+          <t>A 45918-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44488.52820601852</v>
+        <v>45580.4637037037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11563,7 +11578,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11600,14 +11615,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 22307-2024</t>
+          <t>A 4852-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45446.56908564815</v>
+        <v>46048.63101851852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11620,7 +11635,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11657,14 +11672,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 46240-2021</t>
+          <t>A 62570-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44442</v>
+        <v>45269</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11677,7 +11692,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11714,14 +11729,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 34431-2022</t>
+          <t>A 6147-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44792.57164351852</v>
+        <v>45698.40091435185</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11733,13 +11748,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11776,14 +11786,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 33532-2024</t>
+          <t>A 58658-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45519.6759837963</v>
+        <v>45635.60386574074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11795,8 +11805,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11833,14 +11848,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4852-2026</t>
+          <t>A 14210-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46048.63101851852</v>
+        <v>45009</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11853,7 +11868,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.9</v>
+        <v>1.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11890,14 +11905,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 9176-2025</t>
+          <t>A 35404-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45714.41366898148</v>
+        <v>45146.60049768518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11910,7 +11925,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11947,14 +11962,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 60969-2023</t>
+          <t>A 68095-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45261.47166666666</v>
+        <v>44526.3550462963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11967,7 +11982,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12004,14 +12019,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 60964-2023</t>
+          <t>A 12980-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45261</v>
+        <v>45734.46005787037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12023,8 +12038,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>12.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12061,14 +12081,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 45164-2023</t>
+          <t>A 20288-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45191.49636574074</v>
+        <v>45774.71646990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12081,7 +12101,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12118,14 +12138,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 42042-2023</t>
+          <t>A 49915-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45177.52741898148</v>
+        <v>45597.56597222222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12138,7 +12158,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12175,14 +12195,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 64934-2023</t>
+          <t>A 9030-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45282.79449074074</v>
+        <v>44615</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12195,7 +12215,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12239,7 +12259,7 @@
         <v>45159</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,14 +12309,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 2231-2025</t>
+          <t>A 11270-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45673.47716435185</v>
+        <v>44629.74461805556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12309,7 +12329,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12346,14 +12366,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 59410-2022</t>
+          <t>A 41337-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44907</v>
+        <v>45174.69423611111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12365,13 +12385,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12408,14 +12423,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 59411-2022</t>
+          <t>A 2800-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44907</v>
+        <v>45677.58048611111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12427,13 +12442,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12470,14 +12480,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 2800-2025</t>
+          <t>A 8658-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45677.58048611111</v>
+        <v>44613.66163194444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12490,7 +12500,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12527,14 +12537,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 34521-2024</t>
+          <t>A 2418-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45525.68068287037</v>
+        <v>45674.3837037037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12547,7 +12557,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12584,14 +12594,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 8658-2022</t>
+          <t>A 2231-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44613.66163194444</v>
+        <v>45673.47716435185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12604,7 +12614,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12641,14 +12651,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 50570-2023</t>
+          <t>A 45164-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45217</v>
+        <v>45191.49636574074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12661,7 +12671,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12698,14 +12708,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 45292-2024</t>
+          <t>A 11478-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45576.39782407408</v>
+        <v>45372</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12718,7 +12728,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12755,14 +12765,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 60977-2023</t>
+          <t>A 13563-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45261.4765625</v>
+        <v>45736</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12775,7 +12785,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12812,14 +12822,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12253-2024</t>
+          <t>A 34662-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45378</v>
+        <v>45526.49626157407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12869,14 +12879,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 12254-2024</t>
+          <t>A 12168-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45378.43430555556</v>
+        <v>44266</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12889,7 +12899,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12926,14 +12936,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 44468-2021</t>
+          <t>A 50181-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44435</v>
+        <v>45208</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12945,13 +12955,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12988,14 +12993,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 52655-2023</t>
+          <t>A 11924-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45225</v>
+        <v>45728.50487268518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13007,8 +13012,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13045,14 +13055,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 24866-2023</t>
+          <t>A 53520-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45085.39561342593</v>
+        <v>44879</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13065,7 +13075,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13102,14 +13112,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 39950-2024</t>
+          <t>A 52655-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45553</v>
+        <v>45225</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13121,13 +13131,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13164,14 +13169,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 11270-2022</t>
+          <t>A 22307-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44629.74461805556</v>
+        <v>45446.56908564815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13184,7 +13189,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13221,14 +13226,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 68095-2021</t>
+          <t>A 3877-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44526.3550462963</v>
+        <v>44951.86751157408</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13241,7 +13246,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13278,14 +13283,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 26695-2021</t>
+          <t>A 61012-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44348</v>
+        <v>45259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13298,7 +13303,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13335,14 +13340,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 58800-2022</t>
+          <t>A 15783-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44903</v>
+        <v>44663.6975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13355,7 +13360,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13392,14 +13397,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 4821-2023</t>
+          <t>A 34521-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44957.64600694444</v>
+        <v>45525.68068287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13412,7 +13417,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13449,14 +13454,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 11478-2024</t>
+          <t>A 17797-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45372</v>
+        <v>44300</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13469,7 +13474,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13506,14 +13511,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 51630-2021</t>
+          <t>A 1011-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44462.48349537037</v>
+        <v>45666.48438657408</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13526,7 +13531,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13563,14 +13568,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 15491-2024</t>
+          <t>A 1013-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45401.51510416667</v>
+        <v>45666.48954861111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13582,13 +13587,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13625,14 +13625,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 45918-2024</t>
+          <t>A 45292-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45580.4637037037</v>
+        <v>45576.39782407408</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13682,14 +13682,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 50906-2024</t>
+          <t>A 2715-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45602.69741898148</v>
+        <v>44580</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13739,14 +13739,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 6785-2024</t>
+          <t>A 20290-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45342</v>
+        <v>45774.7228125</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13758,13 +13758,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13801,14 +13796,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 55730-2022</t>
+          <t>A 60917-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44888</v>
+        <v>44908</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13821,7 +13816,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13858,14 +13853,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 53520-2022</t>
+          <t>A 13567-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44879</v>
+        <v>45736</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13878,7 +13873,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13915,14 +13910,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 35404-2023</t>
+          <t>A 4314-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45146.60049768518</v>
+        <v>45324</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13934,8 +13929,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13972,14 +13972,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 13563-2025</t>
+          <t>A 3681-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45736</v>
+        <v>45681.44800925926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14029,14 +14029,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 13870-2025</t>
+          <t>A 41819-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45737.58509259259</v>
+        <v>45176.56298611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14086,14 +14086,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 61012-2023</t>
+          <t>A 50883-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45259</v>
+        <v>45602.65869212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14143,14 +14143,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 15467-2023</t>
+          <t>A 50896-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45020.43767361111</v>
+        <v>45602.68004629629</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14200,14 +14200,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 20288-2025</t>
+          <t>A 10984-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45774.71646990741</v>
+        <v>45370.54677083333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14257,14 +14257,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 72558-2021</t>
+          <t>A 15467-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44546.43049768519</v>
+        <v>45020.43767361111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14314,14 +14314,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 6480-2025</t>
+          <t>A 40667-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45699.61184027778</v>
+        <v>45170.58804398148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14371,14 +14371,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 35447-2023</t>
+          <t>A 42042-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45146</v>
+        <v>45177.52741898148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14428,14 +14428,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 79-2024</t>
+          <t>A 50886-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45293</v>
+        <v>45602.66590277778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14485,14 +14485,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 40328-2024</t>
+          <t>A 50901-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45555.29670138889</v>
+        <v>45602.68665509259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14542,14 +14542,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 66977-2021</t>
+          <t>A 33532-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44522</v>
+        <v>45519.6759837963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14599,14 +14599,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 49566-2021</t>
+          <t>A 12769-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44455</v>
+        <v>45384.58284722222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14656,14 +14656,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 15276-2022</t>
+          <t>A 50906-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44659</v>
+        <v>45602.69741898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14675,13 +14675,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14718,14 +14713,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 51642-2021</t>
+          <t>A 9125-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44462</v>
+        <v>44980.33065972223</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14735,6 +14730,11 @@
       <c r="E239" t="inlineStr">
         <is>
           <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G239" t="n">
@@ -14775,14 +14775,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 17707-2023</t>
+          <t>A 40328-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45037.37438657408</v>
+        <v>45555.29670138889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14832,14 +14832,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 46248-2024</t>
+          <t>A 16304-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45581.59293981481</v>
+        <v>45407.42699074074</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14889,14 +14889,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 61575-2023</t>
+          <t>A 51642-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45261</v>
+        <v>44462</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14946,14 +14946,14 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 21307-2025</t>
+          <t>A 22328-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45781.41212962963</v>
+        <v>45446.58618055555</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 23130-2025</t>
+          <t>A 67603-2021</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45791.38667824074</v>
+        <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -712,124 +712,124 @@
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Backsippa
+Plattad jordtunga
+Svart jordtunga</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 67603-2021 artfynd.xlsx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 67603-2021 karta.png", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 67603-2021 FSC-klagomål.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 67603-2021 FSC-klagomål mail.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 67603-2021 tillsynsbegäran.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 67603-2021 tillsynsbegäran mail.docx", "A 67603-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 23130-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45791.38667824074</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Backsippa
 Axveronika
 Flentimotej</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 23130-2025 artfynd.xlsx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 23130-2025 karta.png", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 23130-2025 FSC-klagomål.docx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 23130-2025 FSC-klagomål mail.docx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 23130-2025 tillsynsbegäran.docx", "A 23130-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 23130-2025 tillsynsbegäran mail.docx", "A 23130-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 67603-2021</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44524</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Backsippa
-Plattad jordtunga
-Svart jordtunga</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 67603-2021 artfynd.xlsx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 67603-2021 karta.png", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 67603-2021 FSC-klagomål.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 67603-2021 FSC-klagomål mail.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 67603-2021 tillsynsbegäran.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 67603-2021 tillsynsbegäran mail.docx", "A 67603-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,14 +1010,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 7564-2025</t>
+          <t>A 11923-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45705.59221064814</v>
+        <v>45728.50200231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,17 +1029,22 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>30.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1054,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1064,130 +1069,134 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 11923-2025 artfynd.xlsx", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 11923-2025 karta.png", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 11923-2025 FSC-klagomål.docx", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 11923-2025 FSC-klagomål mail.docx", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 11923-2025 tillsynsbegäran.docx", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 11923-2025 tillsynsbegäran mail.docx", "A 11923-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/fåglar/A 11923-2025 prioriterade fågelarter.docx", "A 11923-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 7564-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45705.59221064814</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Solvända</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 7564-2025 artfynd.xlsx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 7564-2025 karta.png", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 7564-2025 FSC-klagomål.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 7564-2025 FSC-klagomål mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 7564-2025 tillsynsbegäran.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 7564-2025 tillsynsbegäran mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 2230-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45673.4736574074</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 41274-2025</t>
+          <t>A 28988-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45898.62613425926</v>
+        <v>45821.36956018519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1199,17 +1208,22 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1224,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1234,657 +1248,643 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 41274-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45898.62613425926</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 41274-2025 artfynd.xlsx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 41274-2025 karta.png", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 41274-2025 FSC-klagomål.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 41274-2025 FSC-klagomål mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 41274-2025 tillsynsbegäran.docx", "A 41274-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 41274-2025 tillsynsbegäran mail.docx", "A 41274-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 22327-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45446.58446759259</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 46123-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45924.58663194445</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 46522-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45926.32910879629</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 60983-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 54409-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45965.45900462963</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>0.9</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Nattviol</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 54409-2025 artfynd.xlsx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 54409-2025 karta.png", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 54409-2025 FSC-klagomål.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 54409-2025 FSC-klagomål mail.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 54409-2025 tillsynsbegäran.docx", "A 54409-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 54409-2025 tillsynsbegäran mail.docx", "A 54409-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 46123-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45924.58663194445</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H11" t="n">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 50403-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44866</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 46522-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45926.32910879629</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Tibast</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 28988-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45821.36956018519</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 11923-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45728.50200231482</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Tjäder</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 11923-2025 artfynd.xlsx", "A 11923-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 11923-2025 karta.png", "A 11923-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 11923-2025 FSC-klagomål.docx", "A 11923-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 11923-2025 FSC-klagomål mail.docx", "A 11923-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 11923-2025 tillsynsbegäran.docx", "A 11923-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 11923-2025 tillsynsbegäran mail.docx", "A 11923-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/fåglar/A 11923-2025 prioriterade fågelarter.docx", "A 11923-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 50403-2022</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Springkorn</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 22327-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45446.58446759259</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>45468.65774305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,14 +1973,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 60983-2023</t>
+          <t>A 2230-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45261</v>
+        <v>45673.4736574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2027,31 +2027,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
         <v>44319.48951388889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44840</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44627</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2980,14 +2980,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 34431-2022</t>
+          <t>A 50901-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44792.57164351852</v>
+        <v>45602.68665509259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2999,13 +2999,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3042,14 +3037,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 51475-2023</t>
+          <t>A 14210-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45221</v>
+        <v>45009</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3062,7 +3057,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3099,14 +3094,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 6480-2025</t>
+          <t>A 36401-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45699.61184027778</v>
+        <v>45152.54942129629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,8 +3113,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3156,14 +3156,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12253-2024</t>
+          <t>A 50886-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45378</v>
+        <v>45602.66590277778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3213,14 +3213,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 12254-2024</t>
+          <t>A 3877-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45378.43430555556</v>
+        <v>44951.86751157408</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3270,14 +3270,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 79-2024</t>
+          <t>A 13567-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45293</v>
+        <v>45736</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3327,14 +3327,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 961-2024</t>
+          <t>A 60917-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45301</v>
+        <v>44908</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3384,14 +3384,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38300-2023</t>
+          <t>A 20290-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45161</v>
+        <v>45774.7228125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 17707-2023</t>
+          <t>A 38300-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45037.37438657408</v>
+        <v>45161</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49566-2021</t>
+          <t>A 43012-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44455</v>
+        <v>45567.3878125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3555,14 +3555,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 53518-2022</t>
+          <t>A 16304-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44879.59599537037</v>
+        <v>45407.42699074074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3612,14 +3612,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46248-2024</t>
+          <t>A 12168-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45581.59293981481</v>
+        <v>44266</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3669,14 +3669,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21307-2025</t>
+          <t>A 22328-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45781.41212962963</v>
+        <v>45446.58618055555</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3726,14 +3726,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38756-2025</t>
+          <t>A 64930-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45887.39501157407</v>
+        <v>45282</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3783,14 +3783,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38735-2025</t>
+          <t>A 72563-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45887</v>
+        <v>44546.44777777778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3840,14 +3840,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 53521-2023</t>
+          <t>A 38299-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45230</v>
+        <v>45161.64956018519</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3897,14 +3897,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38760-2025</t>
+          <t>A 40667-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45887.39769675926</v>
+        <v>45170.58804398148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3954,14 +3954,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61575-2023</t>
+          <t>A 9125-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45261</v>
+        <v>44980.33065972223</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3973,8 +3973,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4011,14 +4016,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 49971-2023</t>
+          <t>A 53518-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45215.39953703704</v>
+        <v>44879.59599537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4031,7 +4036,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4068,14 +4073,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 39226-2025</t>
+          <t>A 15783-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45889.2216550926</v>
+        <v>44663.6975</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4088,7 +4093,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4125,14 +4130,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38278-2024</t>
+          <t>A 38760-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45545</v>
+        <v>45887.39769675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4150,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4182,14 +4187,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39230-2025</t>
+          <t>A 11924-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45889.26685185185</v>
+        <v>45728.50487268518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4201,8 +4206,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4239,14 +4249,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 12675-2024</t>
+          <t>A 28321-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45384.39924768519</v>
+        <v>45818.64015046296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4269,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4296,14 +4306,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39227-2025</t>
+          <t>A 28663-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45889.22287037037</v>
+        <v>45819.6608912037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4326,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4353,14 +4363,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 37083-2024</t>
+          <t>A 28341-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45539.48737268519</v>
+        <v>45818.67709490741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4383,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4410,14 +4420,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 39225-2025</t>
+          <t>A 38735-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45889.22056712963</v>
+        <v>45887</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4440,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4467,14 +4477,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 22401-2025</t>
+          <t>A 28422-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45786.53190972222</v>
+        <v>45819.36372685185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4486,8 +4496,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4524,14 +4539,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13560-2025</t>
+          <t>A 50179-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45736</v>
+        <v>45208</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4559,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4581,14 +4596,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34664-2024</t>
+          <t>A 28417-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45526.49925925926</v>
+        <v>45819.35731481481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4598,6 +4613,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -4638,14 +4658,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39965-2025</t>
+          <t>A 28419-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45892.57770833333</v>
+        <v>45819.3609375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4657,8 +4677,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4695,14 +4720,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 41105-2025</t>
+          <t>A 51475-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45898.45606481482</v>
+        <v>45221</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4740,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4752,14 +4777,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23114-2025</t>
+          <t>A 28695-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45791.36858796296</v>
+        <v>45819.9034837963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4797,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4809,14 +4834,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 54442-2021</t>
+          <t>A 28697-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44473.45114583334</v>
+        <v>45819.92020833334</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4854,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4866,14 +4891,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2749-2024</t>
+          <t>A 7337-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45314.580625</v>
+        <v>44971</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4911,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4923,14 +4948,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 72563-2021</t>
+          <t>A 38756-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44546.44777777778</v>
+        <v>45887.39501157407</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4968,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4980,14 +5005,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 57284-2024</t>
+          <t>A 39227-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45629.58258101852</v>
+        <v>45889.22287037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5025,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5037,14 +5062,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46240-2021</t>
+          <t>A 39230-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44442</v>
+        <v>45889.26685185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5057,7 +5082,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5094,14 +5119,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 51335-2025</t>
+          <t>A 39225-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45950.42493055556</v>
+        <v>45889.22056712963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5114,7 +5139,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5151,14 +5176,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 51326-2025</t>
+          <t>A 29580-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45950.40321759259</v>
+        <v>45825.37965277778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5196,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5208,14 +5233,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51325-2025</t>
+          <t>A 39226-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45950.39878472222</v>
+        <v>45889.2216550926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5228,7 +5253,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5265,14 +5290,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 72558-2021</t>
+          <t>A 39965-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44546.43049768519</v>
+        <v>45892.57770833333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5285,7 +5310,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5322,14 +5347,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24519-2025</t>
+          <t>A 30468-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45798.41673611111</v>
+        <v>45827.84690972222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5367,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5379,14 +5404,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43032-2025</t>
+          <t>A 58412-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45909.53945601852</v>
+        <v>45250.71864583333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5424,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5436,14 +5461,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24499-2025</t>
+          <t>A 63449-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45798.39575231481</v>
+        <v>45273</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5481,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5493,14 +5518,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43026-2025</t>
+          <t>A 23781-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45909.53418981482</v>
+        <v>45793</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5538,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5550,14 +5575,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 44770-2025</t>
+          <t>A 31624-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45917.74980324074</v>
+        <v>45834</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5570,7 +5595,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5607,14 +5632,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 44769-2025</t>
+          <t>A 31623-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45917.74508101852</v>
+        <v>45834.02827546297</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5627,7 +5652,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5664,14 +5689,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 18740-2025</t>
+          <t>A 41105-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45763.71474537037</v>
+        <v>45898.45606481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5684,7 +5709,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5721,14 +5746,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 66977-2021</t>
+          <t>A 32581-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44522</v>
+        <v>45838.59538194445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5741,7 +5766,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5778,14 +5803,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 44752-2025</t>
+          <t>A 3678-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45917.68621527778</v>
+        <v>45681.44512731482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5798,7 +5823,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5835,14 +5860,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 44753-2025</t>
+          <t>A 43026-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45917.69141203703</v>
+        <v>45909.53418981482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5855,7 +5880,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5892,14 +5917,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44756-2025</t>
+          <t>A 43032-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45917.69450231481</v>
+        <v>45909.53945601852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5912,7 +5937,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5949,14 +5974,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 44757-2025</t>
+          <t>A 50581-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45917.70016203704</v>
+        <v>45601.61167824074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5969,7 +5994,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6006,14 +6031,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 54444-2021</t>
+          <t>A 50339-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44473</v>
+        <v>45216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6026,7 +6051,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6063,14 +6088,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46164-2025</t>
+          <t>A 2418-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45924.63813657407</v>
+        <v>45674.3837037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6083,7 +6108,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6120,14 +6145,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46175-2025</t>
+          <t>A 65921-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45924.64946759259</v>
+        <v>44517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6140,7 +6165,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6177,14 +6202,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 65921-2021</t>
+          <t>A 44757-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44517</v>
+        <v>45917.70016203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6197,7 +6222,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6234,14 +6259,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46144-2025</t>
+          <t>A 54442-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45924.60741898148</v>
+        <v>44473.45114583334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6254,7 +6279,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6291,14 +6316,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46156-2025</t>
+          <t>A 44752-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45924.6319212963</v>
+        <v>45917.68621527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6311,7 +6336,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6348,14 +6373,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27255-2025</t>
+          <t>A 44753-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45812.47243055556</v>
+        <v>45917.69141203703</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6368,7 +6393,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6405,14 +6430,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46159-2025</t>
+          <t>A 44756-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45924.6366550926</v>
+        <v>45917.69450231481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6425,7 +6450,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6462,14 +6487,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27259-2025</t>
+          <t>A 37806-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45812.47438657407</v>
+        <v>44810</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6482,7 +6507,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6519,14 +6544,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27232-2025</t>
+          <t>A 50181-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45812.44145833333</v>
+        <v>45208</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6539,7 +6564,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6583,7 +6608,7 @@
         <v>45924.63995370371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6633,14 +6658,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 27251-2025</t>
+          <t>A 46164-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45812.47131944444</v>
+        <v>45924.63813657407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6690,14 +6715,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 27248-2025</t>
+          <t>A 46175-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45812.46631944444</v>
+        <v>45924.64946759259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6710,7 +6735,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6747,14 +6772,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46521-2025</t>
+          <t>A 37802-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45926.32668981481</v>
+        <v>44810</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6766,13 +6791,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6809,14 +6829,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46467-2025</t>
+          <t>A 46159-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45925.67975694445</v>
+        <v>45924.6366550926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6829,7 +6849,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6866,14 +6886,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50179-2023</t>
+          <t>A 46156-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45208</v>
+        <v>45924.6319212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6886,7 +6906,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6923,14 +6943,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50570-2023</t>
+          <t>A 46467-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45217</v>
+        <v>45925.67975694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6943,7 +6963,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6980,14 +7000,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28341-2025</t>
+          <t>A 46144-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45818.67709490741</v>
+        <v>45924.60741898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7000,7 +7020,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7037,14 +7057,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 55939-2025</t>
+          <t>A 46521-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45973.44811342593</v>
+        <v>45926.32668981481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7056,8 +7076,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7094,14 +7119,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28321-2025</t>
+          <t>A 26696-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45818.64015046296</v>
+        <v>44348</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7114,7 +7139,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>15.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7151,14 +7176,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 39950-2024</t>
+          <t>A 1293-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45553</v>
+        <v>44936.47675925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7170,13 +7195,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7213,14 +7233,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28422-2025</t>
+          <t>A 37806-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45819.36372685185</v>
+        <v>45881</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7232,13 +7252,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7275,14 +7290,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28663-2025</t>
+          <t>A 41337-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45819.6608912037</v>
+        <v>45174.69423611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7295,7 +7310,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7332,14 +7347,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28695-2025</t>
+          <t>A 10984-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45819.9034837963</v>
+        <v>45370.54677083333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,14 +7404,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28697-2025</t>
+          <t>A 38199-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45819.92020833334</v>
+        <v>45882.67461805556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7409,7 +7424,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7446,14 +7461,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28417-2025</t>
+          <t>A 10980-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45819.35731481481</v>
+        <v>45370.5349074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7465,13 +7480,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7508,14 +7518,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28419-2025</t>
+          <t>A 11944-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45819.3609375</v>
+        <v>45376.68662037037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7527,13 +7537,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7570,14 +7575,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4821-2023</t>
+          <t>A 3681-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44957.64600694444</v>
+        <v>45681.44800925926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7590,7 +7595,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7627,14 +7632,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 10980-2024</t>
+          <t>A 51326-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45370.5349074074</v>
+        <v>45950.40321759259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7647,7 +7652,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7684,14 +7689,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 43012-2024</t>
+          <t>A 51325-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45567.3878125</v>
+        <v>45950.39878472222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7704,7 +7709,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7741,14 +7746,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 60964-2023</t>
+          <t>A 51335-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45261</v>
+        <v>45950.42493055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7761,7 +7766,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7798,14 +7803,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15276-2022</t>
+          <t>A 59234-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44659</v>
+        <v>44904</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7819,11 +7824,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.6</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7860,14 +7865,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 29580-2025</t>
+          <t>A 17797-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45825.37965277778</v>
+        <v>44300</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7880,7 +7885,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7917,14 +7922,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30468-2025</t>
+          <t>A 58658-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45827.84690972222</v>
+        <v>45635.60386574074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7936,8 +7941,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7974,14 +7984,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 1293-2023</t>
+          <t>A 2715-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44936.47675925926</v>
+        <v>44580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7994,7 +8004,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8031,14 +8041,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 23781-2025</t>
+          <t>A 961-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45793</v>
+        <v>45301</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8051,7 +8061,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8088,14 +8098,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 57125-2025</t>
+          <t>A 1011-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45979.47040509259</v>
+        <v>45666.48438657408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8108,7 +8118,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8145,14 +8155,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 57181-2025</t>
+          <t>A 1013-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45979.56186342592</v>
+        <v>45666.48954861111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,7 +8175,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8202,14 +8212,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 64934-2023</t>
+          <t>A 34662-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45282.79449074074</v>
+        <v>45526.49626157407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8222,7 +8232,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8259,14 +8269,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 57194-2025</t>
+          <t>A 62570-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45979.57789351852</v>
+        <v>45269</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,7 +8289,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8316,14 +8326,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 31623-2025</t>
+          <t>A 50883-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45834.02827546297</v>
+        <v>45602.65869212963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8336,7 +8346,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8373,14 +8383,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 57694-2025</t>
+          <t>A 50896-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45981.45193287037</v>
+        <v>45602.68004629629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8393,7 +8403,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8430,14 +8440,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 59234-2022</t>
+          <t>A 6147-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44904</v>
+        <v>45698.40091435185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8449,13 +8459,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8492,14 +8497,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 31624-2025</t>
+          <t>A 44769-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45834</v>
+        <v>45917.74508101852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8512,7 +8517,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8549,14 +8554,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 57942-2025</t>
+          <t>A 44770-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45982.31621527778</v>
+        <v>45917.74980324074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8569,7 +8574,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8606,14 +8611,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 32581-2025</t>
+          <t>A 3087-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45838.59538194445</v>
+        <v>44946.43795138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8626,7 +8631,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8663,14 +8668,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 58320-2025</t>
+          <t>A 55939-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45985.47396990741</v>
+        <v>45973.44811342593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8683,7 +8688,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8720,14 +8725,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 58321-2025</t>
+          <t>A 7561-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45985.47479166667</v>
+        <v>45705.58834490741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8740,7 +8745,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8777,14 +8782,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58318-2025</t>
+          <t>A 57181-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45985.47318287037</v>
+        <v>45979.56186342592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8797,7 +8802,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8834,14 +8839,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 55730-2022</t>
+          <t>A 4314-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44888</v>
+        <v>45324</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8853,8 +8858,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8891,14 +8901,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 58756-2025</t>
+          <t>A 57194-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45986.65002314815</v>
+        <v>45979.57789351852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8911,7 +8921,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8948,14 +8958,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 58316-2025</t>
+          <t>A 12769-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45985.47137731482</v>
+        <v>45384.58284722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8968,7 +8978,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9005,14 +9015,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58761-2025</t>
+          <t>A 57125-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45986.65516203704</v>
+        <v>45979.47040509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9025,7 +9035,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9062,14 +9072,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58310-2025</t>
+          <t>A 57694-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45985.4681712963</v>
+        <v>45981.45193287037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9082,7 +9092,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9119,14 +9129,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 15491-2024</t>
+          <t>A 49915-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45401.51510416667</v>
+        <v>45597.56597222222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9138,13 +9148,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9181,14 +9186,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 59105-2025</t>
+          <t>A 9030-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45988</v>
+        <v>44615</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9201,7 +9206,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9238,14 +9243,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 50581-2024</t>
+          <t>A 58316-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45601.61167824074</v>
+        <v>45985.47137731482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9258,7 +9263,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9295,14 +9300,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 50339-2023</t>
+          <t>A 57942-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45216</v>
+        <v>45982.31621527778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9315,7 +9320,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9352,14 +9357,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 37806-2022</t>
+          <t>A 12412-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44810</v>
+        <v>45730.43697916667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9372,7 +9377,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9409,14 +9414,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 64930-2023</t>
+          <t>A 58310-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45282</v>
+        <v>45985.4681712963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9429,7 +9434,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9466,14 +9471,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 24866-2023</t>
+          <t>A 58318-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45085.39561342593</v>
+        <v>45985.47318287037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9486,7 +9491,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9523,14 +9528,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 12412-2025</t>
+          <t>A 58320-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45730.43697916667</v>
+        <v>45985.47396990741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9543,7 +9548,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9580,14 +9585,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 2073-2026</t>
+          <t>A 58321-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46036.3408449074</v>
+        <v>45985.47479166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9600,7 +9605,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9637,14 +9642,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 3087-2023</t>
+          <t>A 12980-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44946.43795138889</v>
+        <v>45734.46005787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9656,8 +9661,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>12.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9694,14 +9704,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 37802-2022</t>
+          <t>A 41819-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44810</v>
+        <v>45176.56298611111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9714,7 +9724,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9751,14 +9761,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 58415-2021</t>
+          <t>A 58756-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44488.52820601852</v>
+        <v>45986.65002314815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9771,7 +9781,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9808,14 +9818,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 35447-2023</t>
+          <t>A 58415-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45146</v>
+        <v>44488.52820601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9828,7 +9838,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9865,14 +9875,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 51630-2021</t>
+          <t>A 58761-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44462.48349537037</v>
+        <v>45986.65516203704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9885,7 +9895,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9922,14 +9932,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 63449-2023</t>
+          <t>A 59105-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45273</v>
+        <v>45988</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9942,7 +9952,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9979,14 +9989,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3678-2025</t>
+          <t>A 22307-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45681.44512731482</v>
+        <v>45446.56908564815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9999,7 +10009,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10036,14 +10046,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 38199-2025</t>
+          <t>A 46240-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45882.67461805556</v>
+        <v>44442</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10056,7 +10066,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10093,14 +10103,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37806-2025</t>
+          <t>A 34431-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45881</v>
+        <v>44792.57164351852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10112,8 +10122,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10150,14 +10165,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 36401-2023</t>
+          <t>A 33532-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45152.54942129629</v>
+        <v>45519.6759837963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10169,13 +10184,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10212,14 +10222,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 26696-2021</t>
+          <t>A 2073-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44348</v>
+        <v>46036.3408449074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10232,7 +10242,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>15.5</v>
+        <v>0.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10269,14 +10279,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 7337-2023</t>
+          <t>A 9176-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44971</v>
+        <v>45714.41366898148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10289,7 +10299,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10326,14 +10336,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 9176-2025</t>
+          <t>A 60969-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45714.41366898148</v>
+        <v>45261.47166666666</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10346,7 +10356,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10383,14 +10393,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 4837-2026</t>
+          <t>A 60964-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46048.61173611111</v>
+        <v>45261</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10403,7 +10413,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10447,7 +10457,7 @@
         <v>46006.44893518519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10497,14 +10507,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 62123-2025</t>
+          <t>A 4837-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46006.44307870371</v>
+        <v>46048.61173611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10517,7 +10527,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10554,14 +10564,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 44468-2021</t>
+          <t>A 62447-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44435</v>
+        <v>46007.48613425926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10579,7 +10589,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10616,14 +10626,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 7561-2025</t>
+          <t>A 62123-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45705.58834490741</v>
+        <v>46006.44307870371</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10636,7 +10646,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10673,14 +10683,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 60977-2023</t>
+          <t>A 62391-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45261.4765625</v>
+        <v>46007.3897337963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10692,8 +10702,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10730,14 +10745,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 62447-2025</t>
+          <t>A 45164-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46007.48613425926</v>
+        <v>45191.49636574074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10749,13 +10764,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10792,14 +10802,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62391-2025</t>
+          <t>A 62852-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46007.3897337963</v>
+        <v>46008.70960648148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10817,7 +10827,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>8.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10854,14 +10864,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62852-2025</t>
+          <t>A 42042-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46008.70960648148</v>
+        <v>45177.52741898148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10873,13 +10883,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10916,14 +10921,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 13870-2025</t>
+          <t>A 63445-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45737.58509259259</v>
+        <v>46013.39946759259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10936,7 +10941,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10973,14 +10978,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60969-2023</t>
+          <t>A 64934-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45261.47166666666</v>
+        <v>45282.79449074074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10993,7 +10998,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11030,14 +11035,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 63445-2025</t>
+          <t>A 37631-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46013.39946759259</v>
+        <v>45159</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11050,7 +11055,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11087,14 +11092,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 38299-2023</t>
+          <t>A 2231-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45161.64956018519</v>
+        <v>45673.47716435185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11107,7 +11112,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11144,14 +11149,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 58800-2022</t>
+          <t>A 59410-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44903</v>
+        <v>44907</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11163,8 +11168,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11201,14 +11211,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 6785-2024</t>
+          <t>A 59411-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45342</v>
+        <v>44907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11222,11 +11232,11 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11263,14 +11273,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 26695-2021</t>
+          <t>A 2800-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44348</v>
+        <v>45677.58048611111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11283,7 +11293,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11320,14 +11330,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 11944-2024</t>
+          <t>A 34521-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45376.68662037037</v>
+        <v>45525.68068287037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11340,7 +11350,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11377,14 +11387,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59411-2022</t>
+          <t>A 8658-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44907</v>
+        <v>44613.66163194444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11396,13 +11406,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11439,14 +11444,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 58412-2023</t>
+          <t>A 50570-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45250.71864583333</v>
+        <v>45217</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11459,7 +11464,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11496,14 +11501,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59410-2022</t>
+          <t>A 4852-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44907</v>
+        <v>46048.63101851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11515,13 +11520,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>5.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11558,14 +11558,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 45918-2024</t>
+          <t>A 45292-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45580.4637037037</v>
+        <v>45576.39782407408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11615,14 +11615,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 4852-2026</t>
+          <t>A 60977-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46048.63101851852</v>
+        <v>45261.4765625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11672,14 +11672,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 62570-2023</t>
+          <t>A 12253-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45269</v>
+        <v>45378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11729,14 +11729,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6147-2025</t>
+          <t>A 12254-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45698.40091435185</v>
+        <v>45378.43430555556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11786,14 +11786,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 58658-2024</t>
+          <t>A 44468-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45635.60386574074</v>
+        <v>44435</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11807,11 +11807,11 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11848,14 +11848,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 14210-2023</t>
+          <t>A 52655-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45009</v>
+        <v>45225</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11905,14 +11905,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 35404-2023</t>
+          <t>A 24866-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45146.60049768518</v>
+        <v>45085.39561342593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11962,14 +11962,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 68095-2021</t>
+          <t>A 39950-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44526.3550462963</v>
+        <v>45553</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11981,8 +11981,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12019,14 +12024,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 12980-2025</t>
+          <t>A 11270-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45734.46005787037</v>
+        <v>44629.74461805556</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12038,13 +12043,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>12.4</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12081,14 +12081,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 20288-2025</t>
+          <t>A 68095-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45774.71646990741</v>
+        <v>44526.3550462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12138,14 +12138,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 49915-2024</t>
+          <t>A 26695-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45597.56597222222</v>
+        <v>44348</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12195,14 +12195,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 9030-2022</t>
+          <t>A 58800-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44615</v>
+        <v>44903</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12252,14 +12252,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 37631-2023</t>
+          <t>A 4821-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45159</v>
+        <v>44957.64600694444</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12309,14 +12309,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 11270-2022</t>
+          <t>A 11478-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44629.74461805556</v>
+        <v>45372</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12366,14 +12366,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 41337-2023</t>
+          <t>A 51630-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45174.69423611111</v>
+        <v>44462.48349537037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12423,14 +12423,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 2800-2025</t>
+          <t>A 15491-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45677.58048611111</v>
+        <v>45401.51510416667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12442,8 +12442,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12480,14 +12485,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 8658-2022</t>
+          <t>A 45918-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44613.66163194444</v>
+        <v>45580.4637037037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12500,7 +12505,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12537,14 +12542,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 2418-2025</t>
+          <t>A 50906-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45674.3837037037</v>
+        <v>45602.69741898148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12557,7 +12562,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12594,14 +12599,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 2231-2025</t>
+          <t>A 6785-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45673.47716435185</v>
+        <v>45342</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12613,8 +12618,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12651,14 +12661,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 45164-2023</t>
+          <t>A 55730-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45191.49636574074</v>
+        <v>44888</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12671,7 +12681,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12708,14 +12718,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 11478-2024</t>
+          <t>A 53520-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45372</v>
+        <v>44879</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12728,7 +12738,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12765,14 +12775,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13563-2025</t>
+          <t>A 35404-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45736</v>
+        <v>45146.60049768518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12785,7 +12795,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12822,14 +12832,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 34662-2024</t>
+          <t>A 13563-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45526.49626157407</v>
+        <v>45736</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12842,7 +12852,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12879,14 +12889,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 12168-2021</t>
+          <t>A 13870-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44266</v>
+        <v>45737.58509259259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12899,7 +12909,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12936,14 +12946,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 50181-2023</t>
+          <t>A 61012-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45208</v>
+        <v>45259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12956,7 +12966,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12993,14 +13003,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 11924-2025</t>
+          <t>A 15467-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45728.50487268518</v>
+        <v>45020.43767361111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13012,13 +13022,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13055,14 +13060,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 53520-2022</t>
+          <t>A 20288-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44879</v>
+        <v>45774.71646990741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13075,7 +13080,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13112,14 +13117,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 52655-2023</t>
+          <t>A 72558-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45225</v>
+        <v>44546.43049768519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13132,7 +13137,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13169,14 +13174,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 22307-2024</t>
+          <t>A 6480-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45446.56908564815</v>
+        <v>45699.61184027778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13189,7 +13194,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13226,14 +13231,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 3877-2023</t>
+          <t>A 35447-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44951.86751157408</v>
+        <v>45146</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13246,7 +13251,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13283,14 +13288,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 61012-2023</t>
+          <t>A 79-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45259</v>
+        <v>45293</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13303,7 +13308,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13340,14 +13345,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 15783-2022</t>
+          <t>A 40328-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44663.6975</v>
+        <v>45555.29670138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13360,7 +13365,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13397,14 +13402,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 34521-2024</t>
+          <t>A 66977-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45525.68068287037</v>
+        <v>44522</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13417,7 +13422,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13454,14 +13459,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 17797-2021</t>
+          <t>A 49566-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44300</v>
+        <v>44455</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13474,7 +13479,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13511,14 +13516,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 1011-2025</t>
+          <t>A 15276-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45666.48438657408</v>
+        <v>44659</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13530,8 +13535,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13568,14 +13578,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 1013-2025</t>
+          <t>A 51642-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45666.48954861111</v>
+        <v>44462</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13588,7 +13598,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13625,14 +13635,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 45292-2024</t>
+          <t>A 17707-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45576.39782407408</v>
+        <v>45037.37438657408</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13645,7 +13655,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13682,14 +13692,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 2715-2022</t>
+          <t>A 46248-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44580</v>
+        <v>45581.59293981481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13702,7 +13712,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13739,14 +13749,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 20290-2025</t>
+          <t>A 61575-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45774.7228125</v>
+        <v>45261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13759,7 +13769,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13796,14 +13806,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 60917-2022</t>
+          <t>A 21307-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44908</v>
+        <v>45781.41212962963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13816,7 +13826,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13853,14 +13863,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 13567-2025</t>
+          <t>A 34664-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45736</v>
+        <v>45526.49925925926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13873,7 +13883,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13910,14 +13920,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 4314-2024</t>
+          <t>A 53521-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45324</v>
+        <v>45230</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13929,13 +13939,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13972,14 +13977,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 3681-2025</t>
+          <t>A 22401-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45681.44800925926</v>
+        <v>45786.53190972222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13992,7 +13997,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14029,14 +14034,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 41819-2023</t>
+          <t>A 37083-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45176.56298611111</v>
+        <v>45539.48737268519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14049,7 +14054,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14086,14 +14091,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 50883-2024</t>
+          <t>A 12675-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45602.65869212963</v>
+        <v>45384.39924768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14106,7 +14111,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14143,14 +14148,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 50896-2024</t>
+          <t>A 49971-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45602.68004629629</v>
+        <v>45215.39953703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14163,7 +14168,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14200,14 +14205,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 10984-2024</t>
+          <t>A 13560-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45370.54677083333</v>
+        <v>45736</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14220,7 +14225,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14257,14 +14262,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 15467-2023</t>
+          <t>A 38278-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45020.43767361111</v>
+        <v>45545</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14277,7 +14282,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14314,14 +14319,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 40667-2023</t>
+          <t>A 23114-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45170.58804398148</v>
+        <v>45791.36858796296</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14334,7 +14339,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14371,14 +14376,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 42042-2023</t>
+          <t>A 57284-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45177.52741898148</v>
+        <v>45629.58258101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14391,7 +14396,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14428,14 +14433,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 50886-2024</t>
+          <t>A 2749-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45602.66590277778</v>
+        <v>45314.580625</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14448,7 +14453,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14485,14 +14490,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 50901-2024</t>
+          <t>A 24499-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45602.68665509259</v>
+        <v>45798.39575231481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14505,7 +14510,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14542,14 +14547,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 33532-2024</t>
+          <t>A 24519-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45519.6759837963</v>
+        <v>45798.41673611111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14562,7 +14567,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14599,14 +14604,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 12769-2024</t>
+          <t>A 18740-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45384.58284722222</v>
+        <v>45763.71474537037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14619,7 +14624,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14656,14 +14661,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 50906-2024</t>
+          <t>A 54444-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45602.69741898148</v>
+        <v>44473</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14713,14 +14718,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 9125-2023</t>
+          <t>A 27259-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44980.33065972223</v>
+        <v>45812.47438657407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14732,13 +14737,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14775,14 +14775,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 40328-2024</t>
+          <t>A 27232-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45555.29670138889</v>
+        <v>45812.44145833333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14832,14 +14832,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 16304-2024</t>
+          <t>A 27251-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45407.42699074074</v>
+        <v>45812.47131944444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14889,14 +14889,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 51642-2021</t>
+          <t>A 27255-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44462</v>
+        <v>45812.47243055556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14946,14 +14946,14 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 22328-2024</t>
+          <t>A 27248-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45446.58618055555</v>
+        <v>45812.46631944444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45791.38667824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45728.50200231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45705.59221064814</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>45821.36956018519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45898.62613425926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45446.58446759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45924.58663194445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45926.32910879629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45261</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45965.45900462963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44866</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>45468.65774305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45673.4736574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44319.48951388889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44840</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44627</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>45602.68665509259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>45009</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>45152.54942129629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>45602.66590277778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44951.86751157408</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>45736</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44908</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45774.7228125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45161</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45567.3878125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>45407.42699074074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44266</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>45446.58618055555</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>45282</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44546.44777777778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>45161.64956018519</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>45170.58804398148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44980.33065972223</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>44879.59599537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44663.6975</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>45887.39769675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>45728.50487268518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45818.64015046296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>45819.6608912037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>45818.67709490741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>45887</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>45819.36372685185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>45208</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>45819.35731481481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>45819.3609375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>45221</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>45819.9034837963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>45819.92020833334</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>44971</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45887.39501157407</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>45889.22287037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>45889.26685185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>45889.22056712963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45825.37965277778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45889.2216550926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45892.57770833333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>45827.84690972222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>45250.71864583333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>45273</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>45793</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>45834</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>45834.02827546297</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>45898.45606481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>45838.59538194445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>45681.44512731482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45909.53418981482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>45909.53945601852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>45601.61167824074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45674.3837037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>45917.70016203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>44473.45114583334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>45917.68621527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>45917.69141203703</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45917.69450231481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44810</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>45208</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>45924.63995370371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>45924.63813657407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>45924.64946759259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>44810</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>45924.6366550926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45924.6319212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>45925.67975694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>45924.60741898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>45926.32668981481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44348</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>44936.47675925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>45881</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>45174.69423611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>45370.54677083333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45882.67461805556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>45370.5349074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>45376.68662037037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>45681.44800925926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>45950.40321759259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>45950.39878472222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>45950.42493055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>44904</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44300</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>45635.60386574074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>44580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>45301</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>45666.48438657408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>45666.48954861111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>45526.49626157407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>45269</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>45602.65869212963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>45602.68004629629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>45698.40091435185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>45917.74508101852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>45917.74980324074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>44946.43795138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>45973.44811342593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45705.58834490741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45979.56186342592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>45324</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45979.57789351852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45384.58284722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45979.47040509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>45981.45193287037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>45597.56597222222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44615</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45985.47137731482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>45982.31621527778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>45730.43697916667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>45985.4681712963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>45985.47318287037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>45985.47396990741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>45985.47479166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>45734.46005787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>45176.56298611111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>45986.65002314815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44488.52820601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>45986.65516203704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>45988</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>45446.56908564815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44442</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44792.57164351852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>45519.6759837963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>46036.3408449074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45714.41366898148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45261.47166666666</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45261</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>46006.44893518519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>46048.61173611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>46007.48613425926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>46006.44307870371</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>46007.3897337963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45191.49636574074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>46008.70960648148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>45177.52741898148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>46013.39946759259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>45282.79449074074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>45159</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>45673.47716435185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44907</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>45677.58048611111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>45525.68068287037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44613.66163194444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>45217</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>46048.63101851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>45576.39782407408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45261.4765625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>45378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>45378.43430555556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44435</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>45225</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45085.39561342593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>45553</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44629.74461805556</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44526.3550462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44348</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44903</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44957.64600694444</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45372</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44462.48349537037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45401.51510416667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45580.4637037037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>45602.69741898148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>45342</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44888</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44879</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45146.60049768518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45736</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45737.58509259259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>45259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>45020.43767361111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>45774.71646990741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44546.43049768519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>45699.61184027778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>45146</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45293</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>45555.29670138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44522</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44455</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44659</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>44462</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>45037.37438657408</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>45581.59293981481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>45261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>45781.41212962963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>45526.49925925926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>45230</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>45786.53190972222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>45539.48737268519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>45384.39924768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45215.39953703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>45736</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>45545</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>45791.36858796296</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>45629.58258101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>45314.580625</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>45798.39575231481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>45798.41673611111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>45763.71474537037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44473</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45812.47438657407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45812.44145833333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45812.47131944444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>45812.47243055556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45812.46631944444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45791.38667824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45728.50200231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45705.59221064814</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>45821.36956018519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45898.62613425926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45446.58446759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45924.58663194445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45926.32910879629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45261</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45965.45900462963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44866</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>45468.65774305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45673.4736574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44319.48951388889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44840</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44449</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44627</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>45602.68665509259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>45009</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>45152.54942129629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>45602.66590277778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44951.86751157408</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>45736</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44908</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45774.7228125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45161</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45567.3878125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>45407.42699074074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44266</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>45446.58618055555</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>45282</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44546.44777777778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>45161.64956018519</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>45170.58804398148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44980.33065972223</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>44879.59599537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44663.6975</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>45887.39769675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>45728.50487268518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45818.64015046296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>45819.6608912037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>45818.67709490741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>45887</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>45819.36372685185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>45208</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>45819.35731481481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>45819.3609375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>45221</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>45819.9034837963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>45819.92020833334</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>44971</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45887.39501157407</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>45889.22287037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>45889.26685185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>45889.22056712963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45825.37965277778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45889.2216550926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45892.57770833333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>45827.84690972222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>45250.71864583333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>45273</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>45793</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>45834</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>45834.02827546297</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>45898.45606481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>45838.59538194445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>45681.44512731482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45909.53418981482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>45909.53945601852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>45601.61167824074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45674.3837037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>45917.70016203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>44473.45114583334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>45917.68621527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>45917.69141203703</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45917.69450231481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44810</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>45208</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>45924.63995370371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>45924.63813657407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>45924.64946759259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>44810</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>45924.6366550926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45924.6319212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>45925.67975694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>45924.60741898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>45926.32668981481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44348</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>44936.47675925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>45881</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>45174.69423611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>45370.54677083333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45882.67461805556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>45370.5349074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>45376.68662037037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>45681.44800925926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>45950.40321759259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>45950.39878472222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>45950.42493055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>44904</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44300</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>45635.60386574074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>44580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>45301</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>45666.48438657408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>45666.48954861111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>45526.49626157407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>45269</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>45602.65869212963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>45602.68004629629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>45698.40091435185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>45917.74508101852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>45917.74980324074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>44946.43795138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>45973.44811342593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45705.58834490741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45979.56186342592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>45324</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45979.57789351852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45384.58284722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45979.47040509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>45981.45193287037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>45597.56597222222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44615</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45985.47137731482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>45982.31621527778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>45730.43697916667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>45985.4681712963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>45985.47318287037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>45985.47396990741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>45985.47479166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>45734.46005787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>45176.56298611111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>45986.65002314815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44488.52820601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>45986.65516203704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>45988</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>45446.56908564815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44442</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44792.57164351852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>45519.6759837963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>46036.3408449074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45714.41366898148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45261.47166666666</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45261</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>46006.44893518519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>46048.61173611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>46007.48613425926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>46006.44307870371</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>46007.3897337963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45191.49636574074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>46008.70960648148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>45177.52741898148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>46013.39946759259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>45282.79449074074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>45159</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>45673.47716435185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44907</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>45677.58048611111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>45525.68068287037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44613.66163194444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>45217</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>46048.63101851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>45576.39782407408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45261.4765625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>45378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>45378.43430555556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44435</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>45225</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45085.39561342593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>45553</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44629.74461805556</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44526.3550462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44348</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44903</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44957.64600694444</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45372</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44462.48349537037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45401.51510416667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45580.4637037037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>45602.69741898148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>45342</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44888</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44879</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45146.60049768518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45736</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45737.58509259259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>45259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>45020.43767361111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>45774.71646990741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44546.43049768519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>45699.61184027778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>45146</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45293</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>45555.29670138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44522</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44455</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44659</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>44462</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>45037.37438657408</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>45581.59293981481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>45261</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>45781.41212962963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>45526.49925925926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>45230</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>45786.53190972222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>45539.48737268519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>45384.39924768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45215.39953703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>45736</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>45545</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>45791.36858796296</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>45629.58258101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>45314.580625</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>45798.39575231481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>45798.41673611111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>45763.71474537037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44473</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45812.47438657407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45812.44145833333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45812.47131944444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>45812.47243055556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45812.46631944444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -575,7 +575,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 67603-2021</t>
+          <t>A 23130-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44524</v>
+        <v>45791.38667824074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -712,124 +712,124 @@
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Backsippa
+Axveronika
+Flentimotej</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 23130-2025 artfynd.xlsx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 23130-2025 karta.png", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 23130-2025 FSC-klagomål.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 23130-2025 FSC-klagomål mail.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 23130-2025 tillsynsbegäran.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 23130-2025 tillsynsbegäran mail.docx", "A 23130-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 67603-2021</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44524</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Backsippa
 Plattad jordtunga
 Svart jordtunga</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 67603-2021 artfynd.xlsx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 67603-2021 karta.png", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 67603-2021 FSC-klagomål.docx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 67603-2021 FSC-klagomål mail.docx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 67603-2021 tillsynsbegäran.docx", "A 67603-2021")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 67603-2021 tillsynsbegäran mail.docx", "A 67603-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 23130-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45791.38667824074</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Backsippa
-Axveronika
-Flentimotej</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 23130-2025 artfynd.xlsx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 23130-2025 karta.png", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 23130-2025 FSC-klagomål.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 23130-2025 FSC-klagomål mail.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 23130-2025 tillsynsbegäran.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 23130-2025 tillsynsbegäran mail.docx", "A 23130-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45831.41356481481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45728.50200231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,14 +1104,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 7564-2025</t>
+          <t>A 50403-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45705.59221064814</v>
+        <v>44866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1123,17 +1123,22 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1148,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1158,124 +1163,119 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Springkorn</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 7564-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45705.59221064814</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Solvända</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 7564-2025 artfynd.xlsx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 7564-2025 karta.png", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 7564-2025 FSC-klagomål.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 7564-2025 FSC-klagomål mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 7564-2025 tillsynsbegäran.docx", "A 7564-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 7564-2025 tillsynsbegäran mail.docx", "A 7564-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 28988-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45821.36956018519</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45898.62613425926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,14 +1364,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 22327-2024</t>
+          <t>A 46123-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45446.58446759259</v>
+        <v>45924.58663194445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1384,19 +1384,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1411,231 +1411,231 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 46522-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45926.32910879629</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 22327-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45446.58446759259</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 22327-2024 artfynd.xlsx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 22327-2024 karta.png", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 22327-2024 FSC-klagomål.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 22327-2024 FSC-klagomål mail.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 22327-2024 tillsynsbegäran.docx", "A 22327-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 22327-2024 tillsynsbegäran mail.docx", "A 22327-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 46123-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45924.58663194445</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46123-2025 artfynd.xlsx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46123-2025 karta.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/knärot/A 46123-2025 karta knärot.png", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46123-2025 FSC-klagomål.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46123-2025 FSC-klagomål mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46123-2025 tillsynsbegäran.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46123-2025 tillsynsbegäran mail.docx", "A 46123-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 46522-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45926.32910879629</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Tibast</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 46522-2025 artfynd.xlsx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 46522-2025 karta.png", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 46522-2025 FSC-klagomål.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 46522-2025 FSC-klagomål mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 46522-2025 tillsynsbegäran.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 46522-2025 tillsynsbegäran mail.docx", "A 46522-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 60983-2023</t>
+          <t>A 26261-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45261</v>
+        <v>45468.65774305556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1648,17 +1648,17 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1682,31 +1682,31 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Åkerväddsantennmal</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
         <v/>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
         <v>45965.45900462963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,14 +1798,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 50403-2022</t>
+          <t>A 60983-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44866</v>
+        <v>45261</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1817,19 +1817,14 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1857,45 +1852,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Springkorn</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 50403-2022 artfynd.xlsx", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 60983-2023 artfynd.xlsx", "A 60983-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 50403-2022 karta.png", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 60983-2023 karta.png", "A 60983-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 50403-2022 FSC-klagomål.docx", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 60983-2023 FSC-klagomål.docx", "A 60983-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 50403-2022 FSC-klagomål mail.docx", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 60983-2023 FSC-klagomål mail.docx", "A 60983-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 50403-2022 tillsynsbegäran.docx", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 60983-2023 tillsynsbegäran.docx", "A 60983-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 50403-2022 tillsynsbegäran mail.docx", "A 50403-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 60983-2023 tillsynsbegäran mail.docx", "A 60983-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 26261-2024</t>
+          <t>A 2230-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45468.65774305556</v>
+        <v>45673.4736574074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1908,16 +1903,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1932,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1942,45 +1937,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 26261-2024 artfynd.xlsx", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 26261-2024 karta.png", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 26261-2024 FSC-klagomål.docx", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 26261-2024 FSC-klagomål mail.docx", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 26261-2024 tillsynsbegäran.docx", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 26261-2024 tillsynsbegäran mail.docx", "A 26261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 2230-2025</t>
+          <t>A 28988-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45673.4736574074</v>
+        <v>45821.36956018519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1992,14 +1987,19 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2027,45 +2027,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 2230-2025 artfynd.xlsx", "A 2230-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/artfynd/A 28988-2025 artfynd.xlsx", "A 28988-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 2230-2025 karta.png", "A 2230-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/kartor/A 28988-2025 karta.png", "A 28988-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 2230-2025 FSC-klagomål.docx", "A 2230-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomål/A 28988-2025 FSC-klagomål.docx", "A 28988-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 2230-2025 FSC-klagomål mail.docx", "A 2230-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/klagomålsmail/A 28988-2025 FSC-klagomål mail.docx", "A 28988-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 2230-2025 tillsynsbegäran.docx", "A 2230-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsyn/A 28988-2025 tillsynsbegäran.docx", "A 28988-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 2230-2025 tillsynsbegäran mail.docx", "A 2230-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0586/tillsynsmail/A 28988-2025 tillsynsbegäran mail.docx", "A 28988-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 20935-2021</t>
+          <t>A 1554-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44319.48951388889</v>
+        <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2077,13 +2077,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2120,14 +2115,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 1554-2022</t>
+          <t>A 20935-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44573</v>
+        <v>44319.48951388889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,8 +2134,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>44840</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44335.6689699074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44573</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2581,14 +2581,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 56458-2021</t>
+          <t>A 48431-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44480</v>
+        <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2638,14 +2638,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48431-2021</t>
+          <t>A 56458-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44449</v>
+        <v>44480</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>44449</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44280.43516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44692.66456018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44627</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2980,14 +2980,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50901-2024</t>
+          <t>A 50179-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45602.68665509259</v>
+        <v>45208</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3037,14 +3037,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 14210-2023</t>
+          <t>A 34431-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45009</v>
+        <v>44792.57164351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3056,8 +3056,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3094,14 +3099,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 36401-2023</t>
+          <t>A 50570-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45152.54942129629</v>
+        <v>45217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3113,13 +3118,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3156,14 +3156,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 50886-2024</t>
+          <t>A 58415-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45602.66590277778</v>
+        <v>44488.52820601852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3213,14 +3213,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3877-2023</t>
+          <t>A 35447-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44951.86751157408</v>
+        <v>45146</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3270,14 +3270,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13567-2025</t>
+          <t>A 51475-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45736</v>
+        <v>45221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3327,14 +3327,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 60917-2022</t>
+          <t>A 12253-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44908</v>
+        <v>45378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3384,14 +3384,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 20290-2025</t>
+          <t>A 12254-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45774.7228125</v>
+        <v>45378.43430555556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38300-2023</t>
+          <t>A 51630-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45161</v>
+        <v>44462.48349537037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43012-2024</t>
+          <t>A 39950-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45567.3878125</v>
+        <v>45553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3517,8 +3517,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3555,14 +3560,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 16304-2024</t>
+          <t>A 4821-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45407.42699074074</v>
+        <v>44957.64600694444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3580,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3612,14 +3617,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12168-2021</t>
+          <t>A 10980-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44266</v>
+        <v>45370.5349074074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3637,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3669,14 +3674,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22328-2024</t>
+          <t>A 43012-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45446.58618055555</v>
+        <v>45567.3878125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3694,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3726,14 +3731,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 64930-2023</t>
+          <t>A 60964-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45282</v>
+        <v>45261</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3783,14 +3788,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 72563-2021</t>
+          <t>A 15276-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44546.44777777778</v>
+        <v>44659</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3802,8 +3807,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>7.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3840,14 +3850,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38299-2023</t>
+          <t>A 17707-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45161.64956018519</v>
+        <v>45037.37438657408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3860,7 +3870,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3897,14 +3907,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40667-2023</t>
+          <t>A 49566-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45170.58804398148</v>
+        <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3917,7 +3927,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3954,14 +3964,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9125-2023</t>
+          <t>A 53518-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44980.33065972223</v>
+        <v>44879.59599537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3973,13 +3983,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4016,14 +4021,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 53518-2022</t>
+          <t>A 63449-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44879.59599537037</v>
+        <v>45273</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4036,7 +4041,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4073,14 +4078,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 15783-2022</t>
+          <t>A 3678-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44663.6975</v>
+        <v>45681.44512731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4093,7 +4098,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4130,14 +4135,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38760-2025</t>
+          <t>A 36401-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45887.39769675926</v>
+        <v>45152.54942129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,8 +4154,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4187,14 +4197,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11924-2025</t>
+          <t>A 1293-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45728.50487268518</v>
+        <v>44936.47675925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,13 +4216,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4249,14 +4254,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28321-2025</t>
+          <t>A 7561-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45818.64015046296</v>
+        <v>45705.58834490741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4269,7 +4274,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4306,14 +4311,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28663-2025</t>
+          <t>A 64934-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45819.6608912037</v>
+        <v>45282.79449074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4326,7 +4331,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4363,14 +4368,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28341-2025</t>
+          <t>A 60977-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45818.67709490741</v>
+        <v>45261.4765625</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4383,7 +4388,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4420,14 +4425,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38735-2025</t>
+          <t>A 59234-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45887</v>
+        <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4439,8 +4444,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4477,14 +4487,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28422-2025</t>
+          <t>A 26696-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45819.36372685185</v>
+        <v>44348</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4496,13 +4506,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>15.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4539,14 +4544,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 50179-2023</t>
+          <t>A 13870-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45208</v>
+        <v>45737.58509259259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4559,7 +4564,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4596,14 +4601,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28417-2025</t>
+          <t>A 55730-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45819.35731481481</v>
+        <v>44888</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,11 +4618,6 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>MJÖLBY</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -4658,14 +4658,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28419-2025</t>
+          <t>A 7337-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45819.3609375</v>
+        <v>44971</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4677,13 +4677,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4720,14 +4715,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 51475-2023</t>
+          <t>A 9176-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45221</v>
+        <v>45714.41366898148</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4740,7 +4735,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4777,14 +4772,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 28695-2025</t>
+          <t>A 15491-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45819.9034837963</v>
+        <v>45401.51510416667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,8 +4791,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4834,14 +4834,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28697-2025</t>
+          <t>A 60969-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45819.92020833334</v>
+        <v>45261.47166666666</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4891,14 +4891,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 7337-2023</t>
+          <t>A 44468-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44971</v>
+        <v>44435</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,8 +4910,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4948,14 +4953,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38756-2025</t>
+          <t>A 38299-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45887.39501157407</v>
+        <v>45161.64956018519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4968,7 +4973,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5005,14 +5010,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39227-2025</t>
+          <t>A 54442-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45889.22287037037</v>
+        <v>44473.45114583334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5025,7 +5030,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5062,14 +5067,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39230-2025</t>
+          <t>A 64930-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45889.26685185185</v>
+        <v>45282</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5082,7 +5087,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5119,14 +5124,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39225-2025</t>
+          <t>A 24866-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45889.22056712963</v>
+        <v>45085.39561342593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5139,7 +5144,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5176,14 +5181,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29580-2025</t>
+          <t>A 6147-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45825.37965277778</v>
+        <v>45698.40091435185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5201,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5233,14 +5238,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39226-2025</t>
+          <t>A 58658-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45889.2216550926</v>
+        <v>45635.60386574074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5252,8 +5257,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5290,14 +5300,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39965-2025</t>
+          <t>A 12412-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45892.57770833333</v>
+        <v>45730.43697916667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5310,7 +5320,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5347,14 +5357,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30468-2025</t>
+          <t>A 58800-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45827.84690972222</v>
+        <v>44903</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5367,7 +5377,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5404,14 +5414,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 58412-2023</t>
+          <t>A 6785-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45250.71864583333</v>
+        <v>45342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5423,8 +5433,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5461,14 +5476,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 63449-2023</t>
+          <t>A 26695-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45273</v>
+        <v>44348</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5481,7 +5496,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5518,14 +5533,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23781-2025</t>
+          <t>A 11944-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45793</v>
+        <v>45376.68662037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5538,7 +5553,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5575,14 +5590,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31624-2025</t>
+          <t>A 14210-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45834</v>
+        <v>45009</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5595,7 +5610,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5632,14 +5647,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 31623-2025</t>
+          <t>A 3087-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45834.02827546297</v>
+        <v>44946.43795138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5652,7 +5667,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5689,14 +5704,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 41105-2025</t>
+          <t>A 59411-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45898.45606481482</v>
+        <v>44907</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,8 +5723,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5746,14 +5766,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 32581-2025</t>
+          <t>A 72563-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45838.59538194445</v>
+        <v>44546.44777777778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5803,14 +5823,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3678-2025</t>
+          <t>A 45164-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45681.44512731482</v>
+        <v>45191.49636574074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5843,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5860,14 +5880,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43026-2025</t>
+          <t>A 46240-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45909.53418981482</v>
+        <v>44442</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5880,7 +5900,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5917,14 +5937,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43032-2025</t>
+          <t>A 35404-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45909.53945601852</v>
+        <v>45146.60049768518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5974,14 +5994,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50581-2024</t>
+          <t>A 58412-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45601.61167824074</v>
+        <v>45250.71864583333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +6014,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6031,14 +6051,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50339-2023</t>
+          <t>A 59410-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45216</v>
+        <v>44907</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6050,8 +6070,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6088,14 +6113,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 2418-2025</t>
+          <t>A 45918-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45674.3837037037</v>
+        <v>45580.4637037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6133,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6145,14 +6170,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 65921-2021</t>
+          <t>A 68095-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44517</v>
+        <v>44526.3550462963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6190,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6202,14 +6227,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44757-2025</t>
+          <t>A 12980-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45917.70016203704</v>
+        <v>45734.46005787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6221,8 +6246,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>12.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6259,14 +6289,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 54442-2021</t>
+          <t>A 20288-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44473.45114583334</v>
+        <v>45774.71646990741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6279,7 +6309,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6316,14 +6346,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44752-2025</t>
+          <t>A 62570-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45917.68621527778</v>
+        <v>45269</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6336,7 +6366,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6373,14 +6403,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44753-2025</t>
+          <t>A 49915-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45917.69141203703</v>
+        <v>45597.56597222222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6393,7 +6423,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.9</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6430,14 +6460,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44756-2025</t>
+          <t>A 9030-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45917.69450231481</v>
+        <v>44615</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6487,14 +6517,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 37806-2022</t>
+          <t>A 72558-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44810</v>
+        <v>44546.43049768519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6507,7 +6537,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6544,14 +6574,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50181-2023</t>
+          <t>A 37631-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45208</v>
+        <v>45159</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6564,7 +6594,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6601,14 +6631,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46166-2025</t>
+          <t>A 11270-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45924.63995370371</v>
+        <v>44629.74461805556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6621,7 +6651,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6658,14 +6688,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46164-2025</t>
+          <t>A 41337-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45924.63813657407</v>
+        <v>45174.69423611111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6715,14 +6745,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46175-2025</t>
+          <t>A 2800-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45924.64946759259</v>
+        <v>45677.58048611111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6735,7 +6765,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6772,14 +6802,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37802-2022</t>
+          <t>A 8658-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44810</v>
+        <v>44613.66163194444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6792,7 +6822,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6829,14 +6859,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46159-2025</t>
+          <t>A 11478-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45924.6366550926</v>
+        <v>45372</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6849,7 +6879,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6886,14 +6916,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 46156-2025</t>
+          <t>A 2418-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45924.6319212963</v>
+        <v>45674.3837037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6906,7 +6936,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6943,14 +6973,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46467-2025</t>
+          <t>A 2231-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45925.67975694445</v>
+        <v>45673.47716435185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6963,7 +6993,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7000,14 +7030,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46144-2025</t>
+          <t>A 66977-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45924.60741898148</v>
+        <v>44522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7020,7 +7050,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7057,14 +7087,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46521-2025</t>
+          <t>A 13563-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45926.32668981481</v>
+        <v>45736</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7076,13 +7106,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7119,14 +7144,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 26696-2021</t>
+          <t>A 38756-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44348</v>
+        <v>45887.39501157407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7139,7 +7164,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>15.5</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7176,14 +7201,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 1293-2023</t>
+          <t>A 38735-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44936.47675925926</v>
+        <v>45887</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7196,7 +7221,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7233,14 +7258,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37806-2025</t>
+          <t>A 38760-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45881</v>
+        <v>45887.39769675926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7253,7 +7278,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7290,14 +7315,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 41337-2023</t>
+          <t>A 34662-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45174.69423611111</v>
+        <v>45526.49626157407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7310,7 +7335,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7347,14 +7372,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 10984-2024</t>
+          <t>A 12168-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45370.54677083333</v>
+        <v>44266</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7367,7 +7392,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7404,14 +7429,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 38199-2025</t>
+          <t>A 50181-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45882.67461805556</v>
+        <v>45208</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7424,7 +7449,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7461,14 +7486,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 10980-2024</t>
+          <t>A 11924-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45370.5349074074</v>
+        <v>45728.50487268518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7480,8 +7505,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7518,14 +7548,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11944-2024</t>
+          <t>A 39226-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45376.68662037037</v>
+        <v>45889.2216550926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7538,7 +7568,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7575,14 +7605,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 3681-2025</t>
+          <t>A 39230-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45681.44800925926</v>
+        <v>45889.26685185185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7595,7 +7625,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7632,14 +7662,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 51326-2025</t>
+          <t>A 53520-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45950.40321759259</v>
+        <v>44879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7652,7 +7682,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7689,14 +7719,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 51325-2025</t>
+          <t>A 39227-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45950.39878472222</v>
+        <v>45889.22287037037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7709,7 +7739,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7746,14 +7776,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 51335-2025</t>
+          <t>A 39225-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45950.42493055556</v>
+        <v>45889.22056712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7766,7 +7796,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7803,14 +7833,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 59234-2022</t>
+          <t>A 52655-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44904</v>
+        <v>45225</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7822,13 +7852,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7865,14 +7890,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 17797-2021</t>
+          <t>A 22307-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44300</v>
+        <v>45446.56908564815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7885,7 +7910,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7922,14 +7947,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58658-2024</t>
+          <t>A 3877-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45635.60386574074</v>
+        <v>44951.86751157408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7941,13 +7966,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7984,14 +8004,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 2715-2022</t>
+          <t>A 39965-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44580</v>
+        <v>45892.57770833333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8004,7 +8024,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8041,14 +8061,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 961-2024</t>
+          <t>A 61012-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45301</v>
+        <v>45259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8061,7 +8081,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8098,14 +8118,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 1011-2025</t>
+          <t>A 15783-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45666.48438657408</v>
+        <v>44663.6975</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8118,7 +8138,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8155,14 +8175,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 1013-2025</t>
+          <t>A 41105-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45666.48954861111</v>
+        <v>45898.45606481482</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8175,7 +8195,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8212,14 +8232,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 34662-2024</t>
+          <t>A 34521-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45526.49626157407</v>
+        <v>45525.68068287037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8232,7 +8252,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8269,14 +8289,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 62570-2023</t>
+          <t>A 17797-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45269</v>
+        <v>44300</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8289,7 +8309,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8326,14 +8346,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50883-2024</t>
+          <t>A 1011-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45602.65869212963</v>
+        <v>45666.48438657408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8346,7 +8366,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8383,14 +8403,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 50896-2024</t>
+          <t>A 1013-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45602.68004629629</v>
+        <v>45666.48954861111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8403,7 +8423,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8440,14 +8460,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 6147-2025</t>
+          <t>A 65921-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45698.40091435185</v>
+        <v>44517</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8460,7 +8480,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8497,14 +8517,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44769-2025</t>
+          <t>A 45292-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45917.74508101852</v>
+        <v>45576.39782407408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8537,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8554,14 +8574,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44770-2025</t>
+          <t>A 43032-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45917.74980324074</v>
+        <v>45909.53945601852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8574,7 +8594,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8611,14 +8631,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 3087-2023</t>
+          <t>A 43026-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44946.43795138889</v>
+        <v>45909.53418981482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8631,7 +8651,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8668,14 +8688,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 55939-2025</t>
+          <t>A 2715-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45973.44811342593</v>
+        <v>44580</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8688,7 +8708,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8725,14 +8745,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 7561-2025</t>
+          <t>A 20290-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45705.58834490741</v>
+        <v>45774.7228125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8745,7 +8765,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8782,14 +8802,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 57181-2025</t>
+          <t>A 44752-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45979.56186342592</v>
+        <v>45917.68621527778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8802,7 +8822,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8839,14 +8859,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 4314-2024</t>
+          <t>A 44753-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45324</v>
+        <v>45917.69141203703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8858,13 +8878,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8901,14 +8916,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 57194-2025</t>
+          <t>A 44756-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45979.57789351852</v>
+        <v>45917.69450231481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8921,7 +8936,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8958,14 +8973,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12769-2024</t>
+          <t>A 44757-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45384.58284722222</v>
+        <v>45917.70016203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8978,7 +8993,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9015,14 +9030,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 57125-2025</t>
+          <t>A 60917-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45979.47040509259</v>
+        <v>44908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9035,7 +9050,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9072,14 +9087,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 57694-2025</t>
+          <t>A 46164-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45981.45193287037</v>
+        <v>45924.63813657407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9092,7 +9107,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9129,14 +9144,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 49915-2024</t>
+          <t>A 46175-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45597.56597222222</v>
+        <v>45924.64946759259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9149,7 +9164,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9186,14 +9201,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 9030-2022</t>
+          <t>A 13567-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44615</v>
+        <v>45736</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9206,7 +9221,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9243,14 +9258,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 58316-2025</t>
+          <t>A 46144-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45985.47137731482</v>
+        <v>45924.60741898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9263,7 +9278,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9300,14 +9315,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 57942-2025</t>
+          <t>A 46156-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45982.31621527778</v>
+        <v>45924.6319212963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9320,7 +9335,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9357,14 +9372,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 12412-2025</t>
+          <t>A 46159-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45730.43697916667</v>
+        <v>45924.6366550926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9377,7 +9392,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9414,14 +9429,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58310-2025</t>
+          <t>A 46166-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45985.4681712963</v>
+        <v>45924.63995370371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9434,7 +9449,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9471,14 +9486,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58318-2025</t>
+          <t>A 46521-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45985.47318287037</v>
+        <v>45926.32668981481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9490,8 +9505,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9528,14 +9548,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58320-2025</t>
+          <t>A 46467-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45985.47396990741</v>
+        <v>45925.67975694445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9548,7 +9568,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9585,14 +9605,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 58321-2025</t>
+          <t>A 4314-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45985.47479166667</v>
+        <v>45324</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9604,8 +9624,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9642,14 +9667,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 12980-2025</t>
+          <t>A 3681-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45734.46005787037</v>
+        <v>45681.44800925926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9661,13 +9686,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>12.4</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9711,7 +9731,7 @@
         <v>45176.56298611111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9761,14 +9781,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 58756-2025</t>
+          <t>A 50883-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45986.65002314815</v>
+        <v>45602.65869212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9781,7 +9801,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9818,14 +9838,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 58415-2021</t>
+          <t>A 50896-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44488.52820601852</v>
+        <v>45602.68004629629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9838,7 +9858,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9875,14 +9895,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58761-2025</t>
+          <t>A 10984-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45986.65516203704</v>
+        <v>45370.54677083333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9895,7 +9915,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9932,14 +9952,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 59105-2025</t>
+          <t>A 15467-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45988</v>
+        <v>45020.43767361111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9952,7 +9972,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9989,14 +10009,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 22307-2024</t>
+          <t>A 40667-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45446.56908564815</v>
+        <v>45170.58804398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10009,7 +10029,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10046,14 +10066,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 46240-2021</t>
+          <t>A 51335-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44442</v>
+        <v>45950.42493055556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10066,7 +10086,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10103,14 +10123,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34431-2022</t>
+          <t>A 51326-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44792.57164351852</v>
+        <v>45950.40321759259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10122,13 +10142,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10165,14 +10180,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 33532-2024</t>
+          <t>A 51325-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45519.6759837963</v>
+        <v>45950.39878472222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10185,7 +10200,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10222,14 +10237,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 2073-2026</t>
+          <t>A 42042-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46036.3408449074</v>
+        <v>45177.52741898148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10242,7 +10257,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10279,14 +10294,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 9176-2025</t>
+          <t>A 50886-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45714.41366898148</v>
+        <v>45602.66590277778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10299,7 +10314,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10336,14 +10351,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60969-2023</t>
+          <t>A 50901-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45261.47166666666</v>
+        <v>45602.68665509259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10356,7 +10371,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10393,14 +10408,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 60964-2023</t>
+          <t>A 33532-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45261</v>
+        <v>45519.6759837963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10413,7 +10428,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10450,14 +10465,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 62129-2025</t>
+          <t>A 12769-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46006.44893518519</v>
+        <v>45384.58284722222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10470,7 +10485,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10507,14 +10522,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 4837-2026</t>
+          <t>A 50906-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46048.61173611111</v>
+        <v>45602.69741898148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10564,14 +10579,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 62447-2025</t>
+          <t>A 9125-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46007.48613425926</v>
+        <v>44980.33065972223</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10585,11 +10600,11 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10626,14 +10641,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 62123-2025</t>
+          <t>A 40328-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46006.44307870371</v>
+        <v>45555.29670138889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10646,7 +10661,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10683,14 +10698,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62391-2025</t>
+          <t>A 16304-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46007.3897337963</v>
+        <v>45407.42699074074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10702,13 +10717,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10745,14 +10755,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 45164-2023</t>
+          <t>A 51642-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45191.49636574074</v>
+        <v>44462</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10765,7 +10775,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10802,14 +10812,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62852-2025</t>
+          <t>A 44770-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46008.70960648148</v>
+        <v>45917.74980324074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10821,13 +10831,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10864,14 +10869,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 42042-2023</t>
+          <t>A 44769-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45177.52741898148</v>
+        <v>45917.74508101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10884,7 +10889,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10921,14 +10926,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 63445-2025</t>
+          <t>A 22328-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46013.39946759259</v>
+        <v>45446.58618055555</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10941,7 +10946,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10978,14 +10983,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 64934-2023</t>
+          <t>A 6480-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45282.79449074074</v>
+        <v>45699.61184027778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10998,7 +11003,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11035,14 +11040,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 37631-2023</t>
+          <t>A 55939-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45159</v>
+        <v>45973.44811342593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11055,7 +11060,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11092,14 +11097,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 2231-2025</t>
+          <t>A 79-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45673.47716435185</v>
+        <v>45293</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11112,7 +11117,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11149,14 +11154,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 59410-2022</t>
+          <t>A 961-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44907</v>
+        <v>45301</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11168,13 +11173,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11211,14 +11211,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 59411-2022</t>
+          <t>A 38300-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44907</v>
+        <v>45161</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11230,13 +11230,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11273,14 +11268,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 2800-2025</t>
+          <t>A 57125-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45677.58048611111</v>
+        <v>45979.47040509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11293,7 +11288,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11330,14 +11325,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 34521-2024</t>
+          <t>A 57181-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45525.68068287037</v>
+        <v>45979.56186342592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11350,7 +11345,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11387,14 +11382,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 8658-2022</t>
+          <t>A 57194-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44613.66163194444</v>
+        <v>45979.57789351852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11407,7 +11402,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11444,14 +11439,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 50570-2023</t>
+          <t>A 57694-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45217</v>
+        <v>45981.45193287037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11464,7 +11459,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11501,14 +11496,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 4852-2026</t>
+          <t>A 57942-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46048.63101851852</v>
+        <v>45982.31621527778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11521,7 +11516,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11558,14 +11553,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 45292-2024</t>
+          <t>A 46248-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45576.39782407408</v>
+        <v>45581.59293981481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11578,7 +11573,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11615,14 +11610,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 60977-2023</t>
+          <t>A 58320-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45261.4765625</v>
+        <v>45985.47396990741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11635,7 +11630,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11672,14 +11667,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 12253-2024</t>
+          <t>A 58321-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45378</v>
+        <v>45985.47479166667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11692,7 +11687,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11729,14 +11724,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 12254-2024</t>
+          <t>A 58318-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45378.43430555556</v>
+        <v>45985.47318287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11749,7 +11744,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11786,14 +11781,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 44468-2021</t>
+          <t>A 58756-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44435</v>
+        <v>45986.65002314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11805,13 +11800,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11848,14 +11838,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 52655-2023</t>
+          <t>A 58316-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45225</v>
+        <v>45985.47137731482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11868,7 +11858,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11905,14 +11895,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 24866-2023</t>
+          <t>A 58761-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45085.39561342593</v>
+        <v>45986.65516203704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11925,7 +11915,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11962,14 +11952,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 39950-2024</t>
+          <t>A 21307-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45553</v>
+        <v>45781.41212962963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11981,13 +11971,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12024,14 +12009,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 11270-2022</t>
+          <t>A 58310-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44629.74461805556</v>
+        <v>45985.4681712963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12044,7 +12029,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12081,14 +12066,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 68095-2021</t>
+          <t>A 53521-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44526.3550462963</v>
+        <v>45230</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12101,7 +12086,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12138,14 +12123,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 26695-2021</t>
+          <t>A 61575-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44348</v>
+        <v>45261</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12158,7 +12143,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12195,14 +12180,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 58800-2022</t>
+          <t>A 59105-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44903</v>
+        <v>45988</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12215,7 +12200,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12252,14 +12237,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 4821-2023</t>
+          <t>A 49971-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44957.64600694444</v>
+        <v>45215.39953703704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12272,7 +12257,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12309,14 +12294,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 11478-2024</t>
+          <t>A 38278-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45372</v>
+        <v>45545</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12329,7 +12314,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12366,14 +12351,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 51630-2021</t>
+          <t>A 12675-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44462.48349537037</v>
+        <v>45384.39924768519</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12386,7 +12371,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12423,14 +12408,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 15491-2024</t>
+          <t>A 37083-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45401.51510416667</v>
+        <v>45539.48737268519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12442,13 +12427,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12485,14 +12465,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 45918-2024</t>
+          <t>A 22401-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45580.4637037037</v>
+        <v>45786.53190972222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12505,7 +12485,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12542,14 +12522,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 50906-2024</t>
+          <t>A 13560-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45602.69741898148</v>
+        <v>45736</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12562,7 +12542,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12599,14 +12579,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 6785-2024</t>
+          <t>A 34664-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45342</v>
+        <v>45526.49925925926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12618,13 +12598,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12661,14 +12636,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 55730-2022</t>
+          <t>A 2073-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44888</v>
+        <v>46036.3408449074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12681,7 +12656,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12718,14 +12693,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 53520-2022</t>
+          <t>A 23114-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44879</v>
+        <v>45791.36858796296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12738,7 +12713,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12775,14 +12750,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 35404-2023</t>
+          <t>A 2749-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45146.60049768518</v>
+        <v>45314.580625</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12832,14 +12807,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 13563-2025</t>
+          <t>A 57284-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45736</v>
+        <v>45629.58258101852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12852,7 +12827,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12889,14 +12864,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 13870-2025</t>
+          <t>A 24519-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45737.58509259259</v>
+        <v>45798.41673611111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12909,7 +12884,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12946,14 +12921,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 61012-2023</t>
+          <t>A 24499-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45259</v>
+        <v>45798.39575231481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12966,7 +12941,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13003,14 +12978,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 15467-2023</t>
+          <t>A 4837-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45020.43767361111</v>
+        <v>46048.61173611111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13023,7 +12998,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13060,14 +13035,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 20288-2025</t>
+          <t>A 62129-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45774.71646990741</v>
+        <v>46006.44893518519</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13080,7 +13055,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13117,14 +13092,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 72558-2021</t>
+          <t>A 62123-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44546.43049768519</v>
+        <v>46006.44307870371</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13137,7 +13112,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13174,14 +13149,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 6480-2025</t>
+          <t>A 18740-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45699.61184027778</v>
+        <v>45763.71474537037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13194,7 +13169,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13231,14 +13206,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 35447-2023</t>
+          <t>A 62447-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45146</v>
+        <v>46007.48613425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13250,8 +13225,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13288,14 +13268,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 79-2024</t>
+          <t>A 62391-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45293</v>
+        <v>46007.3897337963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13307,8 +13287,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13345,14 +13330,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 40328-2024</t>
+          <t>A 62852-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45555.29670138889</v>
+        <v>46008.70960648148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13364,8 +13349,13 @@
           <t>MJÖLBY</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13402,14 +13392,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 66977-2021</t>
+          <t>A 54444-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13422,7 +13412,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13459,14 +13449,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 49566-2021</t>
+          <t>A 27255-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44455</v>
+        <v>45812.47243055556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13479,7 +13469,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13516,14 +13506,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 15276-2022</t>
+          <t>A 27259-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44659</v>
+        <v>45812.47438657407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13535,13 +13525,8 @@
           <t>MJÖLBY</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13578,14 +13563,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 51642-2021</t>
+          <t>A 27232-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44462</v>
+        <v>45812.44145833333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13598,7 +13583,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13635,14 +13620,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 17707-2023</t>
+          <t>A 27251-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45037.37438657408</v>
+        <v>45812.47131944444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13655,7 +13640,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13692,14 +13677,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 46248-2024</t>
+          <t>A 63445-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45581.59293981481</v>
+        <v>46013.39946759259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13712,7 +13697,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13749,14 +13734,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 61575-2023</t>
+          <t>A 27248-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45261</v>
+        <v>45812.46631944444</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13769,7 +13754,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13806,14 +13791,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 21307-2025</t>
+          <t>A 28341-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45781.41212962963</v>
+        <v>45818.67709490741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13826,7 +13811,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13863,14 +13848,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 34664-2024</t>
+          <t>A 28321-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45526.49925925926</v>
+        <v>45818.64015046296</v>
       <